--- a/annotation/annotation_schema_cookversational_search.xlsx
+++ b/annotation/annotation_schema_cookversational_search.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Promotion\Annotation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Promotion\CookversationalSearch\annotation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15CB8DD7-185E-40BC-A5CA-38789F202812}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8251BD6-5600-4DCA-B388-6A6F90A7CA1D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{4DA8BC8C-CB17-4341-84BF-B96DC8599B67}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4DA8BC8C-CB17-4341-84BF-B96DC8599B67}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="3" r:id="rId1"/>
@@ -54,14 +54,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="657">
   <si>
     <t>Definition</t>
   </si>
   <si>
-    <t>Beispiel</t>
-  </si>
-  <si>
     <t>Equipment alternative implicit</t>
   </si>
   <si>
@@ -377,9 +374,6 @@
     <t>Ingredient composition - explicit</t>
   </si>
   <si>
-    <t>Ingredient composition implizit</t>
-  </si>
-  <si>
     <t>Ingredient Substitution - explicit</t>
   </si>
   <si>
@@ -668,18 +662,12 @@
     <t>„Was für typische Gerichte gibt es mit dem (-) Topinambur (?)“ (TP33, Absatz 9)</t>
   </si>
   <si>
-    <t>Frage ob etwas z.B. eher als Beilage gedacht ist oder nicht</t>
-  </si>
-  <si>
     <t>„Gut (_) Ja ähm (-) Ist das eher so eine Vorspeiseportion oder eher so eine Hauptgerichtportion (_)“ (TP14, Absatz 34)</t>
   </si>
   <si>
     <t>„Ah ok also schon Eintopf (_) Weil es sieht jetzt aus wie ein Eintopf (_)“ (TP23, Absatz 138)</t>
   </si>
   <si>
-    <t>Vergleich mit anderem Gericht zur besseren Einordnung.</t>
-  </si>
-  <si>
     <t>„Ist das dann wie so ein Eintopf (?)“ (TP23, Absatz 136)</t>
   </si>
   <si>
@@ -749,192 +737,54 @@
     <t>„Eine Minute (_)“ (TP4, Absatz 8)</t>
   </si>
   <si>
-    <t>Welche Geschmacksrichtung hat ein Rezept? Z.b. Süß-sauer</t>
-  </si>
-  <si>
-    <t>Welche Getränke eignen sich/passen zu einem bestimmten Gericht?</t>
-  </si>
-  <si>
     <t>"Ah da stand süß-sauer oder?" (TP8, Absatz 150)</t>
   </si>
   <si>
-    <t>Frage, welche typischen Gerichte es mit bestimmten Zutaten gibt. Dient nur dem Interesse - kein Bedürfnis, es nachkochen zu müssen.</t>
-  </si>
-  <si>
-    <t>Explizite Rückversicherung bezogen auf Meal Type</t>
-  </si>
-  <si>
-    <t>Frage welche Form das Gericht hat, z.B. flüssig</t>
-  </si>
-  <si>
-    <t>Implizites Bedürfnis ein alternatives Küchenutensil zu finden</t>
-  </si>
-  <si>
-    <t>Frage, ob Küchenutensil in irgendeiner Weise modifiziert werden muss, z.B. offener/geschlossener Kochtopf</t>
-  </si>
-  <si>
-    <t>Frage, welche Elemente des Gerichts in welchem Küchenutensil zubereitet werden</t>
-  </si>
-  <si>
-    <t>Implizite Rückversicherung, ob Küchenutensil verwendet werden muss</t>
-  </si>
-  <si>
-    <t>Explizite Rückversicherung, ob Küchenutensil verwendet werden muss</t>
-  </si>
-  <si>
-    <t>Frage nach Größe eines Küchenutensils. Z.B. "Wie groß soll der Topf sein?"</t>
-  </si>
-  <si>
-    <t>Direkte Frage, wie groß ein Küchenutensil sein soll</t>
-  </si>
-  <si>
-    <t>Frage, ob die Größe des Küchenutensils ausreichend ist</t>
-  </si>
-  <si>
-    <t>Frage, was mit einem Küchenutensil gemeint ist (Küchenutensil unbekannt)</t>
-  </si>
-  <si>
-    <t>Küchenutensil bereitet Problem, das gelöst werden muss (z.B. Utensil zu klein)</t>
-  </si>
-  <si>
-    <t>Frage, was in welcher Küchenutensilie verarbeitet werden muss</t>
-  </si>
-  <si>
-    <t>Frage nach der Art des Küchenutensils</t>
-  </si>
-  <si>
-    <t>Frage ob es bestimmte Standardgrößen/-mengen gibt</t>
-  </si>
-  <si>
-    <t>Frage was bestimmte (chemische) Element bedeuten</t>
-  </si>
-  <si>
-    <t>Frage, wie eine bestimmte Konsistenz definiert ist.</t>
-  </si>
-  <si>
-    <t>Frage was ein Kochbegriff übersetzt bedeutet</t>
-  </si>
-  <si>
-    <t>Frage wie etwas schmeckt</t>
-  </si>
-  <si>
-    <t>Explizite Rückfrage zu einer Wissensfrage</t>
-  </si>
-  <si>
-    <t>Wissens-/Definitionsfrage zu einer Kochtechnik</t>
-  </si>
-  <si>
     <t>„Kannst einmal schauen Alexander Andünsten was das eigentlich genau bedeutet (?)“ (TP3, Absatz 110) „Weil sonst das Wasser wenn das Salz drin ist länger braucht um heiß zu werden (;) Meinst du das stimmt (?)“ (TP22, Absatz 101)</t>
   </si>
   <si>
-    <t>Rückversicherung der Kochdauer</t>
-  </si>
-  <si>
-    <t>Explizite Rückversicherung bezogen auf die Kochdauer</t>
-  </si>
-  <si>
-    <t>Implizite Rückverischerung bezogen auf die Kochdauer</t>
-  </si>
-  <si>
-    <t>Frage nach der Bratzeit</t>
-  </si>
-  <si>
-    <t>Implizite Frage nach der Bratzeit</t>
-  </si>
-  <si>
     <t>„20 Minuten (_)“ (TP37, Absatz 209)</t>
   </si>
   <si>
     <t>„Ok (_) Und wie lang muss ich den Spargel anbraten (,) auch bis er weich wird (,) oder (-)“ (TP9, Absatz 104)</t>
   </si>
   <si>
-    <t>Explizite Frage nach der Bratzeit</t>
-  </si>
-  <si>
-    <t>Frage nach der Grillzeit</t>
-  </si>
-  <si>
     <t>„Wie lang muss man so Paprika eigentlich grillen (?)“ (TP15, Absatz 104)</t>
   </si>
   <si>
-    <t>Frage nach der Quellzeit</t>
-  </si>
-  <si>
-    <t>Implizite Frage nach der Quellzeit</t>
-  </si>
-  <si>
-    <t>Explizite Frage nach der Quellzeit</t>
-  </si>
-  <si>
     <t>„Wie lange soll es ziehen (?)“ (TP13, Absatz 64)</t>
   </si>
   <si>
     <t>„Eine Stunde oder so wahrscheinlich (_)“ (TP15, Absatz 164)</t>
   </si>
   <si>
-    <t>Frage nach der Dünstzeit</t>
-  </si>
-  <si>
     <t>„Wie lange dünste ich sie an (;)“ (TP30, Absatz 107)</t>
   </si>
   <si>
-    <t>Frage nach der (kompletten) Zubereitungszeit</t>
-  </si>
-  <si>
     <t>„Aha (,) Wie lange dauert das in etwa (?)“ (TP38, Absatz 13)</t>
   </si>
   <si>
-    <t>Frage nach der Uhrzeit</t>
-  </si>
-  <si>
     <t>„Wie spät ist es denn (?)“ (TP12, Absatz 105)</t>
   </si>
   <si>
-    <t>Frage, wie viel Zeit noch übrig bleibt</t>
-  </si>
-  <si>
-    <t>Explizite Rückversicherung  bezüglich der übrig bleibenden Zeit</t>
-  </si>
-  <si>
     <t>„Das dürfte jetzt glaub ich bald rum sein oder (?)“ (TP25, Absatz 118)</t>
   </si>
   <si>
-    <t>Explizite Frage nach der übrig bleibenden Zeit</t>
-  </si>
-  <si>
     <t>„Wie lange haben wir noch (;)“ (TP21, Absatz 256)</t>
   </si>
   <si>
-    <t>Implizite Frage nach der übrig bleibenden Zeit</t>
-  </si>
-  <si>
     <t>„Drei Minuten noch (_) Um 27 war es (_)“ (TP39, Absatz 249)</t>
   </si>
   <si>
-    <t>Frage wie viel Zeit schon vergangen ist</t>
-  </si>
-  <si>
-    <t>Explizite Rückversicherung bzgl. Der vergangenen Zeit</t>
-  </si>
-  <si>
     <t>„Ja die haben wir locker schon oder (?)“ (TP17, Absatz 213)</t>
   </si>
   <si>
-    <t>Explizite Frage nach der vergangenen Zeit</t>
-  </si>
-  <si>
     <t>„Wie lange sind wir schon unterwegs (?)“ (TP3, Absatz 48)</t>
   </si>
   <si>
-    <t>Implizite Frage nach der vergangenen Zeit</t>
-  </si>
-  <si>
     <t>„Wenn es fünfzehn Minuten sind (_)“ (TP42, Absatz 213)</t>
   </si>
   <si>
-    <t>Frage nach der Kochzeit für Zutaten</t>
-  </si>
-  <si>
     <t>„Wie lang braucht Spargel (?)“ (TP15, Absatz 42)</t>
   </si>
   <si>
@@ -1049,237 +899,111 @@
     <t>„Ok (_) Also ich spül es jetzt einfach mal ab (_) Schaden tut es bestimmt nicht (_)“ (TP9, Absatz 44)</t>
   </si>
   <si>
-    <t>Frage, welche (Vor-)verarbeitungsschritte man unternehmen muss, um eine Zutat richtig zu verwenden (z.B. Wasser weg bei Mozzarella)</t>
-  </si>
-  <si>
-    <t>Implizite Frage, ob Zutat richtig verarbeitet wird</t>
-  </si>
-  <si>
-    <t>Explizite Frage, ob Zutat richtig verarbeitet wird</t>
-  </si>
-  <si>
     <t>„Muss ich den Spargel vorher waschen den weißen (?)“ (TP24, Absatz 119)</t>
   </si>
   <si>
-    <t>Implizite Rückversicherung</t>
-  </si>
-  <si>
-    <t>Explizite Rückversicherung</t>
-  </si>
-  <si>
     <t>„Aber ich glaub das kann man auch zerdatschen oder (?)“ (TP26, Absatz 80)</t>
   </si>
   <si>
-    <t>Frage, ob Zusammensetzung/gleichzeitiges Verwenden bestimmter Zutaten sinnvoll ist.</t>
-  </si>
-  <si>
-    <t>Explizite Rückversicherung ob Zusammensetzung passt</t>
-  </si>
-  <si>
     <t>„Also eigentlich könnte ich ja dann für Ratatouille noch ein paar von den Tomaten reintun oder (,)“ (TP27, Absatz 75)</t>
   </si>
   <si>
     <t>„Also du hast gesagt Sauerrahm würde da gut dazu passen (_)“ (TP27, Absatz 97)</t>
   </si>
   <si>
-    <t>Implizite Rückversicherung ob Zusammensetzung passt</t>
-  </si>
-  <si>
-    <t>Explizite/Direkte Frage bzgl. Zusammensetzung der Zutaten</t>
-  </si>
-  <si>
     <t>„Google mal Tomaten und Spargel (_) Ob das zusammenpasst (_)“ (TP1, Absatz 208)</t>
   </si>
   <si>
-    <t>Implizite Frage bzgl. Zusammensetzung der Zutaten</t>
-  </si>
-  <si>
     <t>„Und das brauch ich zusammen mit den Kichererbsen (_)“ (TP36, Absatz 91)</t>
   </si>
   <si>
-    <t>Frage, ob man Zutat durch andere Zutat ersetzen kann</t>
-  </si>
-  <si>
-    <t>Rückversicherung ob Zutat mit anderer Zutat ersetzt werden kann</t>
-  </si>
-  <si>
     <t>„Naja gut dann können wir normale Milch auch nehmen oder (?)“ (TP31, Absatz 52)</t>
   </si>
   <si>
-    <t>Direkte Frage wie man Zutat ersetzen kann</t>
-  </si>
-  <si>
     <t>„Für was könnte man Sesampaste ersetzen (?)“ (TP15, Absatz 110)</t>
   </si>
   <si>
-    <t>Implizite Frage wie man Zutat ersetzen kann</t>
-  </si>
-  <si>
     <t>„Schnittlauch hab ich nicht (_)“ (TP15, Absatz 98)</t>
   </si>
   <si>
-    <t>Frage, welche Zutat vor der Ersetzung verlangt war</t>
-  </si>
-  <si>
     <t>„Was war es ursprünglich (?)“ (TP30, Absatz 173)</t>
   </si>
   <si>
-    <t>Frage nach dem Zweck einer Zutat. Warum wird diese Zutat hinzugefügt? Z.B. weil sie Geschmacksträger ist</t>
-  </si>
-  <si>
     <t>„Zum um die Zwiebeln anzubraten (?)“ (TP33, Absatz 21)</t>
   </si>
   <si>
-    <t>Implizite Rückversicherung hinsichtlich des Zeitpunkts zu dem eine Zutat hinzugefügt wird.</t>
-  </si>
-  <si>
     <t>„Die kommt aber am Anfang schon mit mit rein (_)“ (TP2, Absatz 23)</t>
   </si>
   <si>
-    <t>Explizite Rückversicherung hinsichtlich des Zeitpunkts zu dem eine Zutat hinzugefügt wird.</t>
-  </si>
-  <si>
     <t>„Paprika und Ananas jetzt können wir schon oder (?)“ (TP8, Absatz 172)</t>
   </si>
   <si>
-    <t>Implizite Frage bzgl. Des Zeitpunktes zu dem eine Zutat hinzugefügt wird.</t>
-  </si>
-  <si>
-    <t>Direkte Frage bzgl. Des Zeitpunktes zu dem eine Zutat hinzugefügt wird.</t>
-  </si>
-  <si>
     <t>„Zum Schluss dann noch irgendwie (;)“ (TP23, Absatz 186)</t>
   </si>
   <si>
     <t>„Darf ich meine Frühlingszwiebeln schon hinzugeben (?)“ (TP30, Absatz 157)</t>
   </si>
   <si>
-    <t>In welcher Textur/Erscheinung sollen Zutaten benutzt werden? Textur bezieht sich dabei auf Oberflächencharakteristika wie z.B. Farbe, während sich appearance auf Größe, Form etc. bezieht</t>
-  </si>
-  <si>
     <t>„Aber äh sind die schon gekocht vorher (?)“ (TP29, Absatz 44)</t>
   </si>
   <si>
-    <t>Frage ob Zutaten z.B. schon vorgekocht/gegart sein sollen</t>
-  </si>
-  <si>
-    <t>Allgemeine Frage nach dem Aussehen, die sich nicht auf einen bestimmten Aspekt/ein bestimmtes Charakteristikum bezieht</t>
-  </si>
-  <si>
     <t>„Weißt du wie das ausschauen soll (?) Also persönliche jetzt Erfahrung (?)“ (TP25, Absatz 76)</t>
   </si>
   <si>
-    <t>Erscheinungsform der Zutaten, gemeint ist z.B. ob eine Zutat in Würfeln/Ringen vorliegen soll</t>
-  </si>
-  <si>
     <t>„Die soll man würfeln ne (?)“ (TP25, Absatz 88)</t>
   </si>
   <si>
-    <t>Frage nach der Größe, die eine Zutat besitzen soll</t>
-  </si>
-  <si>
     <t>„Wie klein muss ich die jetzt schneiden (?)“ (TP39, Absatz 57)</t>
   </si>
   <si>
     <t>„Stand da was drin ob die schon weich sein soll wenn ich den Honig dazugebe (?)“ (TP24, Absatz 155)</t>
   </si>
   <si>
-    <t>Frage zu welchem Zeitpunkt eine gewisse Konsistenz erreicht sein soll</t>
-  </si>
-  <si>
     <t>„Soll wahrscheinlich weich werden einfach oder (?)“ (TP24, Absatz 147)</t>
   </si>
   <si>
-    <t>Frage, welche Konsistenz eine Zutat hat/haben soll. Ist sie z.B. weich oder hart?</t>
-  </si>
-  <si>
-    <t>Wie lichtdurchlässig ist eine Zutat? Gemeint sind hier insbesondere Charakteristika wie "glasig"</t>
-  </si>
-  <si>
     <t>„Ok (_) Ähm (-) Wie äh wie sollen die Zwiebeln irgendwie glasig sein oder steht da nichts spezielleres dabei (_)“ (TP14, Absatz 164)</t>
   </si>
   <si>
-    <t>Welche Farbe soll die Zutat haben?</t>
-  </si>
-  <si>
     <t>„Muss ich die braun werden lassen (?)“ (TP39, Absatz 79)</t>
   </si>
   <si>
-    <t>Implizite Rückversicherung bezüglich Textur/Erscheinung</t>
-  </si>
-  <si>
     <t>„Den Spargel als Ganzes (_)“ (TP38, Absatz 51)</t>
   </si>
   <si>
-    <t>Explizite Rückversicherung bezüglich Textur/Erscheinung</t>
-  </si>
-  <si>
     <t>„Wahrscheinlich schon oder (?)“ (TP24, Absatz 155)</t>
   </si>
   <si>
-    <t>Wunsch des Nutzers, den ersten Schritt zu erfahren</t>
-  </si>
-  <si>
     <t>„Bitte nochmal zum zum ersten Schritt (_)“ (TP16, Absatz 60)</t>
   </si>
   <si>
-    <t>Bedürfnis des Nutzers, alle vorzubereitenden Schritte zu erfahren</t>
-  </si>
-  <si>
     <t>„Nenne mir alle VORzubereitenden Schritte (_)“ (TP30, Absatz 57)</t>
   </si>
   <si>
-    <t>Wunsch, alle Zubereitungsschritte AUF EINMAL zu erfahren</t>
-  </si>
-  <si>
     <t>„Ok (,) Lies die Schritte zum Rezept vor (_)“ (TP30, Absatz 55)</t>
   </si>
   <si>
-    <t>Wunsch, einen oder mehrere Schritte zu wiederholen</t>
-  </si>
-  <si>
     <t>„Noch einmal bitte von vorne (,)“ (TP36, Absatz 35)</t>
   </si>
   <si>
     <t>„Und was ist dann das nächste (?)“ (TP37, Absatz 43)</t>
   </si>
   <si>
-    <t>Bitte, den nächsten Schritt zu erfahren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wunsch, die ersten (nicht DEN ersten) Schritte vorzulesen </t>
-  </si>
-  <si>
     <t>„Les mal einfach die ersten Schritte vor (_) (..) Was ich machen muss (_) (..)“ (TP1, Absatz 74)</t>
   </si>
   <si>
-    <t>Wunsch, den Schritt vor dem aktuellen Schritt zu erfahren</t>
-  </si>
-  <si>
     <t>„Was war der Schritt davor (?) Soll ich das nicht nach und nach zugeben (?)“ (TP6, Absatz 48)</t>
   </si>
   <si>
-    <t>Frage, ob es möglich ist, einen späteren Schritt bereits jetzt schon durchzuführen</t>
-  </si>
-  <si>
     <t>„Oder kann man irgendwas einen weiteren Schritt hinten schon mal machen wie man es klein schneiden kann (_)“ (TP5, Absatz 80)</t>
   </si>
   <si>
-    <t>Frage, zu welchem Zeitpunkt eine Handlung vollzogen werden soll</t>
-  </si>
-  <si>
     <t>„Wann soll ich würzen (_)“ (TP30, Absatz 181)</t>
   </si>
   <si>
-    <t>Wunsch bestimmte Zubereitungsschritte zu überspringen/Frage ob dies möglich ist</t>
-  </si>
-  <si>
     <t>„Ja das ähm kannst natürlich überspringen was (.) //Kartoffeln und alles betrifft//“ (TP1, Absatz 106)</t>
   </si>
   <si>
-    <t>Wunsch zu einem bestimmten Zubereitungsschritt zu springen</t>
-  </si>
-  <si>
     <t>„Ok (_) Ähm (-) Kannst du mir nochmal den Schritt zum Füllen vorlesen (?)“ (TP14, Absatz 248)</t>
   </si>
   <si>
@@ -1295,438 +1019,216 @@
     <t>„Ok sagst du mir was ich noch mit den Röllchen machen soll (?)“ (TP14, Absatz 176)</t>
   </si>
   <si>
-    <t>Frage, ob sich Zubereitung ändert, wenn sich Zutat ändert. Im Gegensatz zu "Ingredient Substitution" bezieht sich das nicht darauf, welche alternativen Zutaten es gibt, sondern auf welche Art und Weise sich die Zubereitung ändert, wenn sich die Zutat ändert</t>
-  </si>
-  <si>
     <t>„Was wenn es aber keine Crème fraîche ist (?) Sondern Mozzarella der noch schmelzen muss (?)“ (TP30, Absatz 179)</t>
   </si>
   <si>
-    <t>Frage, auf welche Art und Weise eine Zutat verwendet/weiterverarbeitet werden soll</t>
-  </si>
-  <si>
     <t>„Und was ist mit den Tomaten (?)“ (TP36, Absatz 79)</t>
   </si>
   <si>
-    <t>Frage, ob man beim letzten Schritt angelangt ist</t>
-  </si>
-  <si>
     <t>„Und dann (?) Sind wir fertig (_)“ (TP21, Absatz 258)</t>
   </si>
   <si>
-    <t>Frage ob eine Erwärmung/Erhitzung nötig ist</t>
-  </si>
-  <si>
     <t>„Muss ich die nicht noch warm machen (?)“ (TP17, Absatz 223)</t>
   </si>
   <si>
-    <t>Frage, welche Ofenschiene benutzt werden soll</t>
-  </si>
-  <si>
     <t>„Und welche Schiene ist das dann da (?)“ (TP37, Absatz 51)</t>
   </si>
   <si>
-    <t>Frage, welcher Hitzetyp (z.B. Ober-/Unterhitze) verwendet werden soll</t>
-  </si>
-  <si>
     <t>„Umluft oder Ober und Unterhitze (_)“ (TP35, Absatz 29)</t>
   </si>
   <si>
-    <t>Frage, ob Vorheizen nötig ist</t>
-  </si>
-  <si>
     <t>„Muss ich den Ofen oder so auch vorheizen (?)“ (TP37, Absatz 49)</t>
   </si>
   <si>
-    <t>Explizite Rückversicherung bzgl. Der Temperatur</t>
-  </si>
-  <si>
     <t>„Ok (_) Mittlere Hitze (?)“ (TP35, Absatz 57)</t>
   </si>
   <si>
-    <t>Implizite Rückversicherung bzgl. Der Temperatur</t>
-  </si>
-  <si>
     <t>„Also jetzt runter (_)“ (TP13, Absatz 46)</t>
   </si>
   <si>
-    <t>Direkte Frage nach der Temperatur</t>
-  </si>
-  <si>
     <t>„Bei wie viel Temperatur (?)“ (TP13, Absatz 40)</t>
   </si>
   <si>
     <t>„Dürfte jetzt eigentlich schon fertig sein oder (?)“ (TP28, Absatz 19)</t>
   </si>
   <si>
-    <t>Frage, warum ein bestimmter Schritt erforderlich ist.</t>
-  </si>
-  <si>
     <t>„Aber wieso muss ich dann nur ganz unten schälen (?)“ (TP37, Absatz 23)</t>
   </si>
   <si>
-    <t>Frage ob es sinnvoll ist, bestimmte zutaten hinzuzufügen</t>
-  </si>
-  <si>
     <t>„Such mal danach ob man Kid- ob man den BOhnensaft mit reintut (_)“ (TP7, Absatz 80)</t>
   </si>
   <si>
-    <t>Frage nach dem nächsten Schritt einer Kochtechnik</t>
-  </si>
-  <si>
     <t>„Und dann (?)“ (TP20, Absatz 38)</t>
   </si>
   <si>
-    <t>Rückversicherungen</t>
-  </si>
-  <si>
     <t>„Man schneidet erst den Boden ab (?)“ (TP22, Absatz 159)</t>
   </si>
   <si>
     <t>„Also auch bei grünem Spargel (_)“ (TP27, Absatz 25)</t>
   </si>
   <si>
-    <t>Wunsch nach einem Video, um Zubereitung besser zu verstehen</t>
-  </si>
-  <si>
     <t>„Ich würde mir eigentlich lieber ein Video anschauen zum Spargelschälen geht das (?)“ (TP1, Absatz 100)</t>
   </si>
   <si>
-    <t>Rückfrage zu einem bestimmten Schritt, der vorgelesen wurde</t>
-  </si>
-  <si>
     <t>„Wie war das nochmal am Anfang (?)“ (TP10, Absatz 33)</t>
   </si>
   <si>
     <t>„Ja kannst mal fragen also die Zucchini (?) Ob man die irgendwie vorbraten muss oder so (_)“ (TP3, Absatz 4)</t>
   </si>
   <si>
-    <t>Einschätzung/Frage, ob Rezept kochbar ist (auch wenn Zutaten fehlen)</t>
-  </si>
-  <si>
     <t>„Also wenn man die Hälfte der Sachen nicht hat (?)“ (TP24, Absatz 29)</t>
   </si>
   <si>
-    <t>Frage nach der Quelle, von der die Information zu einem Rezept bezogen wurde</t>
-  </si>
-  <si>
-    <t>Explizite Frage nach der Quelle</t>
-  </si>
-  <si>
     <t>„Bei welcher Plattform (?)“ (TP1, Absatz 30)</t>
   </si>
   <si>
     <t>„Also auf jeden Fall gängige Internetseiten wo man (-) äh Rezepte finden kann (_)“ (TP27, Absatz 109)</t>
   </si>
   <si>
-    <t>Implizite Frage nach der Quelle</t>
-  </si>
-  <si>
-    <t>Wensch eines Nutzers, die Rezeptbewertungen zu erfahren</t>
-  </si>
-  <si>
     <t>„Ok kannst du Bewertungen anzeigen (?)“ (TP1, Absatz 32)</t>
   </si>
   <si>
-    <t>Bitte, die Bewertungen "anzuzeigen". Konkret wurden sie vorgelesen, da es sich um ein SCSS handelt</t>
-  </si>
-  <si>
     <t>„Drei Komma was wie viel waren es (?)“ (TP22, Absatz 29)</t>
   </si>
   <si>
-    <t>Frage nach der Zahl der Sternenbewertungen</t>
-  </si>
-  <si>
-    <t>Frage nach der Anzahl der Bewertungen. Damit ist gemeint, wie viel Leute das Rezept bewertet haben</t>
-  </si>
-  <si>
     <t>„Ok (,) Wie viele Bewertungen (?)“ (TP22, Absatz 13)</t>
   </si>
   <si>
     <t>„Ja und kannst mir das beschreiben (?)“ (TP1, Absatz 16)</t>
   </si>
   <si>
-    <t>Frage nach dem Schwierigkeitsgrad eines Rezeptes</t>
-  </si>
-  <si>
     <t>„Wie kompliziert ist denn das (,) was steht denn da da (?)“ (TP26, Absatz 26)</t>
   </si>
   <si>
-    <t>Frage nach der subjektiven Einschätzung, ob ein Bild/Rezept gut aussieht</t>
-  </si>
-  <si>
     <t>„Ok sieht das lecker aus (?)“ (TP8, Absatz 100)</t>
   </si>
   <si>
-    <t>Mit dieser Kategorie sind Informationsbedürfnisse verbunden, die sich auf die Rezeptsuche beziehen</t>
-  </si>
-  <si>
     <t>„Wart Kichererbsencurry mit (-)“ (TP26, Absatz 48)</t>
   </si>
   <si>
-    <t>Hier soll die Ergebnisliste wiederholt vorgelesen werden</t>
-  </si>
-  <si>
-    <t>Wunsch, das nächste Rezept in der Liste zu erfahren</t>
-  </si>
-  <si>
     <t>„Mhm (?) Cool (?)“ (TP26, Absatz 40)</t>
   </si>
   <si>
-    <t>In dieser Kategorie geht es bereits um die konkrete Suche nach Rezepten. Wenn es weder eine Suche nach Namen noch anhand von Zutaten gab, sonder die Anfrage eher generischer Natur war, wurde sie dieser Oberkategorie zugeordnet</t>
-  </si>
-  <si>
     <t>„Was könnte ich heute kochen (;)“ (TP30, Absatz 1)</t>
   </si>
   <si>
-    <t>Rezeptsuche anhand von Rezeptnamen</t>
-  </si>
-  <si>
-    <t>Explizite/Direkte Suchanfrage mit Namen</t>
-  </si>
-  <si>
-    <t>Implizite Suchanfrage mit Namen</t>
-  </si>
-  <si>
     <t>„Gibt es da ein Rezept dafür (?) Topinambur-Sellerie-Suppe (?)“ (TP34, Absatz 5)</t>
   </si>
   <si>
     <t>„Hey Alex ich möchte Spargel-Kartoffelpfanne kochen (_)“ (TP30, Absatz 5)</t>
   </si>
   <si>
-    <t>Rezeptsuche anhand von Zutaten</t>
-  </si>
-  <si>
-    <t>Explizite Suchanfrage mit Zutaten</t>
-  </si>
-  <si>
-    <t>Implizite Suchanfrage mit Zutaten</t>
-  </si>
-  <si>
     <t>„Google mal Sahne Ei Soße (_)“ (TP1, Absatz 122)</t>
   </si>
   <si>
     <t>„Man kann auch schauen was man einfach so mit Kartoffeln und Tomaten hauptsächlich dann noch macht (;)“ (TP32, Absatz 19)</t>
   </si>
   <si>
-    <t>Rezeptanfrage für eine BEILAGE</t>
-  </si>
-  <si>
     <t>„Was machen die als Beilage dazu (?) Gibt es dazu eine Beilage oder ist es als Beilage gedacht (;)“ (TP38, Absatz 59)</t>
   </si>
   <si>
-    <t>Nachdem ein Rezept gefunden wurde und das nicht, passt soll ein Alternativrezept gesucht werden (bezieht sich auf das selbe Rezept)</t>
-  </si>
-  <si>
     <t>„Hm (_) Das habe ich schon einmal gekocht (_)“ (TP30, Absatz 3)</t>
   </si>
   <si>
-    <t>Implizite Bitte nach einem Alternativrezept zu suchen</t>
-  </si>
-  <si>
     <t>„Ok was gibt es noch (?)“ (TP17, Absatz 67)</t>
   </si>
   <si>
-    <t>Explizite Bitte nach einem Alternativrezept zu suchen</t>
-  </si>
-  <si>
-    <t>Frage ob Rezeptsuche bereits erfolgreich war. Resultiert aus der Ungeduld des Probanden</t>
-  </si>
-  <si>
     <t>„Ja hast du ein Rezept gefunden (?)“ (TP1, Absatz 14)</t>
   </si>
   <si>
-    <t>Frage, ob während des Kochprozesses das Gefäß/Behältnis gewechselt werden muss. Grund ist die Planung des Kochvorgangs</t>
-  </si>
-  <si>
     <t>„Wechsel ich das Gefäß noch einmal (_)“ (TP30, Absatz 91)</t>
   </si>
   <si>
-    <t>Fragen bzgl. Umrechnungen in andere Maßeinheiten, z.B. wie viel Zentimeter "normal groß" bedeuten</t>
-  </si>
-  <si>
     <t>„Was ist das in Zentimetern (_)“ (TP30, Absatz 77)</t>
   </si>
   <si>
-    <t>Nutzer möchte wissen, welche Termini bei der Suchanfrage verwendet wurden.</t>
-  </si>
-  <si>
     <t>„Mhm (,) Ok (?) Hast du Langkornreis gegoogelt oder Reis (_)“ (TP22, Absatz 237)</t>
   </si>
   <si>
-    <t>Nutzer möchte über den aktuellen "Systemstatus" informiert werden - konkret was gerade vor sich geht</t>
-  </si>
-  <si>
     <t>„Was schaust du (?)“ (TP18, Absatz 32)</t>
   </si>
   <si>
-    <t>Frage, ob bei dem Rezept Tips/Vorschläge/Empfehlungen angegeben sind.</t>
-  </si>
-  <si>
     <t>„Ähm stehen da noch irgendwelche Tipps eigentlich unten drunter (?)“ (TP22, Absatz 221)</t>
   </si>
   <si>
     <t>„Also an Chili wurde Cayennepfeffer empfohlen (,) Paprikapulver (-) und Salz Pfeffer (;)“ (TP34, Absatz 145)</t>
   </si>
   <si>
-    <t>Implizite Rückversicherung ob das gehörte richtig verstanden wurde</t>
-  </si>
-  <si>
-    <t>Nutzer hat das Bedürfnis ein Bild zu sehen, was jedoch nicht möglich ist, da es ein SCSS ist…</t>
-  </si>
-  <si>
     <t>„Gibt es da auch Bilder (?)“ (TP8, Absatz 96)</t>
   </si>
   <si>
-    <t>Nutzer möchte eine sprachliche Beschreibung des Bildes erhalten</t>
-  </si>
-  <si>
     <t>„Ok (_) Kannst du es beschreiben (?)“ (TP14, Absatz 30)</t>
   </si>
   <si>
     <t>„darf ich das Rezept abwandeln (?)“ (TP14, Absatz 116)</t>
   </si>
   <si>
-    <t>Nutzer fragt nach, welche Aktionen im Rahmen des Experiments erlaubt sind und welche nicht</t>
-  </si>
-  <si>
-    <t>Frage nach den Fähigkeiten, die das System (also der Testleiter) besitzt</t>
-  </si>
-  <si>
     <t>„Ok (_) Ähm (-) Hast du auch einen Timer integriert (?)“ (TP14, Absatz 94)</t>
   </si>
   <si>
-    <t>Fragen, die sich auf gesundheitliche Aspekte des Gerichts/einzelner Zutaten beziehen, z.B. ob es ok ist wenn eine Zutat innen schwarz ist</t>
-  </si>
-  <si>
     <t>„Steht da auch dabei wie gesund das ist was ich jetzt koch (?)“ (TP37, Absatz 29)</t>
   </si>
   <si>
-    <t>Nutzer möchten wissen, welche Pizzalieferdienste es gibt</t>
-  </si>
-  <si>
-    <t>Nutzer fragen nach der Erfahrung des "Systems" (also des Testleiters) in kochbezogenen Dingen</t>
-  </si>
-  <si>
     <t>„Alex nenne mir gute Pizzaservices (_)“ (TP30, Absatz 135)</t>
   </si>
   <si>
     <t>„Hast du schon mal die (-) Reis so gekocht (?)“ (TP8, Absatz 164)</t>
   </si>
   <si>
-    <t>Befehl des Nutzers, Zutaten durch andere zu ersetzen.</t>
-  </si>
-  <si>
     <t>„Wir ersetzen Frischkäse durch Mozzarella (_)“ (TP30, Absatz 173)</t>
   </si>
   <si>
-    <t>Befehl des Nutzers an das System, Dinge zu berechnen.</t>
-  </si>
-  <si>
     <t>„Kannst du mir das ausrechnen (?)“ (TP39, Absatz 21)</t>
   </si>
   <si>
-    <t>Befehl, das Vorlesen der Schritte/Zutaten etc. zu pausieren</t>
-  </si>
-  <si>
     <t>„Pause (,)“ (TP36, Absatz 55)</t>
   </si>
   <si>
     <t>„Gut (-) Wecker auf 45 Minuten (_)“ (TP35, Absatz 97)</t>
   </si>
   <si>
-    <t>Befehl, einen Timer zu stellen/modifizieren/auszumachen</t>
-  </si>
-  <si>
     <t>„Alex (_) Schalte Musik ein (_)“ (TP30, Absatz 61)</t>
   </si>
   <si>
-    <t>Befehl, Musik anzuschalten</t>
-  </si>
-  <si>
-    <t>Befehl, weitere Zutaten zur Rezeptsuche hinzuzufügen</t>
-  </si>
-  <si>
     <t>„Vielleicht kannst du noch irgendwie Zutaten dazu (?) geben (,)“ (TP14, Absatz 10)</t>
   </si>
   <si>
-    <t>Befehl, Zutaten beim Kochen zu entfernen/wegzulassen</t>
-  </si>
-  <si>
     <t>„Schinken kannst weglassen (_)“ (TP1, Absatz 164)</t>
   </si>
   <si>
-    <t>Befehl, Zutatenmenge zu ändern</t>
-  </si>
-  <si>
-    <t>Befehl, Anzahl der Personen für die das Rezept gedacht ist zu ändern</t>
-  </si>
-  <si>
     <t>„Reduziere die Menge auf die Hälfte“ (TP30, Absatz 53)</t>
   </si>
   <si>
     <t>„Für zwei Personen (_)“ (TP39, Absatz 19)</t>
   </si>
   <si>
-    <t>Befehl, Mengen zu ändern</t>
-  </si>
-  <si>
-    <t>Rezept wird angepasst. Ganze Zubereitungsteile werden ersetzt</t>
-  </si>
-  <si>
     <t>„Nö wir machen es vegetarisch (_)“ (TP6, Absatz 16)</t>
   </si>
   <si>
-    <t>Rezeptsuche soll nach bestimmten Aspekten gefiltert werden</t>
-  </si>
-  <si>
     <t>„Und nimm alles raus was überbacken werden muss oder einen Ofen braucht (_)“ (TP25, Absatz 4)</t>
   </si>
   <si>
-    <t xml:space="preserve">Nutzer soll in Rezept in der Zutatenliste navigieren. </t>
-  </si>
-  <si>
     <t>„Oder steht vielleicht bei den ZUtaten schau nochmal da (,) bei den Zutaten steht ja dann auch manchmal (-)“ (TP23, Absatz 44)</t>
   </si>
   <si>
-    <t>Nutzer will ein Rezept vormerken (--&gt; Metapher)</t>
-  </si>
-  <si>
     <t>„Kannst du da irgendwie vormerken oder so (?)“ (TP21, Absatz 12)</t>
   </si>
   <si>
-    <t>Wunsch wieder über das Rezept zu reden/wieder zum Rezept zu wechseln. Hierbei handelt es sich um einen Akt der Navigation</t>
-  </si>
-  <si>
     <t>„Ok dann tu mal wieder das Rezept her (,)(.)“ (TP1, Absatz 102)</t>
   </si>
   <si>
-    <t>Das System soll das Vorlesen der SERP stoppen.</t>
-  </si>
-  <si>
     <t>„//Ja passt schon//(_)“ (TP1, Absatz 212)</t>
   </si>
   <si>
     <t>„Geh mal ganz oben in das ähm (..) da wo die an Sterne angezeigt werden (_)“ (TP1, Absatz 42)</t>
   </si>
   <si>
-    <t>Hierbei handelt es sich um Navigationsanweisungen auf der SERP. Nutzer hat ein mentales Modell der Website</t>
-  </si>
-  <si>
     <t>„Ok (_) Und wie heißt das Gericht nochmal (-) Eintopf (?) Oder (-)“ (TP23, Absatz 134)</t>
   </si>
   <si>
-    <t>Rückfrage zum Namen des Gerichts, das aktuell zubereitet wird</t>
-  </si>
-  <si>
     <t>„Was war das Erste (?)“ (TP1, Absatz 124)</t>
   </si>
   <si>
-    <t>Nutzer möchte den Namen eines bestimmten Rezepts, das gefunden wurde, wissen</t>
-  </si>
-  <si>
-    <t>Frage, wie bereits zubereitete Teile des Gerichts zu einem späteren Zeitpunkt weiterverarbeitet werden sollen</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ingredient removal </t>
   </si>
   <si>
@@ -1739,21 +1241,9 @@
     <t>Change Amount</t>
   </si>
   <si>
-    <t>Befehl, Zutaten erneut vorzulesen</t>
-  </si>
-  <si>
     <t>„Was war da nochmal les nochmal vor (-)“ (TP21, Absatz 18)</t>
   </si>
   <si>
-    <t>Mitteilung an das System, ein Rezept auszuwählen</t>
-  </si>
-  <si>
-    <t>Explizite Auswahl eines Rezepts</t>
-  </si>
-  <si>
-    <t>Implizite Auswahl eines Rezepts</t>
-  </si>
-  <si>
     <t>„Ja das hört sich doch gut an (_) Dann machen wir das (,)“ (TP13, Absatz 10)</t>
   </si>
   <si>
@@ -1769,66 +1259,12 @@
     <t>Actions &amp; Commands</t>
   </si>
   <si>
-    <t>Defintion</t>
-  </si>
-  <si>
-    <t>Code Ebene 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code Ebene 2 </t>
-  </si>
-  <si>
-    <t>Code Ebene 2</t>
-  </si>
-  <si>
-    <t>Code Ebene 3</t>
-  </si>
-  <si>
-    <t>Code Ebene 4</t>
-  </si>
-  <si>
-    <t>User Command ( = Befehle während der Zubereitung)</t>
-  </si>
-  <si>
-    <t>User Search Actions ( = Befehle die sich auf die Suche &amp; Navigation beziehen)</t>
-  </si>
-  <si>
-    <t>Wissensfrage die sich auf eine bestimmte Zutat bezieht. Diese sind meistens definitorischer Natur.</t>
-  </si>
-  <si>
-    <t>Äußerungen dieser Gruppe beziehen sich auf die Zubereitungsschritte. Hier geht es um Informationsbedürfnisse, bei denen die Versuchspersonen konkrete Zubereitungsschritte erfahren möchten (z.B. was der nächste Schritt ist, was der erste Schritt ist usw.)</t>
-  </si>
-  <si>
-    <t>Rückversicherung ob die Zubereitung/Kochtechnik abgeschlossen wurde bzw. ob der letzte Schritt erreicht wurde.</t>
-  </si>
-  <si>
-    <t>KochTECHNIKEN, die sich explizit NICHT auf eine bestimmte Zutat beziehen. Z.B.: Wie kann man Flüssigkeit ziehen?/Wie überprüft man den Garzeitpunkt?/Wie bindet man Soße?</t>
-  </si>
-  <si>
     <t>„Schließt man beim Andünsten den Deckel (_)“ (TP30, Absatz 109)</t>
   </si>
   <si>
-    <t>Suche nach Kochtechniken, die nicht im Rezept expliziert sind und sich auf bestimmte Zutaten beziehen.</t>
-  </si>
-  <si>
-    <t>Explizite Rückversicherung, ob ein Zubereitungsschritt richtig durchgeführt wird. VP fragt explizit, ob der nächste Schritt, den er/sie ausführen möchte, richtig ist. "Explizit"-Kriterium sind Marker wie Fragepartikel und Intonation (wenn sie nach oben geht). Bezieht sich auf das JETZT vs. Next Prep. Step auf DANN bezieht.</t>
-  </si>
-  <si>
-    <t>Implizite Rückversicherung, ob ein Zubereitungsschritt richtig durchgeführt wird. "Implizit"-Kriterium sind Marker wie nach unten gehende Intonation oder das Fehlen von Fragepartikeln. Ansonsten gelten dieselben Kriterien</t>
-  </si>
-  <si>
-    <t>Frage, welche Küchenutensilien benötigt werden bzw. verwendet werden sollen.</t>
-  </si>
-  <si>
-    <t>Frage nach dem Zeitpunkt zu dem eine Zutat hinzugefügt wird. Häufig haben Fragen diesbezüglich die Form "Wann muss ich Zutat XY reintun?" Möglich sind, wie unten zu sehen, aber auch Rückversicherungen wie "Dann tu ich das jetzt rein.", da sich diese auch auf den Zeitpunkt des Hinzufügens beziehen.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Next Ingredient </t>
   </si>
   <si>
-    <t>Frage, in welcher Reihenfolge Zubereitungsschritte durchgeführt werden sollen. Fragen wie "Und dann XY reintun" wurden NICHT mit Preparation Order gelabelt, da sich diese auf den unmittelbar nächsten Schritt beziehen. Kommt hingegen so etwas wie "Was muss ich zuerst erhitzen" oder "Welche Reihenfolge", dann ist es Preparation Order.</t>
-  </si>
-  <si>
     <t>Amount Unit</t>
   </si>
   <si>
@@ -1844,18 +1280,12 @@
     <t>Navigational Instruction on SERP</t>
   </si>
   <si>
-    <t>System Instrucation - Stop Reading out SERP</t>
-  </si>
-  <si>
     <t>Question regarding experiment</t>
   </si>
   <si>
     <t>Pot Change</t>
   </si>
   <si>
-    <t>Erklären/Zusammenfassen eines gefundenen Rezeptes. Kriterium ist die Vagheit in der Formulierung. Im Gegensatz zu "All preparation steps" sind hier Fragen/Bedürfnisse so formuliert, dass das System sagen/zusammenfassen soll, wie ein Rezept zubereitet wird. Es wird nicht explizit nach den Zubereitungsschritten verlangt. Oft äußert sich das in Formulierungen wie "Was ist kalorienarme Soße?" oder "Was ist das?"</t>
-  </si>
-  <si>
     <t>Amount related information needs occuring during cooking</t>
   </si>
   <si>
@@ -2025,6 +1455,576 @@
   </si>
   <si>
     <t>Questions targeting which ingredient type is required, e.g. brown sugar, icing sugar …</t>
+  </si>
+  <si>
+    <t>Queries regarding the necessary (pre)processing steps to make an ingredient usable (e.g. removing water from mozarella package)</t>
+  </si>
+  <si>
+    <t>Implicit query whether ingredient is processed properly</t>
+  </si>
+  <si>
+    <t>Explicit query whether ingredient is processed properly</t>
+  </si>
+  <si>
+    <t>Implicit Reassurance</t>
+  </si>
+  <si>
+    <t>Explicit Reassurance</t>
+  </si>
+  <si>
+    <t>User wants to know if simultaneous usage of certain ingredients is sensible.</t>
+  </si>
+  <si>
+    <t>Explicit reassurance if simultaneous usage is sensible.</t>
+  </si>
+  <si>
+    <t>Implicit reassurance if simultaneous usage is sensible.</t>
+  </si>
+  <si>
+    <t>Explicit/Direct question regarding the simultaneous usage of ingredients</t>
+  </si>
+  <si>
+    <t>Implicit question regarding the simultaneous usage of ingredients</t>
+  </si>
+  <si>
+    <t>Ingredient composition - implicit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User wants to know if ingredients can be replaced with another ingredient </t>
+  </si>
+  <si>
+    <t>Explicit reassurance if an ingredient can be replaced with another</t>
+  </si>
+  <si>
+    <t>Direct Question how an ingredient can be replaced with another.</t>
+  </si>
+  <si>
+    <t>Implicit Question how an ingredient can be replaced with another.</t>
+  </si>
+  <si>
+    <t>Question which ingredient was required before the substitution.</t>
+  </si>
+  <si>
+    <t>Question regarding the purpose of an ingredient and why it is added. E.g. because it is flavor carrier.</t>
+  </si>
+  <si>
+    <t>Questions regarding the point in time an ingredient is added. Often, questions have the shape "When do I have to add ingredient XY?" Reassurances like "Then I will add that now." as they relate to the addition point in time.</t>
+  </si>
+  <si>
+    <t>Implicit reassurance regarding the moment an ingredient is added.</t>
+  </si>
+  <si>
+    <t>Explicit reassurance regarding the moment an ingredient is added.</t>
+  </si>
+  <si>
+    <t>Direct question regarding the moment an ingredient is added.</t>
+  </si>
+  <si>
+    <t>Implicit question regarding the moment an ingredient is added.</t>
+  </si>
+  <si>
+    <t>Which texture/appearance should ingredients have for usage? Texture relates to superficial kriteria like color while appearance relates to size, shape etc.</t>
+  </si>
+  <si>
+    <t>Question if ingredients should be e.g. pre-cooked</t>
+  </si>
+  <si>
+    <t>Question regarding the general appearance that does not relate to a specific aspect or criteria</t>
+  </si>
+  <si>
+    <t>Questions concerning the shape of ingredients, e.g. whether an ingredient should be diced or not.</t>
+  </si>
+  <si>
+    <t>Question regarding the size of an ingredient.</t>
+  </si>
+  <si>
+    <t>Question regarding the moment at which a certain consistency should be reached</t>
+  </si>
+  <si>
+    <t>Question regarding the consistency a certain ingredient should possess, e.g. hard or soft</t>
+  </si>
+  <si>
+    <t>How transparent is an ingredient? Characteristica like "glassy" are meant by this.</t>
+  </si>
+  <si>
+    <t>Which color should the ingredients have?</t>
+  </si>
+  <si>
+    <t>Implicit Reassurance regarding texture/appearance</t>
+  </si>
+  <si>
+    <t>Explicit Reassurance regarding texture/appearance</t>
+  </si>
+  <si>
+    <t>Utterances in this group relate to the preparation steps. In the following information needs, users want to know concrete preparation steps (e.g. what is the next step, what is the first step … )</t>
+  </si>
+  <si>
+    <t>Wish to hear about the first step</t>
+  </si>
+  <si>
+    <t>Wish to read out all preparatory steps</t>
+  </si>
+  <si>
+    <t>Wish to hear about all preparation steps at once</t>
+  </si>
+  <si>
+    <t>Wish to repeat one or more steps</t>
+  </si>
+  <si>
+    <t>Wisht to hear the next step</t>
+  </si>
+  <si>
+    <t>Wish to hear about the first few step and NOT the first one explicitly</t>
+  </si>
+  <si>
+    <t>Wish to hear about the step before the current one</t>
+  </si>
+  <si>
+    <t>Question at which moment a ceratain action should be fulfilled</t>
+  </si>
+  <si>
+    <t>Wish to omit certain preparation steps/Questions if this is possible</t>
+  </si>
+  <si>
+    <t>Need to switch to a certain preparation step</t>
+  </si>
+  <si>
+    <t>Question if it is possible to conduct a later preparation step now/earlier</t>
+  </si>
+  <si>
+    <t>Explicit reassurance if a preparation step is conducted properly. The participant explicitly asks if the next step he/she wants to perform is correct. A criteria for "explicity" are markers interrogative particles and intonation (going up with pitch). Relates to the NOW vs. Next Prep. Step relates to the THEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implicit reassurance if a preparation step is conducted properly. Criteria for implicity are markes like an intonation going down with pitch or the lack of interrogative particles. </t>
+  </si>
+  <si>
+    <t>Queries regarding the order in which preparation steps are conducted. Questions like "and then we add XY" were NOT labelled with preparation order as they relate to the immediate next step. However, questions like "What do I have to heat first" or "In which order?" were labelled as preparation order.</t>
+  </si>
+  <si>
+    <t>Question how already prepared parts of the meal should be further processed later.</t>
+  </si>
+  <si>
+    <t>Question if the preparation steps change when an ingredient is changed. In contrast to "Ingredient Substitution" this does not relate to which alternative ingredients exist but in which manner the preparation process changes when the ingredient is changed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question in which way an ingredient should be further used/processed </t>
+  </si>
+  <si>
+    <t>Question if the last step was reached.</t>
+  </si>
+  <si>
+    <t>Reassurance if the preparation/cooking technique was finished / if the last step was reached.</t>
+  </si>
+  <si>
+    <t>Question why a ceratin step is necessary</t>
+  </si>
+  <si>
+    <t>Question if it is sensible to add ceratin ingredients</t>
+  </si>
+  <si>
+    <t>Cooking TECHNIQUES that are explicitly NOT related to a certain ingredient. For example: How do I check the cooking time? / How do I bind sauces?</t>
+  </si>
+  <si>
+    <t>Question for the next step of a cooking technique</t>
+  </si>
+  <si>
+    <t>Reassurances.</t>
+  </si>
+  <si>
+    <t>Explicit Reassurance regarding a cooking technique</t>
+  </si>
+  <si>
+    <t>Implicit Reassurance regarding a cooking technique</t>
+  </si>
+  <si>
+    <t>Wish to see a video to better comprehend the preparation process</t>
+  </si>
+  <si>
+    <t>Clarifying question regarding a certain step that was read out</t>
+  </si>
+  <si>
+    <t>Search for cooking techniques that are not explained in the recipe and that are related to certain ingredients</t>
+  </si>
+  <si>
+    <t>Reassurance of the cooking time</t>
+  </si>
+  <si>
+    <t>Explicit reassurance related to the cooking time</t>
+  </si>
+  <si>
+    <t>Implicit reassurance related to the cooking time</t>
+  </si>
+  <si>
+    <t>Question regarding the roasting time</t>
+  </si>
+  <si>
+    <t>Implicit question regarding the roasting time</t>
+  </si>
+  <si>
+    <t>Explicit question regarding the roasting time</t>
+  </si>
+  <si>
+    <t>Question regarding the broiling time</t>
+  </si>
+  <si>
+    <t>Question regarding the soaking time</t>
+  </si>
+  <si>
+    <t>Explicit question regarding the soaking time</t>
+  </si>
+  <si>
+    <t>Implicit question regarding the soaking time</t>
+  </si>
+  <si>
+    <t>Question regarding the steaming time</t>
+  </si>
+  <si>
+    <t>Question regarding the (entire) preparation time</t>
+  </si>
+  <si>
+    <t>Question regarding the current time</t>
+  </si>
+  <si>
+    <t>Question regarding how much time is left</t>
+  </si>
+  <si>
+    <t>Explicit reassurance regarding the remaining time</t>
+  </si>
+  <si>
+    <t>Explicit question regarding the remaining time</t>
+  </si>
+  <si>
+    <t>Implicit question regarding the remaining time</t>
+  </si>
+  <si>
+    <t>Question how much time has already passed</t>
+  </si>
+  <si>
+    <t>Explicit reassurance regarding the passed time</t>
+  </si>
+  <si>
+    <t>Explicit question regarding the passed time</t>
+  </si>
+  <si>
+    <t>Implicit question regarding the passed time</t>
+  </si>
+  <si>
+    <t>Question regarding the cooking time for ingredients</t>
+  </si>
+  <si>
+    <t>Assessment/Question if recipe can be cooked (even if ingredients are missing)</t>
+  </si>
+  <si>
+    <t>Request for the source the information for the recipe is taken from</t>
+  </si>
+  <si>
+    <t>Explicit request for the source</t>
+  </si>
+  <si>
+    <t>Implicit request for the source</t>
+  </si>
+  <si>
+    <t>User's desire to know the recipe's ratings</t>
+  </si>
+  <si>
+    <t>Plea to "display" the ratings. Ratings were read out loud (SCSS).</t>
+  </si>
+  <si>
+    <t>Request for the amount of star ratings</t>
+  </si>
+  <si>
+    <t>Request for the amount of ratings in total. The user wanted to know how many people have already rated the recipe.</t>
+  </si>
+  <si>
+    <t>Explanation/Description/Summary of a found recipe. The vagueness of the wording is crucial. The system is asked to summarise the recipe not to explicitly enumerate the preparation steps. Characterisitc questions are e.g. "What is that?"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Request for the recipe's level of difficulty </t>
+  </si>
+  <si>
+    <t>Request for a subjective assessment of whether a picture/recipe looks good.</t>
+  </si>
+  <si>
+    <t>Question if there are any tips/suggestions/recommendations for the recipe.</t>
+  </si>
+  <si>
+    <t>Implicit reassurance if the tips heard were understood correctly.</t>
+  </si>
+  <si>
+    <t>This category comprises information needs which relate to the recipe search.</t>
+  </si>
+  <si>
+    <t>The result list is to be read out/repeated</t>
+  </si>
+  <si>
+    <t>Desire to hear the next recipe from the list</t>
+  </si>
+  <si>
+    <t>The user wants to know the name of a specific (already found) recipe</t>
+  </si>
+  <si>
+    <t>This category comprises the concrete search for recipes. If the search contained neither a name nor ingredients but was expresses generically, the search was assigned to this superordinate category.</t>
+  </si>
+  <si>
+    <t>Recipe request with names</t>
+  </si>
+  <si>
+    <t>Explicit query with names</t>
+  </si>
+  <si>
+    <t>Implicit query with names</t>
+  </si>
+  <si>
+    <t>Recipe request with ingredients</t>
+  </si>
+  <si>
+    <t>Explicit query with ingredients</t>
+  </si>
+  <si>
+    <t>Implicit query with ingredients</t>
+  </si>
+  <si>
+    <t>Recipe request for a side dish</t>
+  </si>
+  <si>
+    <t>If the found recipe is not suitable, an alternative recipe should be searched for.</t>
+  </si>
+  <si>
+    <t>Implicit plea to search for an alternative recipe</t>
+  </si>
+  <si>
+    <t>Explicit plea to search for an alternative recipe</t>
+  </si>
+  <si>
+    <t>Question if the recipe search has already been successful. Results from the user's impatience.</t>
+  </si>
+  <si>
+    <t>Implicit need to find an alternative utensil.</t>
+  </si>
+  <si>
+    <t>Question if the utensil needs to be modified in any way (e.g. open/closed cooking pot)</t>
+  </si>
+  <si>
+    <t>Question which elements of the meal are prepared in which utensil.</t>
+  </si>
+  <si>
+    <t>Question about the kind of utensil</t>
+  </si>
+  <si>
+    <t>Question concerning the utensil's size</t>
+  </si>
+  <si>
+    <t>Explicit question of how big the utensil needs to be.</t>
+  </si>
+  <si>
+    <t>Question if the utensil's size is sufficient</t>
+  </si>
+  <si>
+    <t>Request for a definition of the utensil. The utensil is unknown.</t>
+  </si>
+  <si>
+    <t>There is a problem with the utensil which needs to be solved (e.g. utensil too small)</t>
+  </si>
+  <si>
+    <t>Question of what needs to be prepared in which utensils</t>
+  </si>
+  <si>
+    <t>Questions regarding needed/designated utenils.</t>
+  </si>
+  <si>
+    <t>Implicit reassurance if utensils has to be used</t>
+  </si>
+  <si>
+    <t>Explicit reassurance if utensil has to be used</t>
+  </si>
+  <si>
+    <t>Question if there are specific standard sizes or amounts</t>
+  </si>
+  <si>
+    <t>Question regarding the meaning of (chemical) elements</t>
+  </si>
+  <si>
+    <t>Question of how a specific consistency is defined.</t>
+  </si>
+  <si>
+    <t>Question of how a cooking term can be translated</t>
+  </si>
+  <si>
+    <t>Question of how something tastes</t>
+  </si>
+  <si>
+    <t>Explicit reassurance regarding a knowledge question</t>
+  </si>
+  <si>
+    <t>Knowledge or definition regarding a cooking technique</t>
+  </si>
+  <si>
+    <t>Question which concerns a specific ingredient (mostly with regard to a definition)</t>
+  </si>
+  <si>
+    <t>What is the recipe's flavour? E.g. sweet-and-sour</t>
+  </si>
+  <si>
+    <t>Which beverages are suited for a specific meal?</t>
+  </si>
+  <si>
+    <t>What are typical meals with specific ingredients. Just out of interest - no need to cook them.</t>
+  </si>
+  <si>
+    <t>Question if something is meant to be a side dish or not</t>
+  </si>
+  <si>
+    <t>Explicit reassurance concerning the meal type</t>
+  </si>
+  <si>
+    <t>Comparison with another meal for classification</t>
+  </si>
+  <si>
+    <t>Question regarding the name of the meal which is being prepared</t>
+  </si>
+  <si>
+    <t>Question regarding the form of the meal (e.g. liquid)</t>
+  </si>
+  <si>
+    <t>Question of whether heating is necessary</t>
+  </si>
+  <si>
+    <t>Question of which oven rail has to be used.</t>
+  </si>
+  <si>
+    <t>Question of which heating type (e.g. upper/ bottom heat) has to be used.</t>
+  </si>
+  <si>
+    <t>Question if preheating is necessary</t>
+  </si>
+  <si>
+    <t>Explicit reassurance regarding the temperature</t>
+  </si>
+  <si>
+    <t>Implicit reassurance regarding the temperature</t>
+  </si>
+  <si>
+    <t>Question regarding the temperature</t>
+  </si>
+  <si>
+    <t>Command to substitute an ingredient</t>
+  </si>
+  <si>
+    <t>Command to the system to do calculations</t>
+  </si>
+  <si>
+    <t>Command to pause reading out steps/ingredients etc.</t>
+  </si>
+  <si>
+    <t>Command to set/modify/stop the timer</t>
+  </si>
+  <si>
+    <t>Command to turn on music</t>
+  </si>
+  <si>
+    <t>Command to remove/leave out ingredients</t>
+  </si>
+  <si>
+    <t>Command to repeat an ingredient</t>
+  </si>
+  <si>
+    <t>Message for the system to select a recipe</t>
+  </si>
+  <si>
+    <t>Explicit selection of a recipe</t>
+  </si>
+  <si>
+    <t>Implicit selection of a recipe</t>
+  </si>
+  <si>
+    <t>Command to change amounts</t>
+  </si>
+  <si>
+    <t>Command to change the amount of an ingredient</t>
+  </si>
+  <si>
+    <t>Command to change the number of persons for which the recipe is meant</t>
+  </si>
+  <si>
+    <t>Adaptation of the recipe. Entire parts of the preparation are substituted.</t>
+  </si>
+  <si>
+    <t>User Command</t>
+  </si>
+  <si>
+    <t>User Search Actions</t>
+  </si>
+  <si>
+    <t>Add a specific filter to the recipe search</t>
+  </si>
+  <si>
+    <t>System should navigate in the ingredient list of a recipe</t>
+  </si>
+  <si>
+    <t>User wants to mark the recipe down</t>
+  </si>
+  <si>
+    <t>Desire to talk about the recipe again/ to switch back to the recipe. This constitutes an act of navigation.</t>
+  </si>
+  <si>
+    <t>System Instruction - Stop Reading out SERP</t>
+  </si>
+  <si>
+    <t>The system should stop reading out the SERP</t>
+  </si>
+  <si>
+    <t>Navigational instructions on the SERP. The user has a mental model of the website.</t>
+  </si>
+  <si>
+    <t>Command to add ingredients to the recipe search</t>
+  </si>
+  <si>
+    <t>Question if the utensil needs to be changed during the preparation. The reason for that is the planning of the procedure.</t>
+  </si>
+  <si>
+    <t>Questions regarding the conversion in different units of measure (What is "normal size" in centimetres)</t>
+  </si>
+  <si>
+    <t>The user wants to know which termini were used for the query</t>
+  </si>
+  <si>
+    <t>User wants to be informed about the current system processing status - what happens at the moment</t>
+  </si>
+  <si>
+    <t>User has the need to see an image. Not possible due to SCSS.</t>
+  </si>
+  <si>
+    <t>User wants to get a verbal description of the image</t>
+  </si>
+  <si>
+    <t>User asks what kind of actions are allowed during the experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question regarding the system's (experimenter's) abilities </t>
+  </si>
+  <si>
+    <t>Questions regarding the healthiness of the meal/ingredients (e.g. Is it okay if an ingredient is black on the inside?)</t>
+  </si>
+  <si>
+    <t>User wants to know pizza delivery services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User wants to know the "system's" (experimenter's ) experience </t>
+  </si>
+  <si>
+    <t>Code Level 1</t>
+  </si>
+  <si>
+    <t>Code Level 2</t>
+  </si>
+  <si>
+    <t>Code Level 3</t>
+  </si>
+  <si>
+    <t>Code Level 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code Level 2 </t>
   </si>
 </sst>
 </file>
@@ -2643,7 +2643,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B401E1D3-9445-4B4C-A072-A2434CC2F18B}">
   <dimension ref="A1:F238"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -2661,7 +2661,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>568</v>
+        <v>398</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2671,100 +2671,100 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>600</v>
+        <v>410</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>601</v>
+        <v>411</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>602</v>
+        <v>412</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>569</v>
+        <v>399</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>603</v>
+        <v>413</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>604</v>
+        <v>414</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>605</v>
+        <v>415</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>606</v>
+        <v>416</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>607</v>
+        <v>417</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>608</v>
+        <v>418</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>609</v>
+        <v>419</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -2772,20 +2772,20 @@
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>570</v>
+        <v>400</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>610</v>
+        <v>420</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>611</v>
+        <v>421</v>
       </c>
       <c r="E13"/>
       <c r="F13"/>
@@ -3704,7 +3704,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3716,7 +3716,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" s="34"/>
       <c r="D1" s="34"/>
@@ -3725,146 +3725,146 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="20" t="s">
-        <v>572</v>
+        <v>652</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>574</v>
+        <v>653</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>1</v>
+        <v>438</v>
       </c>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>231</v>
+        <v>602</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>232</v>
+        <v>603</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>234</v>
+        <v>604</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>204</v>
+        <v>605</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>235</v>
+        <v>606</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>207</v>
+        <v>607</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>553</v>
+        <v>608</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>552</v>
+        <v>389</v>
       </c>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>236</v>
+        <v>609</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F10" s="2"/>
     </row>
@@ -3893,7 +3893,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="35" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C1" s="35"/>
       <c r="D1" s="35"/>
@@ -3902,87 +3902,87 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" s="21" t="s">
-        <v>572</v>
+        <v>652</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>574</v>
+        <v>653</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>1</v>
+        <v>438</v>
       </c>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>419</v>
+        <v>610</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>420</v>
+        <v>324</v>
       </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>421</v>
+        <v>611</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>422</v>
+        <v>325</v>
       </c>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>423</v>
+        <v>612</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>424</v>
+        <v>326</v>
       </c>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>425</v>
+        <v>613</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>426</v>
+        <v>327</v>
       </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="4" t="s">
-        <v>592</v>
+        <v>404</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -3991,47 +3991,47 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>427</v>
+        <v>614</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>428</v>
+        <v>328</v>
       </c>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>429</v>
+        <v>615</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>430</v>
+        <v>329</v>
       </c>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>431</v>
+        <v>616</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>432</v>
+        <v>330</v>
       </c>
       <c r="F10" s="2"/>
     </row>
@@ -4047,8 +4047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F915427E-EB66-4D57-9EE6-CCE54387639F}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4061,7 +4061,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="36" t="s">
-        <v>577</v>
+        <v>631</v>
       </c>
       <c r="C1" s="36"/>
       <c r="D1" s="36"/>
@@ -4070,124 +4070,124 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
-        <v>519</v>
+        <v>617</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>520</v>
+        <v>373</v>
       </c>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="3" t="s">
-        <v>521</v>
+        <v>618</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>522</v>
+        <v>374</v>
       </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="3" t="s">
-        <v>523</v>
+        <v>619</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>524</v>
+        <v>375</v>
       </c>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>593</v>
+        <v>405</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3" t="s">
-        <v>526</v>
+        <v>620</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>525</v>
+        <v>376</v>
       </c>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="3" t="s">
-        <v>528</v>
+        <v>621</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>527</v>
+        <v>377</v>
       </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>557</v>
+        <v>391</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="3" t="s">
-        <v>531</v>
+        <v>622</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>532</v>
+        <v>379</v>
       </c>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>558</v>
+        <v>392</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="3" t="s">
-        <v>561</v>
+        <v>623</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>562</v>
+        <v>395</v>
       </c>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>559</v>
+        <v>393</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="3" t="s">
-        <v>563</v>
+        <v>624</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="2"/>
@@ -4195,98 +4195,98 @@
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>564</v>
+        <v>625</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>566</v>
+        <v>396</v>
       </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>565</v>
+        <v>626</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>567</v>
+        <v>397</v>
       </c>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>560</v>
+        <v>394</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="3" t="s">
-        <v>537</v>
+        <v>627</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>533</v>
+        <v>628</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>535</v>
+        <v>380</v>
       </c>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>534</v>
+        <v>629</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>536</v>
+        <v>381</v>
       </c>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="3" t="s">
-        <v>538</v>
+        <v>630</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>539</v>
+        <v>382</v>
       </c>
       <c r="F15" s="2"/>
     </row>
@@ -4300,7 +4300,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="36" t="s">
-        <v>578</v>
+        <v>632</v>
       </c>
       <c r="C17" s="36"/>
       <c r="D17" s="36"/>
@@ -4309,113 +4309,113 @@
     </row>
     <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="3" t="s">
-        <v>540</v>
+        <v>633</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>541</v>
+        <v>383</v>
       </c>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="3" t="s">
-        <v>542</v>
+        <v>634</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>543</v>
+        <v>384</v>
       </c>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>594</v>
+        <v>406</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="3" t="s">
-        <v>544</v>
+        <v>635</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>545</v>
+        <v>385</v>
       </c>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="3" t="s">
-        <v>546</v>
+        <v>636</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>547</v>
+        <v>386</v>
       </c>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>596</v>
+        <v>637</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="3" t="s">
-        <v>548</v>
+        <v>638</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>549</v>
+        <v>387</v>
       </c>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>595</v>
+        <v>407</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="3" t="s">
-        <v>551</v>
+        <v>639</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>550</v>
+        <v>388</v>
       </c>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="3" t="s">
-        <v>529</v>
+        <v>640</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>530</v>
+        <v>378</v>
       </c>
       <c r="F24" s="2"/>
     </row>
@@ -4441,7 +4441,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4454,7 +4454,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="37" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C1" s="37"/>
       <c r="D1" s="37"/>
@@ -4463,194 +4463,194 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" s="22" t="s">
-        <v>572</v>
+        <v>652</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>574</v>
+        <v>653</v>
       </c>
       <c r="D2" s="22" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>1</v>
+        <v>438</v>
       </c>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>598</v>
+        <v>409</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="3" t="s">
-        <v>493</v>
+        <v>641</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>494</v>
+        <v>360</v>
       </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="3" t="s">
-        <v>495</v>
+        <v>642</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>496</v>
+        <v>361</v>
       </c>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3" t="s">
-        <v>497</v>
+        <v>643</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>498</v>
+        <v>362</v>
       </c>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="3" t="s">
-        <v>499</v>
+        <v>644</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>500</v>
+        <v>363</v>
       </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="3" t="s">
-        <v>505</v>
+        <v>645</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>506</v>
+        <v>366</v>
       </c>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>507</v>
+        <v>646</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>508</v>
+        <v>367</v>
       </c>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>597</v>
+        <v>408</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="3" t="s">
-        <v>510</v>
+        <v>647</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>509</v>
+        <v>368</v>
       </c>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="3" t="s">
-        <v>511</v>
+        <v>648</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>512</v>
+        <v>369</v>
       </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="3" t="s">
-        <v>513</v>
+        <v>649</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>514</v>
+        <v>370</v>
       </c>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="3" t="s">
-        <v>515</v>
+        <v>650</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>517</v>
+        <v>371</v>
       </c>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="3" t="s">
-        <v>516</v>
+        <v>651</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>518</v>
+        <v>372</v>
       </c>
       <c r="F13" s="2"/>
     </row>
@@ -4667,7 +4667,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4681,7 +4681,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C1" s="26"/>
       <c r="D1" s="26"/>
@@ -4690,274 +4690,274 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
-        <v>572</v>
+        <v>652</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>574</v>
+        <v>653</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>628</v>
+        <v>438</v>
       </c>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>612</v>
+        <v>422</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>294</v>
+        <v>244</v>
       </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>613</v>
+        <v>423</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>295</v>
+        <v>245</v>
       </c>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>614</v>
+        <v>424</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>296</v>
+        <v>246</v>
       </c>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>591</v>
+        <v>403</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>615</v>
+        <v>425</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>297</v>
+        <v>247</v>
       </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>616</v>
+        <v>426</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>617</v>
+        <v>427</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>298</v>
+        <v>248</v>
       </c>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>618</v>
+        <v>428</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>299</v>
+        <v>249</v>
       </c>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>619</v>
+        <v>429</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>620</v>
+        <v>430</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>621</v>
+        <v>431</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>302</v>
+        <v>252</v>
       </c>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>622</v>
+        <v>432</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>303</v>
+        <v>253</v>
       </c>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>623</v>
+        <v>433</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>304</v>
+        <v>254</v>
       </c>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>624</v>
+        <v>434</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>305</v>
+        <v>255</v>
       </c>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>625</v>
+        <v>435</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>306</v>
+        <v>256</v>
       </c>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>626</v>
+        <v>436</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>307</v>
+        <v>257</v>
       </c>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>627</v>
+        <v>437</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>308</v>
+        <v>258</v>
       </c>
       <c r="F18" s="2"/>
     </row>
@@ -4973,8 +4973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE098B1-1A9F-4D55-8585-A671B6D9B9D3}">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4991,7 +4991,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1" s="27"/>
       <c r="D1" s="27"/>
@@ -5002,987 +5002,987 @@
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="7" t="s">
-        <v>572</v>
+        <v>652</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>574</v>
+        <v>653</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>575</v>
+        <v>654</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>628</v>
+        <v>438</v>
       </c>
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>629</v>
+        <v>439</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>630</v>
+        <v>440</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>589</v>
+        <v>402</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>631</v>
+        <v>441</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>309</v>
+        <v>259</v>
       </c>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>632</v>
+        <v>442</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>310</v>
+        <v>260</v>
       </c>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>633</v>
+        <v>443</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>311</v>
+        <v>261</v>
       </c>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>637</v>
+        <v>447</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>634</v>
+        <v>444</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>313</v>
+        <v>263</v>
       </c>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>636</v>
+        <v>446</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>635</v>
+        <v>445</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>312</v>
+        <v>262</v>
       </c>
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>639</v>
+        <v>449</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>640</v>
+        <v>450</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>314</v>
+        <v>264</v>
       </c>
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>638</v>
+        <v>448</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>641</v>
+        <v>451</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>315</v>
+        <v>265</v>
       </c>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>642</v>
+        <v>452</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>316</v>
+        <v>266</v>
       </c>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
-        <v>643</v>
+        <v>453</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>317</v>
+        <v>267</v>
       </c>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
-        <v>644</v>
+        <v>454</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>318</v>
+        <v>268</v>
       </c>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
-        <v>645</v>
+        <v>455</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>319</v>
+        <v>269</v>
       </c>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
-        <v>646</v>
+        <v>456</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
-        <v>647</v>
+        <v>457</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>321</v>
+        <v>271</v>
       </c>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3" t="s">
-        <v>648</v>
+        <v>458</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>322</v>
+        <v>272</v>
       </c>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3" t="s">
-        <v>649</v>
+        <v>459</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
-        <v>650</v>
+        <v>460</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>323</v>
+        <v>273</v>
       </c>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
-        <v>651</v>
+        <v>461</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>324</v>
+        <v>274</v>
       </c>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
-        <v>652</v>
+        <v>462</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>325</v>
+        <v>275</v>
       </c>
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>653</v>
+        <v>463</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>326</v>
+        <v>276</v>
       </c>
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>654</v>
+        <v>464</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>327</v>
+        <v>277</v>
       </c>
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
-        <v>655</v>
+        <v>465</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>328</v>
+        <v>278</v>
       </c>
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3" t="s">
-        <v>656</v>
+        <v>466</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>329</v>
+        <v>279</v>
       </c>
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="s">
-        <v>331</v>
+        <v>467</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3" t="s">
-        <v>332</v>
+        <v>468</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>330</v>
+        <v>280</v>
       </c>
       <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
-        <v>333</v>
+        <v>469</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>334</v>
+        <v>281</v>
       </c>
       <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3" t="s">
-        <v>335</v>
+        <v>470</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>330</v>
+        <v>280</v>
       </c>
       <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3" t="s">
-        <v>336</v>
+        <v>471</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>337</v>
+        <v>282</v>
       </c>
       <c r="G32" s="3"/>
     </row>
     <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3" t="s">
-        <v>338</v>
+        <v>472</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3" t="s">
-        <v>339</v>
+        <v>473</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>340</v>
+        <v>283</v>
       </c>
       <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3" t="s">
-        <v>342</v>
+        <v>474</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>341</v>
+        <v>284</v>
       </c>
       <c r="G35" s="3"/>
     </row>
     <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3" t="s">
-        <v>343</v>
+        <v>475</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>344</v>
+        <v>285</v>
       </c>
       <c r="G36" s="3"/>
     </row>
     <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>107</v>
+        <v>477</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3" t="s">
-        <v>345</v>
+        <v>476</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>346</v>
+        <v>286</v>
       </c>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3" t="s">
-        <v>347</v>
+        <v>478</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
     <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3" t="s">
-        <v>348</v>
+        <v>479</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>349</v>
+        <v>287</v>
       </c>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3" t="s">
-        <v>350</v>
+        <v>480</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>351</v>
+        <v>288</v>
       </c>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="s">
-        <v>352</v>
+        <v>481</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>353</v>
+        <v>289</v>
       </c>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3" t="s">
-        <v>354</v>
+        <v>482</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>355</v>
+        <v>290</v>
       </c>
       <c r="G42" s="3"/>
     </row>
     <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3" t="s">
-        <v>356</v>
+        <v>483</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>357</v>
+        <v>291</v>
       </c>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3" t="s">
-        <v>588</v>
+        <v>484</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
     </row>
     <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3" t="s">
-        <v>358</v>
+        <v>485</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>359</v>
+        <v>292</v>
       </c>
       <c r="G45" s="3"/>
     </row>
     <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3" t="s">
-        <v>360</v>
+        <v>486</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>361</v>
+        <v>293</v>
       </c>
       <c r="G46" s="3"/>
     </row>
     <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
-        <v>362</v>
+        <v>488</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>364</v>
+        <v>294</v>
       </c>
       <c r="G47" s="3"/>
     </row>
     <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3" t="s">
-        <v>363</v>
+        <v>487</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>365</v>
+        <v>295</v>
       </c>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3" t="s">
-        <v>366</v>
+        <v>489</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3" t="s">
-        <v>368</v>
+        <v>490</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>367</v>
+        <v>296</v>
       </c>
       <c r="G50" s="3"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>369</v>
+        <v>491</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>370</v>
+        <v>297</v>
       </c>
       <c r="G52" s="3"/>
     </row>
     <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>371</v>
+        <v>492</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>372</v>
+        <v>298</v>
       </c>
       <c r="G53" s="3"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>373</v>
+        <v>493</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>374</v>
+        <v>299</v>
       </c>
       <c r="G54" s="3"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -5991,123 +5991,123 @@
     </row>
     <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>376</v>
+        <v>494</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>375</v>
+        <v>300</v>
       </c>
       <c r="G56" s="3"/>
     </row>
     <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>378</v>
+        <v>495</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>377</v>
+        <v>301</v>
       </c>
       <c r="G57" s="3"/>
     </row>
     <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>379</v>
+        <v>496</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>380</v>
+        <v>302</v>
       </c>
       <c r="G58" s="3"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>381</v>
+        <v>497</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>382</v>
+        <v>303</v>
       </c>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3" t="s">
-        <v>383</v>
+        <v>498</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>384</v>
+        <v>304</v>
       </c>
       <c r="G60" s="3"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3" t="s">
-        <v>385</v>
+        <v>499</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>386</v>
+        <v>305</v>
       </c>
       <c r="G61" s="3"/>
     </row>
@@ -6123,8 +6123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07392A47-5175-4595-BC44-1650A45F3926}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6138,7 +6138,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="28" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
@@ -6147,344 +6147,344 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>572</v>
+        <v>652</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>573</v>
+        <v>656</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>571</v>
+        <v>0</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>1</v>
+        <v>438</v>
       </c>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>580</v>
+        <v>500</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>387</v>
+        <v>501</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>388</v>
+        <v>306</v>
       </c>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>389</v>
+        <v>502</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>390</v>
+        <v>307</v>
       </c>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>391</v>
+        <v>503</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>392</v>
+        <v>308</v>
       </c>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>393</v>
+        <v>504</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>394</v>
+        <v>309</v>
       </c>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>396</v>
+        <v>505</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>395</v>
+        <v>310</v>
       </c>
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>397</v>
+        <v>506</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>398</v>
+        <v>311</v>
       </c>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>399</v>
+        <v>507</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>400</v>
+        <v>312</v>
       </c>
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>403</v>
+        <v>508</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>404</v>
+        <v>314</v>
       </c>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>405</v>
+        <v>509</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>406</v>
+        <v>315</v>
       </c>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>407</v>
+        <v>510</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>408</v>
+        <v>316</v>
       </c>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>401</v>
+        <v>511</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>402</v>
+        <v>313</v>
       </c>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>585</v>
+        <v>512</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>409</v>
+        <v>317</v>
       </c>
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>586</v>
+        <v>513</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>410</v>
+        <v>318</v>
       </c>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
-        <v>590</v>
+        <v>514</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>411</v>
+        <v>319</v>
       </c>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
-        <v>556</v>
+        <v>515</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>412</v>
+        <v>320</v>
       </c>
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>413</v>
+        <v>516</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>414</v>
+        <v>321</v>
       </c>
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
-        <v>415</v>
+        <v>517</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>416</v>
+        <v>322</v>
       </c>
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>417</v>
+        <v>518</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>418</v>
+        <v>323</v>
       </c>
       <c r="F21" s="3"/>
     </row>
@@ -6501,7 +6501,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6514,7 +6514,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="29" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
@@ -6523,194 +6523,194 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
-        <v>572</v>
+        <v>652</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>574</v>
+        <v>653</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>1</v>
+        <v>438</v>
       </c>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="3" t="s">
-        <v>581</v>
+        <v>519</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>433</v>
+        <v>331</v>
       </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="3" t="s">
-        <v>434</v>
+        <v>520</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>435</v>
+        <v>332</v>
       </c>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3" t="s">
-        <v>436</v>
+        <v>521</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>437</v>
+        <v>333</v>
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="3" t="s">
-        <v>582</v>
+        <v>522</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>583</v>
+        <v>401</v>
       </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="3" t="s">
-        <v>438</v>
+        <v>523</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>439</v>
+        <v>334</v>
       </c>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="3" t="s">
-        <v>440</v>
+        <v>524</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>336</v>
+        <v>525</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>441</v>
+        <v>335</v>
       </c>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>335</v>
+        <v>526</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>442</v>
+        <v>336</v>
       </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="3" t="s">
-        <v>443</v>
+        <v>527</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>444</v>
+        <v>337</v>
       </c>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="3" t="s">
-        <v>445</v>
+        <v>528</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>446</v>
+        <v>338</v>
       </c>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="3" t="s">
-        <v>584</v>
+        <v>529</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>447</v>
+        <v>339</v>
       </c>
       <c r="F13" s="2"/>
     </row>
@@ -6727,7 +6727,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6740,7 +6740,7 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1" s="30"/>
       <c r="D1" s="30"/>
@@ -6750,382 +6750,382 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="15" t="s">
-        <v>572</v>
+        <v>652</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>574</v>
+        <v>653</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>1</v>
+        <v>438</v>
       </c>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>257</v>
+        <v>530</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>258</v>
+        <v>531</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>259</v>
+        <v>532</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>260</v>
+        <v>533</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>261</v>
+        <v>534</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>262</v>
+        <v>229</v>
       </c>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>264</v>
+        <v>535</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>263</v>
+        <v>230</v>
       </c>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>265</v>
+        <v>536</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>266</v>
+        <v>231</v>
       </c>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>267</v>
+        <v>537</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>269</v>
+        <v>538</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>270</v>
+        <v>232</v>
       </c>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>268</v>
+        <v>539</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>271</v>
+        <v>233</v>
       </c>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>272</v>
+        <v>540</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>273</v>
+        <v>234</v>
       </c>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>274</v>
+        <v>541</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>275</v>
+        <v>235</v>
       </c>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>276</v>
+        <v>542</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>278</v>
+        <v>543</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>279</v>
+        <v>544</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>280</v>
+        <v>237</v>
       </c>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>281</v>
+        <v>545</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>282</v>
+        <v>238</v>
       </c>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>283</v>
+        <v>546</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>284</v>
+        <v>239</v>
       </c>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
-        <v>285</v>
+        <v>547</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>286</v>
+        <v>548</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>287</v>
+        <v>240</v>
       </c>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>288</v>
+        <v>549</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>289</v>
+        <v>241</v>
       </c>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>290</v>
+        <v>550</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>291</v>
+        <v>242</v>
       </c>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
-        <v>292</v>
+        <v>551</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>293</v>
+        <v>243</v>
       </c>
       <c r="F24" s="2"/>
     </row>
@@ -7141,8 +7141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1EFF3A2-12C7-4554-942E-AC5C50C03C75}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7157,7 +7157,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="31" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
@@ -7169,289 +7169,289 @@
     <row r="2" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24"/>
       <c r="B2" s="13" t="s">
-        <v>572</v>
+        <v>652</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>574</v>
+        <v>653</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>575</v>
+        <v>654</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>576</v>
+        <v>655</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>1</v>
+        <v>438</v>
       </c>
       <c r="H2" s="14"/>
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>448</v>
+        <v>552</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>449</v>
+        <v>340</v>
       </c>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>450</v>
+        <v>553</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>451</v>
+        <v>554</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>452</v>
+        <v>341</v>
       </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>454</v>
+        <v>555</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>453</v>
+        <v>342</v>
       </c>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>455</v>
+        <v>556</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>457</v>
+        <v>557</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>456</v>
+        <v>343</v>
       </c>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>459</v>
+        <v>558</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>458</v>
+        <v>344</v>
       </c>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>460</v>
+        <v>559</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>461</v>
+        <v>345</v>
       </c>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>599</v>
+        <v>560</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>462</v>
+        <v>346</v>
       </c>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>463</v>
+        <v>561</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>464</v>
+        <v>347</v>
       </c>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>465</v>
+        <v>562</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>466</v>
+        <v>348</v>
       </c>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>501</v>
+        <v>563</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>502</v>
+        <v>364</v>
       </c>
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>504</v>
+        <v>564</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>503</v>
+        <v>365</v>
       </c>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
-        <v>467</v>
+        <v>565</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -7461,312 +7461,312 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
-        <v>469</v>
+        <v>566</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>468</v>
+        <v>349</v>
       </c>
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
-        <v>470</v>
+        <v>567</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>471</v>
+        <v>350</v>
       </c>
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>555</v>
+        <v>568</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>554</v>
+        <v>390</v>
       </c>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
-        <v>472</v>
+        <v>569</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>473</v>
+        <v>351</v>
       </c>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
-        <v>474</v>
+        <v>570</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>475</v>
+        <v>571</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>477</v>
+        <v>352</v>
       </c>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>476</v>
+        <v>572</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>478</v>
+        <v>353</v>
       </c>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
-        <v>479</v>
+        <v>573</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>480</v>
+        <v>574</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>482</v>
+        <v>354</v>
       </c>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>481</v>
+        <v>575</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>483</v>
+        <v>355</v>
       </c>
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
-        <v>484</v>
+        <v>576</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>485</v>
+        <v>356</v>
       </c>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3" t="s">
-        <v>486</v>
+        <v>577</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3" t="s">
-        <v>488</v>
+        <v>578</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>487</v>
+        <v>357</v>
       </c>
       <c r="H30" s="2"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3" t="s">
-        <v>490</v>
+        <v>579</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>489</v>
+        <v>358</v>
       </c>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3" t="s">
-        <v>491</v>
+        <v>580</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>492</v>
+        <v>359</v>
       </c>
       <c r="H32" s="2"/>
     </row>
@@ -7782,8 +7782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C748B0E-D4DD-4BAC-8F79-517970D62019}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD7"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7795,7 +7795,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" s="32"/>
       <c r="D1" s="32"/>
@@ -7804,217 +7804,217 @@
     </row>
     <row r="2" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
-        <v>572</v>
+        <v>652</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>574</v>
+        <v>653</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>1</v>
+        <v>438</v>
       </c>
       <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>237</v>
+        <v>581</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>238</v>
+        <v>582</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>239</v>
+        <v>583</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="1" t="s">
-        <v>248</v>
+        <v>584</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>242</v>
+        <v>585</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>243</v>
+        <v>586</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>244</v>
+        <v>587</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>245</v>
+        <v>588</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>246</v>
+        <v>589</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>247</v>
+        <v>590</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>240</v>
+        <v>592</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>241</v>
+        <v>593</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -8030,7 +8030,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8040,7 +8040,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="33"/>
       <c r="D1" s="33"/>
@@ -8048,133 +8048,133 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="19" t="s">
-        <v>572</v>
+        <v>652</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>1</v>
+        <v>438</v>
       </c>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>249</v>
+        <v>594</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>250</v>
+        <v>595</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>251</v>
+        <v>596</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>252</v>
+        <v>597</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>253</v>
+        <v>598</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>254</v>
+        <v>599</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="C10" s="3" t="s">
-        <v>579</v>
+        <v>601</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E10" s="2"/>
     </row>

--- a/annotation/annotation_schema_cookversational_search.xlsx
+++ b/annotation/annotation_schema_cookversational_search.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Promotion\CookversationalSearch\annotation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexf\Documents\Arbeit\Konferenzen\TOIS\CookversationalSearch\annotation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8251BD6-5600-4DCA-B388-6A6F90A7CA1D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B706DFB-F49B-4502-B233-F417D14514DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4DA8BC8C-CB17-4341-84BF-B96DC8599B67}"/>
+    <workbookView xWindow="17196" yWindow="6336" windowWidth="23040" windowHeight="12204" firstSheet="8" activeTab="12" xr2:uid="{4DA8BC8C-CB17-4341-84BF-B96DC8599B67}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="3" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="657">
   <si>
     <t>Definition</t>
   </si>
@@ -656,579 +656,9 @@
     <t>Experience</t>
   </si>
   <si>
-    <t>„Welche Getränke würden reintheoretisch zu Chili passen (?)“ (TP34, Absatz 133)</t>
-  </si>
-  <si>
-    <t>„Was für typische Gerichte gibt es mit dem (-) Topinambur (?)“ (TP33, Absatz 9)</t>
-  </si>
-  <si>
-    <t>„Gut (_) Ja ähm (-) Ist das eher so eine Vorspeiseportion oder eher so eine Hauptgerichtportion (_)“ (TP14, Absatz 34)</t>
-  </si>
-  <si>
-    <t>„Ah ok also schon Eintopf (_) Weil es sieht jetzt aus wie ein Eintopf (_)“ (TP23, Absatz 138)</t>
-  </si>
-  <si>
-    <t>„Ist das dann wie so ein Eintopf (?)“ (TP23, Absatz 136)</t>
-  </si>
-  <si>
-    <t>„Ok Moment (_) Brühe heißt (,) Das ist ja dann in flüssiger Form (,) Oder (?)“ (TP22, Absatz 145)</t>
-  </si>
-  <si>
-    <t>„Hm (_) Sowas habe ich leider nicht (_)“ (TP17, Absatz 245)</t>
-  </si>
-  <si>
-    <t>„Ok (_) Muss das bei offenem Kochtopf äh kochen oder geschlossen (_)“ (TP39, Absatz 81)</t>
-  </si>
-  <si>
-    <t>„Und dann (-) Das Ganze in die Auflaufform oder (;)“ (TP37, Absatz 183)</t>
-  </si>
-  <si>
-    <t>„Ähm (-) Die machen es in einem Topf (;)“ (TP34, Absatz 115)</t>
-  </si>
-  <si>
-    <t>„Ist ein Topf die richtige Wahl (_)“ (TP30, Absatz 93)</t>
-  </si>
-  <si>
-    <t>„Ähm (-) Muss das eine beschichtete oder unbeschichtete sein ist vermutlich egal oder (?)“ (TP24, Absatz 111)</t>
-  </si>
-  <si>
-    <t>„WIe groß soll denn der Topf sein klein mittel groß (?)“ (TP24, Absatz 63)</t>
-  </si>
-  <si>
-    <t>„Sollte reichen oder (?) Denke ich mal (-)“ (TP27, Absatz 63)</t>
-  </si>
-  <si>
-    <t>„Teelöffel sind die Kleinen oder (?)“ (TP11, Absatz 94)</t>
-  </si>
-  <si>
-    <t>„Die Pfanne ist zu klein (-)“ (TP7, Absatz 76)</t>
-  </si>
-  <si>
-    <t>„Achso in einem EXtratopf (_)“ (TP6, Absatz 56)</t>
-  </si>
-  <si>
-    <t>„Trifft das Rezept Aussagen darüber in was ich das Öl erhitzen soll (_)“ (TP30, Absatz 87)</t>
-  </si>
-  <si>
-    <t>„Ist ist in einem Crème fraîche-Becher immer nur 150 (?)“ (TP22, Absatz 137)</t>
-  </si>
-  <si>
-    <t>„Äh Bitterstoffe (?)“ (TP3, Absatz 70)</t>
-  </si>
-  <si>
-    <t>„Die Frage ist was ist leicht breiig (;)“ (TP37, Absatz 169)</t>
-  </si>
-  <si>
-    <t>„Was ist primo piato (_)“ (TP30, Absatz 41)</t>
-  </si>
-  <si>
-    <t>„Wie schmeckt der Bulgur (?) Weil das (-) kenn ich überhaupt nicht (,)“ (TP17, Absatz 101)</t>
-  </si>
-  <si>
-    <t>„Also Ajvar war dieses Tomaten (-)“ (TP43, Absatz 87)</t>
-  </si>
-  <si>
-    <t>„Was ist Bulgur eigentlich (?)“ (TP25, Absatz 146)</t>
-  </si>
-  <si>
-    <t>„Und jetzt äh (-) Viertel Stunde hast du gesagt oder (?)“ (TP3, Absatz 114)</t>
-  </si>
-  <si>
-    <t>„Eine Minute (_)“ (TP4, Absatz 8)</t>
-  </si>
-  <si>
-    <t>"Ah da stand süß-sauer oder?" (TP8, Absatz 150)</t>
-  </si>
-  <si>
-    <t>„Kannst einmal schauen Alexander Andünsten was das eigentlich genau bedeutet (?)“ (TP3, Absatz 110) „Weil sonst das Wasser wenn das Salz drin ist länger braucht um heiß zu werden (;) Meinst du das stimmt (?)“ (TP22, Absatz 101)</t>
-  </si>
-  <si>
-    <t>„20 Minuten (_)“ (TP37, Absatz 209)</t>
-  </si>
-  <si>
-    <t>„Ok (_) Und wie lang muss ich den Spargel anbraten (,) auch bis er weich wird (,) oder (-)“ (TP9, Absatz 104)</t>
-  </si>
-  <si>
-    <t>„Wie lang muss man so Paprika eigentlich grillen (?)“ (TP15, Absatz 104)</t>
-  </si>
-  <si>
-    <t>„Wie lange soll es ziehen (?)“ (TP13, Absatz 64)</t>
-  </si>
-  <si>
-    <t>„Eine Stunde oder so wahrscheinlich (_)“ (TP15, Absatz 164)</t>
-  </si>
-  <si>
-    <t>„Wie lange dünste ich sie an (;)“ (TP30, Absatz 107)</t>
-  </si>
-  <si>
-    <t>„Aha (,) Wie lange dauert das in etwa (?)“ (TP38, Absatz 13)</t>
-  </si>
-  <si>
-    <t>„Wie spät ist es denn (?)“ (TP12, Absatz 105)</t>
-  </si>
-  <si>
-    <t>„Das dürfte jetzt glaub ich bald rum sein oder (?)“ (TP25, Absatz 118)</t>
-  </si>
-  <si>
-    <t>„Wie lange haben wir noch (;)“ (TP21, Absatz 256)</t>
-  </si>
-  <si>
-    <t>„Drei Minuten noch (_) Um 27 war es (_)“ (TP39, Absatz 249)</t>
-  </si>
-  <si>
-    <t>„Ja die haben wir locker schon oder (?)“ (TP17, Absatz 213)</t>
-  </si>
-  <si>
-    <t>„Wie lange sind wir schon unterwegs (?)“ (TP3, Absatz 48)</t>
-  </si>
-  <si>
-    <t>„Wenn es fünfzehn Minuten sind (_)“ (TP42, Absatz 213)</t>
-  </si>
-  <si>
-    <t>„Wie lang braucht Spargel (?)“ (TP15, Absatz 42)</t>
-  </si>
-  <si>
-    <t>„Ok (_) Dann (-) Geh ich jetzt einfach mal davon aus dass (-) eine halbe Zwiebel ungefähr zwei Schalotten entspricht (?)“ (TP14, Absatz 120)</t>
-  </si>
-  <si>
-    <t>„Mhm (,)“ (TP39, Absatz 37)</t>
-  </si>
-  <si>
-    <t>„Was du mir mitgebracht hast //das war mal eineinhalb Kilo (,)//“ (TP25, Absatz 20)</t>
-  </si>
-  <si>
-    <t>„Ähm (-) War der Senf beim Salat in Esslöffeln oder in Teelöffeln (_)“ (TP14, Absatz 222)</t>
-  </si>
-  <si>
-    <t>„Also doppelt so viel Zwiebeln wie Mozzarella (?)“ (TP40, Absatz 149)</t>
-  </si>
-  <si>
-    <t>„Doppelte Menge Wasser (_)“ (TP31, Absatz 64)</t>
-  </si>
-  <si>
-    <t>„Wie ist das Verhältnis von Bulgur zu erhitztem Wasser (?)“ (TP16, Absatz 12)</t>
-  </si>
-  <si>
-    <t>„Ok (_) Gut (_) Die doppelte Menge Wasser (_)“ (TP13, Absatz 26)</t>
-  </si>
-  <si>
-    <t>„Soll ich da ein bisschen was wegtun (;)“ (TP42, Absatz 169)</t>
-  </si>
-  <si>
-    <t>„Wie viel Gramm Mehl (?)“ (TP42, Absatz 201)</t>
-  </si>
-  <si>
-    <t>„Eine Messerspitze (?)“ (TP44, Absatz 63)</t>
-  </si>
-  <si>
-    <t>„Vier Esslöffel (_)“ (TP43, Absatz 149)</t>
-  </si>
-  <si>
-    <t>„Für wie viele Leute das ist das jetzt eigentlich (?)“ (TP23, Absatz 48)</t>
-  </si>
-  <si>
-    <t>„Eine Person (_)“ (TP34, Absatz 71)</t>
-  </si>
-  <si>
-    <t>„Also für vier Personen (,)“ (TP42, Absatz 191)</t>
-  </si>
-  <si>
-    <t>„So Petersilie (,) Olivenöl (,) so und dann was noch (?) Oder war es da (_)“ (TP17, Absatz 155)</t>
-  </si>
-  <si>
-    <t>„Ok was ist da noch alles drin (?) Oder was braucht man da alles für noch (?)“ (TP43, Absatz 5)</t>
-  </si>
-  <si>
-    <t>„Muss man das noch irgendwie würzen (?)“ (TP21, Absatz 222)</t>
-  </si>
-  <si>
-    <t>„Ja (,) Sag mal die Zutaten (_)“ (TP6, Absatz 12)</t>
-  </si>
-  <si>
-    <t>„Erst mal die ZuTAten dass ich die alle herräumen kann (_)“ (TP2, Absatz 15)</t>
-  </si>
-  <si>
-    <t>„Kommt Zwiebel rein (?)“ (TP9, Absatz 12)</t>
-  </si>
-  <si>
-    <t>„Mit Butter (_)“ (TP35, Absatz 39)</t>
-  </si>
-  <si>
-    <t>„Da ist aber (-) da kochen sie es mit den Nudeln oder (?)“ (TP8, Absatz 154)</t>
-  </si>
-  <si>
-    <t>„Was Salz (,) Zucker und Butter (_)“ (TP15, Absatz 52)</t>
-  </si>
-  <si>
-    <t>„Also eigentlich kann man die genauso verwenden wie Kartoffeln (_)“ (TP33, Absatz 87)</t>
-  </si>
-  <si>
-    <t>„Aber das kann man ja auch roh essen oder (?)“ (TP33, Absatz 61)</t>
-  </si>
-  <si>
-    <t>„Ok (_) Heißt das jetzt aber (-) also kann man die jetzt auch schon essen oder noch nicht (_)“ (TP12, Absatz 101)</t>
-  </si>
-  <si>
-    <t>„Gut ich mein so aus der Dose wie sie waren konnte hätte man die da schon essen können oder (-)“ (TP12, Absatz 103)</t>
-  </si>
-  <si>
-    <t>„Was die haben ein langes Mindesthaltbarkeitsdatum (?)“ (TP25, Absatz 100)</t>
-  </si>
-  <si>
-    <t>„Ok (,) Das würde ja heißen drei bis vier Tage (_)“ (TP22, Absatz 83)</t>
-  </si>
-  <si>
-    <t>„NACH dem Öffnen in Kühlschrank (_)“ (TP21, Absatz 254)</t>
-  </si>
-  <si>
-    <t>„Kichererbsen muss man nicht kühlstellen oder (?)“ (TP21, Absatz 250)</t>
-  </si>
-  <si>
-    <t>„Äh du kannst ja mal nachschauen ob Spargel in Kühlschrank muss (?) Also Spargel Kühlschrank aufbewahren oder so (-)“ (TP23, Absatz 158)</t>
-  </si>
-  <si>
-    <t>„Ok (_) Wie lang halten die sich wenn die mal offen sind (?)“ (TP25, Absatz 94)</t>
-  </si>
-  <si>
-    <t>„Ok (_) Die Enden in kaltes Wasser (_)“ (TP23, Absatz 160)</t>
-  </si>
-  <si>
-    <t>„Pflanzenöl (,) Also ist das egal welches (?)“ (TP15, Absatz 84)</t>
-  </si>
-  <si>
-    <t>„Ok (_) Also ich spül es jetzt einfach mal ab (_) Schaden tut es bestimmt nicht (_)“ (TP9, Absatz 44)</t>
-  </si>
-  <si>
-    <t>„Muss ich den Spargel vorher waschen den weißen (?)“ (TP24, Absatz 119)</t>
-  </si>
-  <si>
-    <t>„Aber ich glaub das kann man auch zerdatschen oder (?)“ (TP26, Absatz 80)</t>
-  </si>
-  <si>
-    <t>„Also eigentlich könnte ich ja dann für Ratatouille noch ein paar von den Tomaten reintun oder (,)“ (TP27, Absatz 75)</t>
-  </si>
-  <si>
-    <t>„Also du hast gesagt Sauerrahm würde da gut dazu passen (_)“ (TP27, Absatz 97)</t>
-  </si>
-  <si>
-    <t>„Google mal Tomaten und Spargel (_) Ob das zusammenpasst (_)“ (TP1, Absatz 208)</t>
-  </si>
-  <si>
-    <t>„Und das brauch ich zusammen mit den Kichererbsen (_)“ (TP36, Absatz 91)</t>
-  </si>
-  <si>
-    <t>„Naja gut dann können wir normale Milch auch nehmen oder (?)“ (TP31, Absatz 52)</t>
-  </si>
-  <si>
-    <t>„Für was könnte man Sesampaste ersetzen (?)“ (TP15, Absatz 110)</t>
-  </si>
-  <si>
-    <t>„Schnittlauch hab ich nicht (_)“ (TP15, Absatz 98)</t>
-  </si>
-  <si>
-    <t>„Was war es ursprünglich (?)“ (TP30, Absatz 173)</t>
-  </si>
-  <si>
-    <t>„Zum um die Zwiebeln anzubraten (?)“ (TP33, Absatz 21)</t>
-  </si>
-  <si>
-    <t>„Die kommt aber am Anfang schon mit mit rein (_)“ (TP2, Absatz 23)</t>
-  </si>
-  <si>
-    <t>„Paprika und Ananas jetzt können wir schon oder (?)“ (TP8, Absatz 172)</t>
-  </si>
-  <si>
-    <t>„Zum Schluss dann noch irgendwie (;)“ (TP23, Absatz 186)</t>
-  </si>
-  <si>
-    <t>„Darf ich meine Frühlingszwiebeln schon hinzugeben (?)“ (TP30, Absatz 157)</t>
-  </si>
-  <si>
-    <t>„Aber äh sind die schon gekocht vorher (?)“ (TP29, Absatz 44)</t>
-  </si>
-  <si>
-    <t>„Weißt du wie das ausschauen soll (?) Also persönliche jetzt Erfahrung (?)“ (TP25, Absatz 76)</t>
-  </si>
-  <si>
-    <t>„Die soll man würfeln ne (?)“ (TP25, Absatz 88)</t>
-  </si>
-  <si>
-    <t>„Wie klein muss ich die jetzt schneiden (?)“ (TP39, Absatz 57)</t>
-  </si>
-  <si>
-    <t>„Stand da was drin ob die schon weich sein soll wenn ich den Honig dazugebe (?)“ (TP24, Absatz 155)</t>
-  </si>
-  <si>
-    <t>„Soll wahrscheinlich weich werden einfach oder (?)“ (TP24, Absatz 147)</t>
-  </si>
-  <si>
-    <t>„Ok (_) Ähm (-) Wie äh wie sollen die Zwiebeln irgendwie glasig sein oder steht da nichts spezielleres dabei (_)“ (TP14, Absatz 164)</t>
-  </si>
-  <si>
-    <t>„Muss ich die braun werden lassen (?)“ (TP39, Absatz 79)</t>
-  </si>
-  <si>
-    <t>„Den Spargel als Ganzes (_)“ (TP38, Absatz 51)</t>
-  </si>
-  <si>
-    <t>„Wahrscheinlich schon oder (?)“ (TP24, Absatz 155)</t>
-  </si>
-  <si>
-    <t>„Bitte nochmal zum zum ersten Schritt (_)“ (TP16, Absatz 60)</t>
-  </si>
-  <si>
-    <t>„Nenne mir alle VORzubereitenden Schritte (_)“ (TP30, Absatz 57)</t>
-  </si>
-  <si>
-    <t>„Ok (,) Lies die Schritte zum Rezept vor (_)“ (TP30, Absatz 55)</t>
-  </si>
-  <si>
-    <t>„Noch einmal bitte von vorne (,)“ (TP36, Absatz 35)</t>
-  </si>
-  <si>
-    <t>„Und was ist dann das nächste (?)“ (TP37, Absatz 43)</t>
-  </si>
-  <si>
-    <t>„Les mal einfach die ersten Schritte vor (_) (..) Was ich machen muss (_) (..)“ (TP1, Absatz 74)</t>
-  </si>
-  <si>
-    <t>„Was war der Schritt davor (?) Soll ich das nicht nach und nach zugeben (?)“ (TP6, Absatz 48)</t>
-  </si>
-  <si>
-    <t>„Oder kann man irgendwas einen weiteren Schritt hinten schon mal machen wie man es klein schneiden kann (_)“ (TP5, Absatz 80)</t>
-  </si>
-  <si>
-    <t>„Wann soll ich würzen (_)“ (TP30, Absatz 181)</t>
-  </si>
-  <si>
-    <t>„Ja das ähm kannst natürlich überspringen was (.) //Kartoffeln und alles betrifft//“ (TP1, Absatz 106)</t>
-  </si>
-  <si>
-    <t>„Ok (_) Ähm (-) Kannst du mir nochmal den Schritt zum Füllen vorlesen (?)“ (TP14, Absatz 248)</t>
-  </si>
-  <si>
-    <t>„Und jetzt Ananas soll ja kochen oder (?)“ (TP8, Absatz 180)</t>
-  </si>
-  <si>
-    <t>„Oder direkt alles rein (_)“ (TP9, Absatz 48)</t>
-  </si>
-  <si>
-    <t>„Was tut man zuerst erhitzen (?)“ (TP26, Absatz 250)</t>
-  </si>
-  <si>
-    <t>„Ok sagst du mir was ich noch mit den Röllchen machen soll (?)“ (TP14, Absatz 176)</t>
-  </si>
-  <si>
-    <t>„Was wenn es aber keine Crème fraîche ist (?) Sondern Mozzarella der noch schmelzen muss (?)“ (TP30, Absatz 179)</t>
-  </si>
-  <si>
-    <t>„Und was ist mit den Tomaten (?)“ (TP36, Absatz 79)</t>
-  </si>
-  <si>
-    <t>„Und dann (?) Sind wir fertig (_)“ (TP21, Absatz 258)</t>
-  </si>
-  <si>
-    <t>„Muss ich die nicht noch warm machen (?)“ (TP17, Absatz 223)</t>
-  </si>
-  <si>
-    <t>„Und welche Schiene ist das dann da (?)“ (TP37, Absatz 51)</t>
-  </si>
-  <si>
-    <t>„Umluft oder Ober und Unterhitze (_)“ (TP35, Absatz 29)</t>
-  </si>
-  <si>
-    <t>„Muss ich den Ofen oder so auch vorheizen (?)“ (TP37, Absatz 49)</t>
-  </si>
-  <si>
-    <t>„Ok (_) Mittlere Hitze (?)“ (TP35, Absatz 57)</t>
-  </si>
-  <si>
-    <t>„Also jetzt runter (_)“ (TP13, Absatz 46)</t>
-  </si>
-  <si>
-    <t>„Bei wie viel Temperatur (?)“ (TP13, Absatz 40)</t>
-  </si>
-  <si>
-    <t>„Dürfte jetzt eigentlich schon fertig sein oder (?)“ (TP28, Absatz 19)</t>
-  </si>
-  <si>
-    <t>„Aber wieso muss ich dann nur ganz unten schälen (?)“ (TP37, Absatz 23)</t>
-  </si>
-  <si>
-    <t>„Such mal danach ob man Kid- ob man den BOhnensaft mit reintut (_)“ (TP7, Absatz 80)</t>
-  </si>
-  <si>
-    <t>„Und dann (?)“ (TP20, Absatz 38)</t>
-  </si>
-  <si>
-    <t>„Man schneidet erst den Boden ab (?)“ (TP22, Absatz 159)</t>
-  </si>
-  <si>
-    <t>„Also auch bei grünem Spargel (_)“ (TP27, Absatz 25)</t>
-  </si>
-  <si>
-    <t>„Ich würde mir eigentlich lieber ein Video anschauen zum Spargelschälen geht das (?)“ (TP1, Absatz 100)</t>
-  </si>
-  <si>
-    <t>„Wie war das nochmal am Anfang (?)“ (TP10, Absatz 33)</t>
-  </si>
-  <si>
-    <t>„Ja kannst mal fragen also die Zucchini (?) Ob man die irgendwie vorbraten muss oder so (_)“ (TP3, Absatz 4)</t>
-  </si>
-  <si>
-    <t>„Also wenn man die Hälfte der Sachen nicht hat (?)“ (TP24, Absatz 29)</t>
-  </si>
-  <si>
-    <t>„Bei welcher Plattform (?)“ (TP1, Absatz 30)</t>
-  </si>
-  <si>
-    <t>„Also auf jeden Fall gängige Internetseiten wo man (-) äh Rezepte finden kann (_)“ (TP27, Absatz 109)</t>
-  </si>
-  <si>
-    <t>„Ok kannst du Bewertungen anzeigen (?)“ (TP1, Absatz 32)</t>
-  </si>
-  <si>
-    <t>„Drei Komma was wie viel waren es (?)“ (TP22, Absatz 29)</t>
-  </si>
-  <si>
-    <t>„Ok (,) Wie viele Bewertungen (?)“ (TP22, Absatz 13)</t>
-  </si>
-  <si>
-    <t>„Ja und kannst mir das beschreiben (?)“ (TP1, Absatz 16)</t>
-  </si>
-  <si>
-    <t>„Wie kompliziert ist denn das (,) was steht denn da da (?)“ (TP26, Absatz 26)</t>
-  </si>
-  <si>
-    <t>„Ok sieht das lecker aus (?)“ (TP8, Absatz 100)</t>
-  </si>
-  <si>
-    <t>„Wart Kichererbsencurry mit (-)“ (TP26, Absatz 48)</t>
-  </si>
-  <si>
-    <t>„Mhm (?) Cool (?)“ (TP26, Absatz 40)</t>
-  </si>
-  <si>
-    <t>„Was könnte ich heute kochen (;)“ (TP30, Absatz 1)</t>
-  </si>
-  <si>
-    <t>„Gibt es da ein Rezept dafür (?) Topinambur-Sellerie-Suppe (?)“ (TP34, Absatz 5)</t>
-  </si>
-  <si>
-    <t>„Hey Alex ich möchte Spargel-Kartoffelpfanne kochen (_)“ (TP30, Absatz 5)</t>
-  </si>
-  <si>
-    <t>„Google mal Sahne Ei Soße (_)“ (TP1, Absatz 122)</t>
-  </si>
-  <si>
-    <t>„Man kann auch schauen was man einfach so mit Kartoffeln und Tomaten hauptsächlich dann noch macht (;)“ (TP32, Absatz 19)</t>
-  </si>
-  <si>
-    <t>„Was machen die als Beilage dazu (?) Gibt es dazu eine Beilage oder ist es als Beilage gedacht (;)“ (TP38, Absatz 59)</t>
-  </si>
-  <si>
-    <t>„Hm (_) Das habe ich schon einmal gekocht (_)“ (TP30, Absatz 3)</t>
-  </si>
-  <si>
-    <t>„Ok was gibt es noch (?)“ (TP17, Absatz 67)</t>
-  </si>
-  <si>
-    <t>„Ja hast du ein Rezept gefunden (?)“ (TP1, Absatz 14)</t>
-  </si>
-  <si>
-    <t>„Wechsel ich das Gefäß noch einmal (_)“ (TP30, Absatz 91)</t>
-  </si>
-  <si>
-    <t>„Was ist das in Zentimetern (_)“ (TP30, Absatz 77)</t>
-  </si>
-  <si>
-    <t>„Mhm (,) Ok (?) Hast du Langkornreis gegoogelt oder Reis (_)“ (TP22, Absatz 237)</t>
-  </si>
-  <si>
-    <t>„Was schaust du (?)“ (TP18, Absatz 32)</t>
-  </si>
-  <si>
-    <t>„Ähm stehen da noch irgendwelche Tipps eigentlich unten drunter (?)“ (TP22, Absatz 221)</t>
-  </si>
-  <si>
-    <t>„Also an Chili wurde Cayennepfeffer empfohlen (,) Paprikapulver (-) und Salz Pfeffer (;)“ (TP34, Absatz 145)</t>
-  </si>
-  <si>
-    <t>„Gibt es da auch Bilder (?)“ (TP8, Absatz 96)</t>
-  </si>
-  <si>
-    <t>„Ok (_) Kannst du es beschreiben (?)“ (TP14, Absatz 30)</t>
-  </si>
-  <si>
-    <t>„darf ich das Rezept abwandeln (?)“ (TP14, Absatz 116)</t>
-  </si>
-  <si>
-    <t>„Ok (_) Ähm (-) Hast du auch einen Timer integriert (?)“ (TP14, Absatz 94)</t>
-  </si>
-  <si>
-    <t>„Steht da auch dabei wie gesund das ist was ich jetzt koch (?)“ (TP37, Absatz 29)</t>
-  </si>
-  <si>
-    <t>„Alex nenne mir gute Pizzaservices (_)“ (TP30, Absatz 135)</t>
-  </si>
-  <si>
-    <t>„Hast du schon mal die (-) Reis so gekocht (?)“ (TP8, Absatz 164)</t>
-  </si>
-  <si>
-    <t>„Wir ersetzen Frischkäse durch Mozzarella (_)“ (TP30, Absatz 173)</t>
-  </si>
-  <si>
-    <t>„Kannst du mir das ausrechnen (?)“ (TP39, Absatz 21)</t>
-  </si>
-  <si>
     <t>„Pause (,)“ (TP36, Absatz 55)</t>
   </si>
   <si>
-    <t>„Gut (-) Wecker auf 45 Minuten (_)“ (TP35, Absatz 97)</t>
-  </si>
-  <si>
-    <t>„Alex (_) Schalte Musik ein (_)“ (TP30, Absatz 61)</t>
-  </si>
-  <si>
-    <t>„Vielleicht kannst du noch irgendwie Zutaten dazu (?) geben (,)“ (TP14, Absatz 10)</t>
-  </si>
-  <si>
-    <t>„Schinken kannst weglassen (_)“ (TP1, Absatz 164)</t>
-  </si>
-  <si>
-    <t>„Reduziere die Menge auf die Hälfte“ (TP30, Absatz 53)</t>
-  </si>
-  <si>
-    <t>„Für zwei Personen (_)“ (TP39, Absatz 19)</t>
-  </si>
-  <si>
-    <t>„Nö wir machen es vegetarisch (_)“ (TP6, Absatz 16)</t>
-  </si>
-  <si>
-    <t>„Und nimm alles raus was überbacken werden muss oder einen Ofen braucht (_)“ (TP25, Absatz 4)</t>
-  </si>
-  <si>
-    <t>„Oder steht vielleicht bei den ZUtaten schau nochmal da (,) bei den Zutaten steht ja dann auch manchmal (-)“ (TP23, Absatz 44)</t>
-  </si>
-  <si>
-    <t>„Kannst du da irgendwie vormerken oder so (?)“ (TP21, Absatz 12)</t>
-  </si>
-  <si>
-    <t>„Ok dann tu mal wieder das Rezept her (,)(.)“ (TP1, Absatz 102)</t>
-  </si>
-  <si>
-    <t>„//Ja passt schon//(_)“ (TP1, Absatz 212)</t>
-  </si>
-  <si>
-    <t>„Geh mal ganz oben in das ähm (..) da wo die an Sterne angezeigt werden (_)“ (TP1, Absatz 42)</t>
-  </si>
-  <si>
-    <t>„Ok (_) Und wie heißt das Gericht nochmal (-) Eintopf (?) Oder (-)“ (TP23, Absatz 134)</t>
-  </si>
-  <si>
-    <t>„Was war das Erste (?)“ (TP1, Absatz 124)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ingredient removal </t>
   </si>
   <si>
@@ -1241,15 +671,6 @@
     <t>Change Amount</t>
   </si>
   <si>
-    <t>„Was war da nochmal les nochmal vor (-)“ (TP21, Absatz 18)</t>
-  </si>
-  <si>
-    <t>„Ja das hört sich doch gut an (_) Dann machen wir das (,)“ (TP13, Absatz 10)</t>
-  </si>
-  <si>
-    <t>„Perfekt (,) Klingt gut (_)“ (TP7, Absatz 26)</t>
-  </si>
-  <si>
     <t>Codes</t>
   </si>
   <si>
@@ -1259,9 +680,6 @@
     <t>Actions &amp; Commands</t>
   </si>
   <si>
-    <t>„Schließt man beim Andünsten den Deckel (_)“ (TP30, Absatz 109)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Next Ingredient </t>
   </si>
   <si>
@@ -2025,6 +1443,589 @@
   </si>
   <si>
     <t xml:space="preserve">Code Level 2 </t>
+  </si>
+  <si>
+    <t>„Ok (_) Dann (-) Geh ich jetzt einfach mal davon aus dass (-) eine halbe Zwiebel ungefähr zwei Schalotten entspricht (?)“ (TP14, Absatz 120) -- "Ok. I suppose half an onion is the same as two shallots?" (part. 14, paragraph 120)</t>
+  </si>
+  <si>
+    <t>„Was du mir mitgebracht hast //das war mal eineinhalb Kilo (,)//“ (TP25, Absatz 20) -- "What you brought me was a kilo and a half?" (part. 24, paragraph 20)</t>
+  </si>
+  <si>
+    <t>„Mhm (,)“ (TP39, Absatz 37) -- "Um?" (part. 39, paragraph 37)</t>
+  </si>
+  <si>
+    <t>„Ähm (-) War der Senf beim Salat in Esslöffeln oder in Teelöffeln (_)“ (TP14, Absatz 222) -- "Um (-) Was the mustard in the salad in tablespoons or in teaspoons (_)" (TP14, paragraph 222)</t>
+  </si>
+  <si>
+    <t>„Also doppelt so viel Zwiebeln wie Mozzarella (?)“ (TP40, Absatz 149) -- "So twice as much onions as mozzarella (?)" (TP40, paragraph 149)</t>
+  </si>
+  <si>
+    <t>„Doppelte Menge Wasser (_)“ (TP31, Absatz 64) -- "Double the amount of water (_)" (TP31, paragraph 64)</t>
+  </si>
+  <si>
+    <t>„Wie ist das Verhältnis von Bulgur zu erhitztem Wasser (?)“ (TP16, Absatz 12) -- "What is the ratio of bulgur to heated water (?)" (TP16, paragraph 12)</t>
+  </si>
+  <si>
+    <t>„Ok (_) Gut (_) Die doppelte Menge Wasser (_)“ (TP13, Absatz 26) -- "Ok (_) Good (_) Double the amount of water (_)" (TP13, paragraph 26)</t>
+  </si>
+  <si>
+    <t>„Soll ich da ein bisschen was wegtun (;)“ (TP42, Absatz 169) -- "Should I put something away (;)" (TP42, paragraph 169)</t>
+  </si>
+  <si>
+    <t>„Wie viel Gramm Mehl (?)“ (TP42, Absatz 201) -- "How many grams of flour (?)" (TP42, paragraph 201)</t>
+  </si>
+  <si>
+    <t>„Eine Messerspitze (?)“ (TP44, Absatz 63) -- "A knife point (?)" (TP44, paragraph 63)</t>
+  </si>
+  <si>
+    <t>„Vier Esslöffel (_)“ (TP43, Absatz 149) -- "Four tablespoons (_)" (TP43, paragraph 149)</t>
+  </si>
+  <si>
+    <t>„Für wie viele Leute das ist das jetzt eigentlich (?)“ (TP23, Absatz 48) -- "For how many people is this actually (?)" (TP23, paragraph 48)</t>
+  </si>
+  <si>
+    <t>„Eine Person (_)“ (TP34, Absatz 71) -- "One person (_)" (TP34, paragraph 71)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">„Also für vier Personen (,)“ (TP42, Absatz 191) -- "So for four people (,)" (TP42, paragraph 191) </t>
+  </si>
+  <si>
+    <t>„Erst mal die ZuTAten dass ich die alle herräumen kann (_)“ (TP2, Absatz 15) -- "Tell me the ingredients first so that I can clear them all away (_)" (part. 2, paragraph 15)</t>
+  </si>
+  <si>
+    <t>„Muss man das noch irgendwie würzen (?)“ (TP21, Absatz 222) -- "Do you have to spice it up (?)" (part. 21, paragraph 222)</t>
+  </si>
+  <si>
+    <t>„Ok was ist da noch alles drin (?) Oder was braucht man da alles für noch (?)“ (TP43, Absatz 5) -- "Ok, what else is needed (?) Or what do we need anything else (?)" (part. 43, paragraph 5)</t>
+  </si>
+  <si>
+    <t>„So Petersilie (,) Olivenöl (,) so und dann was noch (?) Oder war es da (_)“ (TP17, Absatz 155) -- "So we need parsley (,) olive oil (,) and anything else (?)" (part. 17, paragraph 155)</t>
+  </si>
+  <si>
+    <t>„Ja (,) Sag mal die Zutaten (_)“ (TP6, Absatz 12) -- "Yes (,) tell me the ingredients (_)" (part. 6, paragraph 12)</t>
+  </si>
+  <si>
+    <t>„Kommt Zwiebel rein (?)“ (TP9, Absatz 12) -- "Do we need onion (?)" (part. 9, paragraph 12)</t>
+  </si>
+  <si>
+    <t>„Mit Butter (_)“ (TP35, Absatz 39) -- "With butter (_)" (part. 35, paragraph 39)</t>
+  </si>
+  <si>
+    <t>„Da ist aber (-) da kochen sie es mit den Nudeln oder (?)“ (TP8, Absatz 154) -- "But there is (-) you have to cook it with the noodles, right (?)" (part. 8, paragraph 154)</t>
+  </si>
+  <si>
+    <t>„Was Salz (,) Zucker und Butter (_)“ (TP15, Absatz 52) -- "Can you repeat it? Salt, sugar and butter." (part. 15, paragraph 52)</t>
+  </si>
+  <si>
+    <t>„Also eigentlich kann man die genauso verwenden wie Kartoffeln (_)“ (TP33, Absatz 87) -- "So actually you can use them just like potatoes (_)" (part. 33, paragraph 87)</t>
+  </si>
+  <si>
+    <t>„Aber das kann man ja auch roh essen oder (?)“ (TP33, Absatz 61) -- "But you can also eat that raw, right?" (part. 33, paragraph 61)</t>
+  </si>
+  <si>
+    <t>„Ok (_) Heißt das jetzt aber (-) also kann man die jetzt auch schon essen oder noch nicht (_)“ (TP12, Absatz 101) -- "Ok (_) Does that mean (-) so you can eat them now or not yet (_)" (part. 12, paragraph 101)</t>
+  </si>
+  <si>
+    <t>„Gut ich mein so aus der Dose wie sie waren konnte hätte man die da schon essen können oder (-)“ (TP12, Absatz 103) -- "Well, I mean we could have eaten them out of the can right (-)" (part. 12, paragraph 103)</t>
+  </si>
+  <si>
+    <t>„Was die haben ein langes Mindesthaltbarkeitsdatum (?)“ (TP25, Absatz 100) -- " Do they have a long best-before date (?)" (part. 25, paragraph 100)</t>
+  </si>
+  <si>
+    <t>„Ok (,) Das würde ja heißen drei bis vier Tage (_)“ (TP22, Absatz 83) -- "Ok (,) That would mean three to four days (_)" (part. 22, paragraph 83)</t>
+  </si>
+  <si>
+    <t>„NACH dem Öffnen in Kühlschrank (_)“ (TP21, Absatz 254) -- "AFTER opening we need to put it in the refrigerator (_)" (part. 21, paragraph 254)</t>
+  </si>
+  <si>
+    <t>„Kichererbsen muss man nicht kühlstellen oder (?)“ (TP21, Absatz 250) -- "Chickpeas don't need to be refrigerated right (?)" (TP21, paragraph 250)</t>
+  </si>
+  <si>
+    <t>„Äh du kannst ja mal nachschauen ob Spargel in Kühlschrank muss (?) Also Spargel Kühlschrank aufbewahren oder so (-)“ (TP23, Absatz 158) -- "Uh, can you check whether asparagus has to be put in the fridge (?) So search for  'keep asparagus in the fridge' or something (-)" (part. 23, paragraph 158)</t>
+  </si>
+  <si>
+    <t>„Ok (_) Wie lang halten die sich wenn die mal offen sind (?)“ (TP25, Absatz 94) -- "Ok (_) How long do they last when they are open (?)" (part. 25, paragraph 94)</t>
+  </si>
+  <si>
+    <t>„Ok (_) Die Enden in kaltes Wasser (_)“ (TP23, Absatz 160) -- "Ok (_) we need to put the ends in cold water (_)" (part. 23, paragraph 160)</t>
+  </si>
+  <si>
+    <t>„Pflanzenöl (,) Also ist das egal welches (?)“ (TP15, Absatz 84) -- "Vegetable oil (,) So it doesn't matter which one (?)" (part. 15, paragraph 84)</t>
+  </si>
+  <si>
+    <t>„Ok (_) Also ich spül es jetzt einfach mal ab (_) Schaden tut es bestimmt nicht (_)“ (TP9, Absatz 44) -- 
+"Ok (_) Well, I'll just rinse it off now (_) It certainly won't do any harm (_)" (part. 9, paragraph 44)</t>
+  </si>
+  <si>
+    <t>„Muss ich den Spargel vorher waschen den weißen (?)“ (TP24, Absatz 119) -- "Do I have to wash the white asparagus first (?)" (part. 24, paragraph 119)</t>
+  </si>
+  <si>
+    <t>„Aber ich glaub das kann man auch zerdatschen oder (?)“ (TP26, Absatz 80) -- "But I think you can also mash it right (?)" (part. 26, paragraph 80)</t>
+  </si>
+  <si>
+    <t>„Also eigentlich könnte ich ja dann für Ratatouille noch ein paar von den Tomaten reintun oder (,)“ (TP27, Absatz 75) -- "So actually I could put a few more tomatoes in for ratatouille right (,)" (part. 27, paragraph 75)</t>
+  </si>
+  <si>
+    <t>„Also du hast gesagt Sauerrahm würde da gut dazu passen (_)“ (TP27, Absatz 97) -- "So you said sour cream would go well with it (_)" (part. 27, paragraph 97)</t>
+  </si>
+  <si>
+    <t>„Google mal Tomaten und Spargel (_) Ob das zusammenpasst (_)“ (TP1, Absatz 208) -- "Google 'tomatoes and asparagus' (_) Whether that goes together (_)" (part. 1, paragraph 208)</t>
+  </si>
+  <si>
+    <t>„Und das brauch ich zusammen mit den Kichererbsen (_)“ (TP36, Absatz 91) -- "And I need that together with the chickpeas (_)" (part. 36, paragraph 91)</t>
+  </si>
+  <si>
+    <t>„Für was könnte man Sesampaste ersetzen (?)“ (TP15, Absatz 110) -- "What could sesame paste be substituted for (?)" (part. 15, paragraph 110)</t>
+  </si>
+  <si>
+    <t>„Naja gut dann können wir normale Milch auch nehmen oder (?)“ (TP31, Absatz 52) -- "Well we can also take normal milk then right (?)" (part. 31, paragraph 52)</t>
+  </si>
+  <si>
+    <t>„Schnittlauch hab ich nicht (_)“ (TP15, Absatz 98) -- "I don't have chives (_)" (part. 15, paragraph 98)</t>
+  </si>
+  <si>
+    <t>„Was war es ursprünglich (?)“ (TP30, Absatz 173) -- "What was it originally (?)" (part. 30, paragraph 173)</t>
+  </si>
+  <si>
+    <t>„Zum um die Zwiebeln anzubraten (?)“ (TP33, Absatz 21) -- "To sear the onions (?)" (TP33, paragraph 21)</t>
+  </si>
+  <si>
+    <t>„Die kommt aber am Anfang schon mit mit rein (_)“ (TP2, Absatz 23) -- "But we add it at the beginning (_)" (part. 2, paragraph 23)</t>
+  </si>
+  <si>
+    <t>„Paprika und Ananas jetzt können wir schon oder (?)“ (TP8, Absatz 172) -- "We can already add peppers and pineapples right (?)" (part. 8, paragraph 172)</t>
+  </si>
+  <si>
+    <t>„Zum Schluss dann noch irgendwie (;)“ (TP23, Absatz 186) -- "As a last step then (;)" (part. 23, paragraph 186)</t>
+  </si>
+  <si>
+    <t>„Darf ich meine Frühlingszwiebeln schon hinzugeben (?)“ (TP30, Absatz 157) -- "May I add my spring onions (?)" (part. 30, paragraph 157)</t>
+  </si>
+  <si>
+    <t>„Aber äh sind die schon gekocht vorher (?)“ (TP29, Absatz 44) -- "But uh, are they already cooked (?)" (part. 29, paragraph 44)</t>
+  </si>
+  <si>
+    <t>„Weißt du wie das ausschauen soll (?) Also persönliche jetzt Erfahrung (?)“ (TP25, Absatz 76) -- "Do you know how it should look like (?) From your personal experience (?)" (part. 25, paragraph 76)</t>
+  </si>
+  <si>
+    <t>„Die soll man würfeln ne (?)“ (TP25, Absatz 88) -- "You should dice them right (?)" (part. 25, paragraph 88)</t>
+  </si>
+  <si>
+    <t>„Wie klein muss ich die jetzt schneiden (?)“ (TP39, Absatz 57) -- "How small do I have to cut it now (?)" (part. 39, paragraph 57)</t>
+  </si>
+  <si>
+    <t>„Stand da was drin ob die schon weich sein soll wenn ich den Honig dazugebe (?)“ (TP24, Absatz 155) -- "Is there any information about whether it should be soft when I add the honey (?)" (part. 24, paragraph 155)</t>
+  </si>
+  <si>
+    <t>„Soll wahrscheinlich weich werden einfach oder (?)“ (TP24, Absatz 147) -- "Should probably be soft right (?)" (part. 24, paragraph 147)</t>
+  </si>
+  <si>
+    <t>„Ok (_) Ähm (-) Wie äh wie sollen die Zwiebeln irgendwie glasig sein oder steht da nichts spezielleres dabei (_)“ (TP14, Absatz 164) -- "Ok (_) Um (-) How, how, should the onions be somehow glassy or is there nothing more special about them (_)" (part. 14, paragraph 164)</t>
+  </si>
+  <si>
+    <t>„Muss ich die braun werden lassen (?)“ (TP39, Absatz 79) -- "Do I have to let them turn brown (?)" (part. 39, paragraph 79)</t>
+  </si>
+  <si>
+    <t>„Den Spargel als Ganzes (_)“ (TP38, Absatz 51) -- "The asparagus as a whole (_)" (part. 38, paragraph 51)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">„Wahrscheinlich schon oder (?)“ (TP24, Absatz 155) -- "Probably yes (?)" (part. 24, paragraph 155) </t>
+  </si>
+  <si>
+    <t>„Bitte nochmal zum zum ersten Schritt (_)“ (TP16, Absatz 60) -- "Please go back to the first step (_)" (part. 16, paragraph 60)</t>
+  </si>
+  <si>
+    <t>„Nenne mir alle VORzubereitenden Schritte (_)“ (TP30, Absatz 57) -- "Tell me all the steps to be prepared (_)" (part. 30, paragraph 57)</t>
+  </si>
+  <si>
+    <t>„Ok (,) Lies die Schritte zum Rezept vor (_)“ (TP30, Absatz 55) -- "Ok (,) Read out the recipe steps (_)" (part. 30, paragraph 55)</t>
+  </si>
+  <si>
+    <t>„Noch einmal bitte von vorne (,)“ (TP36, Absatz 35) -- "Start again from the beginning (,)" (part. 36, paragraph 35)</t>
+  </si>
+  <si>
+    <t>„Und was ist dann das nächste (?)“ (TP37, Absatz 43) -- "And what is the next (?)" (part. 37, paragraph 43)</t>
+  </si>
+  <si>
+    <t>„Les mal einfach die ersten Schritte vor (_) (..) Was ich machen muss (_) (..)“ (TP1, Absatz 74) -- "Just read out the first steps (_) (..) What I have to do (_) (..)" (part. 1, paragraph 74)</t>
+  </si>
+  <si>
+    <t>„Was war der Schritt davor (?) Soll ich das nicht nach und nach zugeben (?)“ (TP6, Absatz 48) -- "What was the step before (?) Shouldn't I gradually admit that (?)" (part. 6, paragraph 48)</t>
+  </si>
+  <si>
+    <t>„Wann soll ich würzen (_)“ (TP30, Absatz 181) -- "When should I season (_)" (part. 30, paragraph 181)</t>
+  </si>
+  <si>
+    <t>„Ja das ähm kannst natürlich überspringen was (.) //Kartoffeln und alles betrifft//“ (TP1, Absatz 106) -- "Yes, uh, you can of course skip everything (.) // concerning potatoes and so on //" (part. 1, paragraph 106)</t>
+  </si>
+  <si>
+    <t>„Ok (_) Ähm (-) Kannst du mir nochmal den Schritt zum Füllen vorlesen (?)“ (TP14, Absatz 248) -- "Ok (_) Um (-) Can you read the filling step to me again (?)" (part. 14, paragraph 248)</t>
+  </si>
+  <si>
+    <t>„Oder kann man irgendwas einen weiteren Schritt hinten schon mal machen wie man es klein schneiden kann (_)“ (TP5, Absatz 80) -- "Or can we take a step further back e.g. how we can cut it into small pieces (_)" (part. 5, paragraph 80)</t>
+  </si>
+  <si>
+    <t>„Und jetzt Ananas soll ja kochen oder (?)“ (TP8, Absatz 180) -- "And now we should cook the pineapple right (?)" (part. 8, paragraph 180)</t>
+  </si>
+  <si>
+    <t>„Oder direkt alles rein (_)“ (TP9, Absatz 48) -- "Now everything straight in (_)" (part. 9, paragraph 48)</t>
+  </si>
+  <si>
+    <t>„Was tut man zuerst erhitzen (?)“ (TP26, Absatz 250) -- "What do you heat up first (?)" (part. 26, paragraph 250)</t>
+  </si>
+  <si>
+    <t>„Ok sagst du mir was ich noch mit den Röllchen machen soll (?)“ (TP14, Absatz 176) -- "Ok, you tell me what else I should do with the rolls (?)" (part. 14, paragraph 176)</t>
+  </si>
+  <si>
+    <t>„Was wenn es aber keine Crème fraîche ist (?) Sondern Mozzarella der noch schmelzen muss (?)“ (TP30, Absatz 179) -- "What if it's not crème fraîche (?) But mozzarella that still has to melt (?)" (part. 30, paragraph 179)</t>
+  </si>
+  <si>
+    <t>„Und was ist mit den Tomaten (?)“ (TP36, Absatz 79) -- "And what about the tomatoes (?)" (part. 36, paragraph 79)</t>
+  </si>
+  <si>
+    <t>„Und dann (?) Sind wir fertig (_)“ (TP21, Absatz 258) -- "And then (?) Are we done (_)" (part. 21, paragraph 258)</t>
+  </si>
+  <si>
+    <t>„Dürfte jetzt eigentlich schon fertig sein oder (?)“ (TP28, Absatz 19) -- "Shouldn't it be ready by now (?)" (part. 28, paragraph 19)</t>
+  </si>
+  <si>
+    <t>„Aber wieso muss ich dann nur ganz unten schälen (?)“ (TP37, Absatz 23) -- "But why do I only have to peel the bottom (?)" (part. 37, paragraph 23)</t>
+  </si>
+  <si>
+    <t>„Such mal danach ob man Kid- ob man den BOhnensaft mit reintut (_)“ (TP7, Absatz 80) -- "Look for whether you put the bean juice in it (_)" (part. 7, paragraph 80)</t>
+  </si>
+  <si>
+    <t>„Schließt man beim Andünsten den Deckel (_)“ (TP30, Absatz 109) -- "Do you close the lid during steaming(_)" (part. 30, paragraph 109)</t>
+  </si>
+  <si>
+    <t>„Und dann (?)“ (TP20, Absatz 38) -- "And then (?)" (part. 20, paragraph 38)</t>
+  </si>
+  <si>
+    <t>„Man schneidet erst den Boden ab (?)“ (TP22, Absatz 159) -- "You first cut off the bottom (?)" (part. 22, paragraph 159)</t>
+  </si>
+  <si>
+    <t>„Also auch bei grünem Spargel (_)“ (TP27, Absatz 25) -- "When we use green asparagus, too (_)" (part. 27, paragraph 25)</t>
+  </si>
+  <si>
+    <t>„Ich würde mir eigentlich lieber ein Video anschauen zum Spargelschälen geht das (?)“ (TP1, Absatz 100) -- "Actually I would rather watch a video about peeling asparagus if that's possible (?)" (part. 1, paragraph 100)</t>
+  </si>
+  <si>
+    <t>„Wie war das nochmal am Anfang (?)“ (TP10, Absatz 33) -- "Can you repeat from the beginning (?)" (part. 10, paragraph 33)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">„Ja kannst mal fragen also die Zucchini (?) Ob man die irgendwie vorbraten muss oder so (_)“ (TP3, Absatz 4) -- "Yes, you can ask whether you have to pre-fry the zucchini or not (_)" (part. 3, paragraph 4) </t>
+  </si>
+  <si>
+    <t>„Und jetzt äh (-) Viertel Stunde hast du gesagt oder (?)“ (TP3, Absatz 114) -- "And now uh (-) you said quarter of an hour right (?)" (part. 3, paragraph 114)</t>
+  </si>
+  <si>
+    <t>„Eine Minute (_)“ (TP4, Absatz 8) -- "One minute (_)" (part. 4, paragraph 8)</t>
+  </si>
+  <si>
+    <t>„20 Minuten (_)“ (TP37, Absatz 209) -- "20 minutes (_)" (part. 37, paragraph 209)</t>
+  </si>
+  <si>
+    <t>„Ok (_) Und wie lang muss ich den Spargel anbraten (,) auch bis er weich wird (,) oder (-)“ (TP9, Absatz 104) -- "Ok (_) And how long do I have to sear the asparagus (,) until it becomes soft (,)" (part. 9, paragraph 104)</t>
+  </si>
+  <si>
+    <t>„Wie lang muss man so Paprika eigentlich grillen (?)“ (TP15, Absatz 104) -- "How long do you have to grill peppers like that (?)" (part. 15, paragraph 104)</t>
+  </si>
+  <si>
+    <t>„Wie lange soll es ziehen (?)“ (TP13, Absatz 64) -- "How long should it last (?)" (part. 13, paragraph 64)</t>
+  </si>
+  <si>
+    <t>„Eine Stunde oder so wahrscheinlich (_)“ (TP15, Absatz 164) -- "Probably an hour or so (_)" (part. 15, paragraph 164)</t>
+  </si>
+  <si>
+    <t>„Wie lange dünste ich sie an (;)“ (TP30, Absatz 107) -- "How long do I steam them (;)" (part. 30, paragraph 107)</t>
+  </si>
+  <si>
+    <t>„Aha (,) Wie lange dauert das in etwa (?)“ (TP38, Absatz 13) -- "Ah (,) How long does it take (?)" (part. 38, paragraph 13)</t>
+  </si>
+  <si>
+    <t>„Wie spät ist es denn (?)“ (TP12, Absatz 105) -- "What time is it (?)" (part. 12, paragraph 105)</t>
+  </si>
+  <si>
+    <t>„Das dürfte jetzt glaub ich bald rum sein oder (?)“ (TP25, Absatz 118) -- "I think that should be over soon right (?)" (part. 25, paragraph 118)</t>
+  </si>
+  <si>
+    <t>„Wie lange haben wir noch (;)“ (TP21, Absatz 256) -- "How much longer do we have (;)" (part. 21, paragraph 256)</t>
+  </si>
+  <si>
+    <t>„Drei Minuten noch (_) Um 27 war es (_)“ (TP39, Absatz 249) -- "Three minutes left (_)" (part. 39, paragraph 249)</t>
+  </si>
+  <si>
+    <t>„Ja die haben wir locker schon oder (?)“ (TP17, Absatz 213) -- "Yes, we already have that right (?)" (part. 17, paragraph 213)</t>
+  </si>
+  <si>
+    <t>„Wie lange sind wir schon unterwegs (?)“ (TP3, Absatz 48) -- "How long have we been on the road (?)" (part. 3, paragraph 48)</t>
+  </si>
+  <si>
+    <t>„Wenn es fünfzehn Minuten sind (_)“ (TP42, Absatz 213) -- "When fifteen minutes passed (_)" (part. 42, paragraph 213)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">„Wie lang braucht Spargel (?)“ (TP15, Absatz 42) -- "How long does asparagus take (?)" (part. 15, paragraph 42) </t>
+  </si>
+  <si>
+    <t>„Also wenn man die Hälfte der Sachen nicht hat (?)“ (TP24, Absatz 29) -- "[Can you cook it] even if you don't have half of the things required (?)" (part. 24, paragraph 29)</t>
+  </si>
+  <si>
+    <t>„Bei welcher Plattform (?)“ (TP1, Absatz 30) -- "On which platform (?)" (part. 1, paragraph 30)</t>
+  </si>
+  <si>
+    <t>„Also auf jeden Fall gängige Internetseiten wo man (-) äh Rezepte finden kann (_)“ (TP27, Absatz 109) -- "So in any case, common Internet sites where you can find (-) uh recipes (_)" (part. 27, paragraph 109)</t>
+  </si>
+  <si>
+    <t>„Ok kannst du Bewertungen anzeigen (?)“ (TP1, Absatz 32) -- "Ok, can you show reviews (?)" (part. 1, paragraph 32)</t>
+  </si>
+  <si>
+    <t>„Drei Komma was wie viel waren es (?)“ (TP22, Absatz 29) -- "Three point what how much was it (?)" (part. 22, paragraph 29)</t>
+  </si>
+  <si>
+    <t>„Ok (,) Wie viele Bewertungen (?)“ (TP22, Absatz 13) -- "Ok (,) How many ratings (?)" (part. 22, paragraph 13)</t>
+  </si>
+  <si>
+    <t>„Ja und kannst mir das beschreiben (?)“ (TP1, Absatz 16) -- "Yes and can you describe that to me (?)" (part. 1, paragraph 16)</t>
+  </si>
+  <si>
+    <t>„Wie kompliziert ist denn das (,) was steht denn da da (?)“ (TP26, Absatz 26) -- "How complicated is that (,) what does it say (?)" (part. 26, paragraph 26)</t>
+  </si>
+  <si>
+    <t>„Ok sieht das lecker aus (?)“ (TP8, Absatz 100) -- "Ok, that looks delicious, doesn't it (?)" (part. 8, paragraph 100)</t>
+  </si>
+  <si>
+    <t>„Ähm stehen da noch irgendwelche Tipps eigentlich unten drunter (?)“ (TP22, Absatz 221) -- "Um, there are still any tips underneath (?)" (part. 22, paragraph 221)</t>
+  </si>
+  <si>
+    <t>„Also an Chili wurde Cayennepfeffer empfohlen (,) Paprikapulver (-) und Salz Pfeffer (;)“ (TP34, Absatz 145) -- "Cayenne pepper was recommended for chili (,) paprika powder (-) and salt pepper (;)" (part. 34, paragraph 145)</t>
+  </si>
+  <si>
+    <t>„Wart Kichererbsencurry mit (-)“ (TP26, Absatz 48) -- "Wait chickpea curry with (-)" (part. 26, paragraph 48)</t>
+  </si>
+  <si>
+    <t>„Mhm (?) Cool (?)“ (TP26, Absatz 40) -- "Mhm (?) Cool (?)" (part. 26, paragraph 40)</t>
+  </si>
+  <si>
+    <t>„Was war das Erste (?)“ (TP1, Absatz 124) -- "What was the first (?)" (part. 1, paragraph 124)</t>
+  </si>
+  <si>
+    <t>„Was könnte ich heute kochen (;)“ (TP30, Absatz 1) -- "What could I cook today (;)" (part. 30, paragraph 1)</t>
+  </si>
+  <si>
+    <t>„Gibt es da ein Rezept dafür (?) Topinambur-Sellerie-Suppe (?)“ (TP34, Absatz 5) -- "Is there a recipe for it (?) Jerusalem artichoke and celery soup (?)" (part. 34, paragraph 5)</t>
+  </si>
+  <si>
+    <t>„Hey Alex ich möchte Spargel-Kartoffelpfanne kochen (_)“ (TP30, Absatz 5) -- "Hey Alex, I want to cook an asparagus-potato pan (_)" (part. 30, paragraph 5)</t>
+  </si>
+  <si>
+    <t>„Google mal Sahne Ei Soße (_)“ (TP1, Absatz 122) -- "Google for cream egg sauce (_)" (part. 1, paragraph 122)</t>
+  </si>
+  <si>
+    <t>„Man kann auch schauen was man einfach so mit Kartoffeln und Tomaten hauptsächlich dann noch macht (;)“ (TP32, Absatz 19) -- "You can also see what you else you can do with potatoes and tomatoes (;)" (part. 32, paragraph 19)</t>
+  </si>
+  <si>
+    <t>„Was machen die als Beilage dazu (?) Gibt es dazu eine Beilage oder ist es als Beilage gedacht (;)“ (TP38, Absatz 59) -- "What are they doing as a supplement (?) Is there a supplement or is it intended as a supplement (;)" (part. 38, paragraph 59)</t>
+  </si>
+  <si>
+    <t>„Hm (_) Das habe ich schon einmal gekocht (_)“ (TP30, Absatz 3) -- "Hm (_) I've cooked that before (_)" (part. 30, paragraph 3)</t>
+  </si>
+  <si>
+    <t>„Ok was gibt es noch (?)“ (TP17, Absatz 67) -- "Ok what else is there (?)" (part. 17, paragraph 67)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">„Ja hast du ein Rezept gefunden (?)“ (TP1, Absatz 14) --"Did you find a recipe (?)" (part. 1, paragraph 14) </t>
+  </si>
+  <si>
+    <t>„Hm (_) Sowas habe ich leider nicht (_)“ (TP17, Absatz 245) -- "Hm (_) I don't have such a thing (_)" (part. 17, paragraph 245)</t>
+  </si>
+  <si>
+    <t>„Ok (_) Muss das bei offenem Kochtopf äh kochen oder geschlossen (_)“ (TP39, Absatz 81) -- "Ok (_) Does it have to cook with an open or closed saucepan (_)" (part. 39, paragraph 81)</t>
+  </si>
+  <si>
+    <t>„Und dann (-) Das Ganze in die Auflaufform oder (;)“ (TP37, Absatz 183) -- "And then (-) we put the whole thing in the baking dish right (;)" (part. 37, paragraph 183)</t>
+  </si>
+  <si>
+    <t>„Ähm (-) Muss das eine beschichtete oder unbeschichtete sein ist vermutlich egal oder (?)“ (TP24, Absatz 111) -- "Umm (-) Does that have to be coated or uncoated. It probably doesn't matter right (?)" (part. 24, paragraph 111)</t>
+  </si>
+  <si>
+    <t>„WIe groß soll denn der Topf sein klein mittel groß (?)“ (TP24, Absatz 63) -- "How big should the pot be - small medium large (?)" (part. 24, paragraph 63)</t>
+  </si>
+  <si>
+    <t>„Sollte reichen oder (?) Denke ich mal (-)“ (TP27, Absatz 63) -- "Should be big enough right (?) I think (-)" (part. 27, paragraph 63)</t>
+  </si>
+  <si>
+    <t>„Teelöffel sind die Kleinen oder (?)“ (TP11, Absatz 94) -- "Teaspoons are the small ones right (?)" (part. 11, paragraph 94)</t>
+  </si>
+  <si>
+    <t>„Die Pfanne ist zu klein (-)“ (TP7, Absatz 76) -- "The pan is too small (-)" (part. 7, paragraph 76)</t>
+  </si>
+  <si>
+    <t>„Achso in einem EXtratopf (_)“ (TP6, Absatz 56) -- "Oh, in an extra pot (_)" (part. 6, paragraph 56)</t>
+  </si>
+  <si>
+    <t>„Trifft das Rezept Aussagen darüber in was ich das Öl erhitzen soll (_)“ (TP30, Absatz 87) -- "Does the recipe make statements about in what I should heat the oil (_)" (part. 30, paragraph 87)</t>
+  </si>
+  <si>
+    <t>„Ähm (-) Die machen es in einem Topf (;)“ (TP34, Absatz 115) -- "Um (-) They put it in one pot (;)" (part. 34, paragraph 115)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">„Ist ein Topf die richtige Wahl (_)“ (TP30, Absatz 93) -- "Is a pot the right choice (_)" (part. 30, paragraph 93) </t>
+  </si>
+  <si>
+    <t>„Ist ist in einem Crème fraîche-Becher immer nur 150 (?)“ (TP22, Absatz 137) -- "Are there always just 150 gramin a crème fraîche cup (?)" (part. 22, paragraph 137)</t>
+  </si>
+  <si>
+    <t>„Äh Bitterstoffe (?)“ (TP3, Absatz 70) -- "Uh bitter substances (?)" (part. 3, paragraph 70)</t>
+  </si>
+  <si>
+    <t>„Die Frage ist was ist leicht breiig (;)“ (TP37, Absatz 169) -- "The question is what is slightly mushy (;)" (part. 37, paragraph 169)</t>
+  </si>
+  <si>
+    <t>„Was ist primo piato (_)“ (TP30, Absatz 41) -- "What is primo piato (_)" (part. 30, paragraph 41)</t>
+  </si>
+  <si>
+    <t>„Wie schmeckt der Bulgur (?) Weil das (-) kenn ich überhaupt nicht (,)“ (TP17, Absatz 101) -- "How does bulgur taste (?) Because I don't know that (-) at all (,)" (part. 17, paragraph 101)</t>
+  </si>
+  <si>
+    <t>„Also Ajvar war dieses Tomaten (-)“ (TP43, Absatz 87) -- "So Ajvar was this tomato thing (-)" (part. 43, paragraph 87)</t>
+  </si>
+  <si>
+    <t>„Kannst einmal schauen Alexander Andünsten was das eigentlich genau bedeutet (?)“ (TP3, Absatz 110) „Weil sonst das Wasser wenn das Salz drin ist länger braucht um heiß zu werden (;) Meinst du das stimmt (?)“ (TP22, Absatz 101) -- "Alexander, can you take a look at 'steaming' and what that actually means (?)" (part. 3, paragraph 110) "Because otherwise the water takes longer to get hot when there is salt in it (;) Do you think that's true (?)" (part. 22 , Paragraph 101)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">„Was ist Bulgur eigentlich (?)“ (TP25, Absatz 146) -- "What is Bulgur actually (?)" (part. 25, paragraph 146) </t>
+  </si>
+  <si>
+    <t>"Ah da stand süß-sauer oder?" (TP8, Absatz 150) -- "Ah it said sweet and sour, right?" (part. 8, paragraph 150)</t>
+  </si>
+  <si>
+    <t>„Welche Getränke würden reintheoretisch zu Chili passen (?)“ (TP34, Absatz 133) -- "Which drinks would theoretically go well with chili (?)" (part. 34, paragraph 133)</t>
+  </si>
+  <si>
+    <t>„Was für typische Gerichte gibt es mit dem (-) Topinambur (?)“ (TP33, Absatz 9) -- "What typical dishes are there with the (-) Jerusalem artichoke (?)" (part. 33, paragraph 9)</t>
+  </si>
+  <si>
+    <t>„Gut (_) Ja ähm (-) Ist das eher so eine Vorspeiseportion oder eher so eine Hauptgerichtportion (_)“ (TP14, Absatz 34) -- "Good (_) Yes uh (-) Is that more of a starter portion or more of a main course portion (_)" (part. 14, paragraph 34)</t>
+  </si>
+  <si>
+    <t>„Ah ok also schon Eintopf (_) Weil es sieht jetzt aus wie ein Eintopf (_)“ (TP23, Absatz 138) -- "Ah ok so it is stew (_) Because it now looks like a stew (_)" (part. 23, paragraph 138)</t>
+  </si>
+  <si>
+    <t>„Ist das dann wie so ein Eintopf (?)“ (TP23, Absatz 136) -- "Is that like a stew (?)" (part. 23, paragraph 136)</t>
+  </si>
+  <si>
+    <t>„Ok (_) Und wie heißt das Gericht nochmal (-) Eintopf (?) Oder (-)“ (TP23, Absatz 134) -- "Ok (_) Can you repeat the name of the dish (-) stew (?) Right (-)" (part. 23, paragraph 134)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">„Ok Moment (_) Brühe heißt (,) Das ist ja dann in flüssiger Form (,) Oder (?)“ (TP22, Absatz 145) -- "Ok one moment (_) broth means (,) that is in liquid form (,) right (?)" (part. 22, paragraph 145) </t>
+  </si>
+  <si>
+    <t>„Muss ich die nicht noch warm machen (?)“ (TP17, Absatz 223) -- "Don't I have to warm them up (?)" (part. 17, paragraph 223)</t>
+  </si>
+  <si>
+    <t>„Und welche Schiene ist das dann da (?)“ (TP37, Absatz 51) -- "And what track is it (?)" (part. 37, paragraph 51)</t>
+  </si>
+  <si>
+    <t>„Umluft oder Ober und Unterhitze (_)“ (TP35, Absatz 29) -- "Circulating air or upper and lower heating (_)" (part. 35, paragraph 29)</t>
+  </si>
+  <si>
+    <t>„Ok (_) Mittlere Hitze (?)“ (TP35, Absatz 57) -- "Ok (_) Medium heat (?)" (part. 35, paragraph 57)</t>
+  </si>
+  <si>
+    <t>„Muss ich den Ofen oder so auch vorheizen (?)“ (TP37, Absatz 49) -- "Do I have to preheat the oven (?)" (part. 37, paragraph 49)</t>
+  </si>
+  <si>
+    <t>„Also jetzt runter (_)“ (TP13, Absatz 46) -- "So now down (_)" (part. 13, paragraph 46)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">„Bei wie viel Temperatur (?)“ (TP13, Absatz 40) -- "At how much temperature (?)" (part. 13, paragraph 40) </t>
+  </si>
+  <si>
+    <t>„Wir ersetzen Frischkäse durch Mozzarella (_)“ (TP30, Absatz 173) -- "We replace cream cheese with mozzarella (_)" (part. 30, paragraph 173)</t>
+  </si>
+  <si>
+    <t>„Kannst du mir das ausrechnen (?)“ (TP39, Absatz 21) -- "Can you calculate this for me (?)" (part. 39, paragraph 21)</t>
+  </si>
+  <si>
+    <t>„Gut (-) Wecker auf 45 Minuten (_)“ (TP35, Absatz 97) -- "Good (-) alarm clock is set at 45 minutes (_)" (part. 35, paragraph 97)</t>
+  </si>
+  <si>
+    <t>„Alex (_) Schalte Musik ein (_)“ (TP30, Absatz 61) -- "Alex (_) turn on the music (_)" (part. 30, paragraph 61)</t>
+  </si>
+  <si>
+    <t>„Schinken kannst weglassen (_)“ (TP1, Absatz 164) -- "You can leave out the ham (_)" (part. 1, paragraph 164)</t>
+  </si>
+  <si>
+    <t>„Was war da nochmal les nochmal vor (-)“ (TP21, Absatz 18) -- "What was there (?) Read it out to me (-)" (part. 21, paragraph 18)</t>
+  </si>
+  <si>
+    <t>„Ja das hört sich doch gut an (_) Dann machen wir das (,)“ (TP13, Absatz 10) -- "Yes, that sounds good (_) Then we do it (,)" (part. 13, paragraph 10)</t>
+  </si>
+  <si>
+    <t>„Perfekt (,) Klingt gut (_)“ (TP7, Absatz 26) -- "Perfect (,) Sounds good (_)" (part. 7, paragraph 26)</t>
+  </si>
+  <si>
+    <t>„Reduziere die Menge auf die Hälfte“ (TP30, Absatz 53) -- "Reduce the amount by half" (part. 30, paragraph 53)</t>
+  </si>
+  <si>
+    <t>„Für zwei Personen (_)“ (TP39, Absatz 19) -- "For two people (_)" (part. 39, paragraph 19)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">„Nö wir machen es vegetarisch (_)“ (TP6, Absatz 16) -- "Nope we'll make it vegetarian (_)" (part. 6, paragraph 16) </t>
+  </si>
+  <si>
+    <t>„Und nimm alles raus was überbacken werden muss oder einen Ofen braucht (_)“ (TP25, Absatz 4) -- "And leave out everything that needs to be baked or needs an oven (_)" (part. 25, paragraph 4)</t>
+  </si>
+  <si>
+    <t>„Oder steht vielleicht bei den ZUtaten schau nochmal da (,) bei den Zutaten steht ja dann auch manchmal (-)“ (TP23, Absatz 44) -- "Or maybe we find it in the ingredients list (,) have a look (-)" (part. 23, paragraph 44)</t>
+  </si>
+  <si>
+    <t>„Kannst du da irgendwie vormerken oder so (?)“ (TP21, Absatz 12) -- "Can you make a note or something (?)" (part. 21, paragraph 12)</t>
+  </si>
+  <si>
+    <t>„Ok dann tu mal wieder das Rezept her (,)(.)“ (TP1, Absatz 102) -- "Ok then show me the recipe again (,) (.)" (part. 1, paragraph 102)</t>
+  </si>
+  <si>
+    <t>„//Ja passt schon//(_)“ (TP1, Absatz 212) -- "// Yes that's fine // (_)" (part. 1, paragraph 212)</t>
+  </si>
+  <si>
+    <t>„Geh mal ganz oben in das ähm (..) da wo die an Sterne angezeigt werden (_)“ (TP1, Absatz 42) -- "Go to the top of the um (..) where the stars are displayed (_)" (part. 1, paragraph 42)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">„Vielleicht kannst du noch irgendwie Zutaten dazu (?) geben (,)“ (TP14, Absatz 10) -- "Maybe you can somehow add ingredients (?)" (part. 14, paragraph 10) </t>
+  </si>
+  <si>
+    <t>„Wechsel ich das Gefäß noch einmal (_)“ (TP30, Absatz 91) -- "Do I change the vessel again (_)" (part. 30, paragraph 91)</t>
+  </si>
+  <si>
+    <t>„Was ist das in Zentimetern (_)“ (TP30, Absatz 77) -- "What is that in centimeters (_)" (part. 30, paragraph 77)</t>
+  </si>
+  <si>
+    <t>„Mhm (,) Ok (?) Hast du Langkornreis gegoogelt oder Reis (_)“ (TP22, Absatz 237) -- "Mhm (,) Ok (?) Did you search for long grain rice or rice (_)" (part. 22, paragraph 237)</t>
+  </si>
+  <si>
+    <t>„Was schaust du (?)“ (TP18, Absatz 32) -- "What are you looking at (?)" (part. 18, paragraph 32)</t>
+  </si>
+  <si>
+    <t>„Gibt es da auch Bilder (?)“ (TP8, Absatz 96) -- "Are there also pictures too (?)" (part. 8, paragraph 96)</t>
+  </si>
+  <si>
+    <t>„Ok (_) Kannst du es beschreiben (?)“ (TP14, Absatz 30) -- "Ok (_) Can you describe it (?)" (part. 14, paragraph 30)</t>
+  </si>
+  <si>
+    <t>„darf ich das Rezept abwandeln (?)“ (TP14, Absatz 116) -- "May I change the recipe (?)" (part. 14, paragraph 116)</t>
+  </si>
+  <si>
+    <t>„Ok (_) Ähm (-) Hast du auch einen Timer integriert (?)“ (TP14, Absatz 94) -- "Ok (_) Um (-) Have you also integrated a timer (?)" (part. 14, paragraph 94)</t>
+  </si>
+  <si>
+    <t>„Steht da auch dabei wie gesund das ist was ich jetzt koch (?)“ (TP37, Absatz 29) -- "Does it also say how healthy it is what I am cooking now (?)" (part. 37, paragraph 29)</t>
+  </si>
+  <si>
+    <t>„Alex nenne mir gute Pizzaservices (_)“ (TP30, Absatz 135) -- "Alex name me good pizza services (_)" (part. 30, paragraph 135)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">„Hast du schon mal die (-) Reis so gekocht (?)“ (TP8, Absatz 164) -- "Have you ever cooked (-) rice like this (?)" (part. 8, paragraph 164) </t>
   </si>
 </sst>
 </file>
@@ -2643,25 +2644,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B401E1D3-9445-4B4C-A072-A2434CC2F18B}">
   <dimension ref="A1:F238"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="90.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="90.88671875" style="1" customWidth="1"/>
     <col min="3" max="3" width="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26" style="1" customWidth="1"/>
-    <col min="6" max="6" width="74.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="56.28515625" customWidth="1"/>
-    <col min="8" max="8" width="23.85546875" customWidth="1"/>
+    <col min="6" max="6" width="74.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="56.33203125" customWidth="1"/>
+    <col min="8" max="8" width="23.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>398</v>
+        <v>205</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2669,1024 +2670,1024 @@
       <c r="E1"/>
       <c r="F1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>68</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>410</v>
+        <v>216</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>83</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>411</v>
+        <v>217</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>124</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>412</v>
+        <v>218</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
     </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>399</v>
+        <v>206</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>413</v>
+        <v>219</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>163</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>414</v>
+        <v>220</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>34</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>415</v>
+        <v>221</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>416</v>
+        <v>222</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
     </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>417</v>
+        <v>223</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
     </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>418</v>
+        <v>224</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>144</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>419</v>
+        <v>225</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>400</v>
+        <v>207</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>420</v>
+        <v>226</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>188</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>421</v>
+        <v>227</v>
       </c>
       <c r="E13"/>
       <c r="F13"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E14"/>
       <c r="F14"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E15"/>
       <c r="F15"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E16"/>
       <c r="F16"/>
     </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E17"/>
       <c r="F17"/>
     </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E18"/>
       <c r="F18"/>
     </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E19"/>
       <c r="F19"/>
     </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E20"/>
       <c r="F20"/>
     </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E21"/>
       <c r="F21"/>
     </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E22"/>
       <c r="F22"/>
     </row>
-    <row r="23" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E23"/>
       <c r="F23"/>
     </row>
-    <row r="24" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E24"/>
       <c r="F24"/>
     </row>
-    <row r="25" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E25"/>
       <c r="F25"/>
     </row>
-    <row r="26" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E26"/>
       <c r="F26"/>
     </row>
-    <row r="27" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E27"/>
       <c r="F27"/>
     </row>
-    <row r="28" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E28"/>
       <c r="F28"/>
     </row>
-    <row r="29" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E29"/>
       <c r="F29"/>
     </row>
-    <row r="30" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E30"/>
       <c r="F30"/>
     </row>
-    <row r="31" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E31"/>
       <c r="F31"/>
     </row>
-    <row r="32" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E32"/>
       <c r="F32"/>
     </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E33"/>
       <c r="F33"/>
     </row>
-    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E34"/>
       <c r="F34"/>
     </row>
-    <row r="35" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E35"/>
       <c r="F35"/>
     </row>
-    <row r="36" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E36"/>
       <c r="F36"/>
     </row>
-    <row r="37" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E37"/>
       <c r="F37"/>
     </row>
-    <row r="38" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E38"/>
       <c r="F38"/>
     </row>
-    <row r="39" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E39"/>
       <c r="F39"/>
     </row>
-    <row r="40" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E40"/>
       <c r="F40"/>
     </row>
-    <row r="41" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E41"/>
       <c r="F41"/>
     </row>
-    <row r="42" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E42"/>
       <c r="F42"/>
     </row>
-    <row r="43" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E43"/>
       <c r="F43"/>
     </row>
-    <row r="44" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E44"/>
       <c r="F44"/>
     </row>
-    <row r="45" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E45"/>
       <c r="F45"/>
     </row>
-    <row r="46" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E46"/>
       <c r="F46"/>
     </row>
-    <row r="47" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E47"/>
       <c r="F47"/>
     </row>
-    <row r="48" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E48"/>
       <c r="F48"/>
     </row>
-    <row r="49" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E49"/>
       <c r="F49"/>
     </row>
-    <row r="50" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E50"/>
       <c r="F50"/>
     </row>
-    <row r="51" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E51"/>
       <c r="F51"/>
     </row>
-    <row r="52" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E52"/>
       <c r="F52"/>
     </row>
-    <row r="53" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E53"/>
       <c r="F53"/>
     </row>
-    <row r="54" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E54"/>
       <c r="F54"/>
     </row>
-    <row r="55" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E55"/>
       <c r="F55"/>
     </row>
-    <row r="56" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E56"/>
       <c r="F56"/>
     </row>
-    <row r="57" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E57"/>
       <c r="F57"/>
     </row>
-    <row r="58" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E58"/>
       <c r="F58"/>
     </row>
-    <row r="59" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E59"/>
       <c r="F59"/>
     </row>
-    <row r="60" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E60"/>
       <c r="F60"/>
     </row>
-    <row r="61" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E61"/>
       <c r="F61"/>
     </row>
-    <row r="62" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E62"/>
       <c r="F62"/>
     </row>
-    <row r="63" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E63"/>
       <c r="F63"/>
     </row>
-    <row r="64" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E64"/>
       <c r="F64"/>
     </row>
-    <row r="65" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E65"/>
       <c r="F65"/>
     </row>
-    <row r="66" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E66"/>
       <c r="F66"/>
     </row>
-    <row r="67" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E67"/>
       <c r="F67"/>
     </row>
-    <row r="68" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E68"/>
       <c r="F68"/>
     </row>
-    <row r="69" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E69"/>
       <c r="F69"/>
     </row>
-    <row r="70" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E70"/>
       <c r="F70"/>
     </row>
-    <row r="71" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E71"/>
       <c r="F71"/>
     </row>
-    <row r="72" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E72"/>
       <c r="F72"/>
     </row>
-    <row r="73" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E73"/>
       <c r="F73"/>
     </row>
-    <row r="74" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E74"/>
       <c r="F74"/>
     </row>
-    <row r="75" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E75"/>
       <c r="F75"/>
     </row>
-    <row r="76" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E76"/>
       <c r="F76"/>
     </row>
-    <row r="77" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E77"/>
       <c r="F77"/>
     </row>
-    <row r="78" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E78"/>
       <c r="F78"/>
     </row>
-    <row r="79" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E79"/>
       <c r="F79"/>
     </row>
-    <row r="80" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E80"/>
       <c r="F80"/>
     </row>
-    <row r="81" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E81"/>
       <c r="F81"/>
     </row>
-    <row r="82" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E82"/>
       <c r="F82"/>
     </row>
-    <row r="83" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E83"/>
       <c r="F83"/>
     </row>
-    <row r="84" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E84"/>
       <c r="F84"/>
     </row>
-    <row r="85" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E85"/>
       <c r="F85"/>
     </row>
-    <row r="86" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E86"/>
       <c r="F86"/>
     </row>
-    <row r="87" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E87"/>
       <c r="F87"/>
     </row>
-    <row r="88" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E88"/>
       <c r="F88"/>
     </row>
-    <row r="89" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E89"/>
       <c r="F89"/>
     </row>
-    <row r="90" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E90"/>
       <c r="F90"/>
     </row>
-    <row r="91" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E91"/>
       <c r="F91"/>
     </row>
-    <row r="92" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E92"/>
       <c r="F92"/>
     </row>
-    <row r="93" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E93"/>
       <c r="F93"/>
     </row>
-    <row r="94" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E94"/>
       <c r="F94"/>
     </row>
-    <row r="95" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E95"/>
       <c r="F95"/>
     </row>
-    <row r="96" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E96"/>
       <c r="F96"/>
     </row>
-    <row r="97" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E97"/>
       <c r="F97"/>
     </row>
-    <row r="98" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E98"/>
       <c r="F98"/>
     </row>
-    <row r="99" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E99"/>
       <c r="F99"/>
     </row>
-    <row r="100" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E100"/>
       <c r="F100"/>
     </row>
-    <row r="101" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E101"/>
       <c r="F101"/>
     </row>
-    <row r="102" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E102"/>
       <c r="F102"/>
     </row>
-    <row r="103" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E103"/>
       <c r="F103"/>
     </row>
-    <row r="104" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E104"/>
       <c r="F104"/>
     </row>
-    <row r="105" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E105"/>
       <c r="F105"/>
     </row>
-    <row r="106" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E106"/>
       <c r="F106"/>
     </row>
-    <row r="107" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E107"/>
       <c r="F107"/>
     </row>
-    <row r="108" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E108"/>
       <c r="F108"/>
     </row>
-    <row r="109" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E109"/>
       <c r="F109"/>
     </row>
-    <row r="110" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E110"/>
       <c r="F110"/>
     </row>
-    <row r="111" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E111"/>
       <c r="F111"/>
     </row>
-    <row r="112" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E112"/>
       <c r="F112"/>
     </row>
-    <row r="113" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E113"/>
       <c r="F113"/>
     </row>
-    <row r="114" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E114"/>
       <c r="F114"/>
     </row>
-    <row r="115" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E115"/>
       <c r="F115"/>
     </row>
-    <row r="116" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E116"/>
       <c r="F116"/>
     </row>
-    <row r="117" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E117"/>
       <c r="F117"/>
     </row>
-    <row r="118" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E118"/>
       <c r="F118"/>
     </row>
-    <row r="119" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E119"/>
       <c r="F119"/>
     </row>
-    <row r="120" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E120"/>
       <c r="F120"/>
     </row>
-    <row r="121" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E121"/>
       <c r="F121"/>
     </row>
-    <row r="122" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E122"/>
       <c r="F122"/>
     </row>
-    <row r="123" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E123"/>
       <c r="F123"/>
     </row>
-    <row r="124" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E124"/>
       <c r="F124"/>
     </row>
-    <row r="125" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E125"/>
       <c r="F125"/>
     </row>
-    <row r="126" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E126"/>
       <c r="F126"/>
     </row>
-    <row r="127" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E127"/>
       <c r="F127"/>
     </row>
-    <row r="128" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E128"/>
       <c r="F128"/>
     </row>
-    <row r="129" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E129"/>
       <c r="F129"/>
     </row>
-    <row r="130" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E130"/>
       <c r="F130"/>
     </row>
-    <row r="131" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E131"/>
       <c r="F131"/>
     </row>
-    <row r="132" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E132"/>
       <c r="F132"/>
     </row>
-    <row r="133" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E133"/>
       <c r="F133"/>
     </row>
-    <row r="134" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E134"/>
       <c r="F134"/>
     </row>
-    <row r="135" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E135"/>
       <c r="F135"/>
     </row>
-    <row r="136" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E136"/>
       <c r="F136"/>
     </row>
-    <row r="137" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E137"/>
       <c r="F137"/>
     </row>
-    <row r="138" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E138"/>
       <c r="F138"/>
     </row>
-    <row r="139" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E139"/>
       <c r="F139"/>
     </row>
-    <row r="140" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E140"/>
       <c r="F140"/>
     </row>
-    <row r="141" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E141"/>
       <c r="F141"/>
     </row>
-    <row r="142" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E142"/>
       <c r="F142"/>
     </row>
-    <row r="143" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E143"/>
       <c r="F143"/>
     </row>
-    <row r="144" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E144"/>
       <c r="F144"/>
     </row>
-    <row r="145" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E145"/>
       <c r="F145"/>
     </row>
-    <row r="146" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E146"/>
       <c r="F146"/>
     </row>
-    <row r="147" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E147"/>
       <c r="F147"/>
     </row>
-    <row r="148" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E148"/>
       <c r="F148"/>
     </row>
-    <row r="149" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E149"/>
       <c r="F149"/>
     </row>
-    <row r="150" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E150"/>
       <c r="F150"/>
     </row>
-    <row r="151" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E151"/>
       <c r="F151"/>
     </row>
-    <row r="152" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E152"/>
       <c r="F152"/>
     </row>
-    <row r="153" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E153"/>
       <c r="F153"/>
     </row>
-    <row r="154" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E154"/>
       <c r="F154"/>
     </row>
-    <row r="155" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E155"/>
       <c r="F155"/>
     </row>
-    <row r="156" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E156"/>
       <c r="F156"/>
     </row>
-    <row r="157" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E157"/>
       <c r="F157"/>
     </row>
-    <row r="158" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E158"/>
       <c r="F158"/>
     </row>
-    <row r="159" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E159"/>
       <c r="F159"/>
     </row>
-    <row r="160" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E160"/>
       <c r="F160"/>
     </row>
-    <row r="161" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E161"/>
       <c r="F161"/>
     </row>
-    <row r="162" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E162"/>
       <c r="F162"/>
     </row>
-    <row r="163" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E163"/>
       <c r="F163"/>
     </row>
-    <row r="164" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E164"/>
       <c r="F164"/>
     </row>
-    <row r="165" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E165"/>
       <c r="F165"/>
     </row>
-    <row r="166" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E166"/>
       <c r="F166"/>
     </row>
-    <row r="167" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E167"/>
       <c r="F167"/>
     </row>
-    <row r="168" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E168"/>
       <c r="F168"/>
     </row>
-    <row r="169" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E169"/>
       <c r="F169"/>
     </row>
-    <row r="170" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E170"/>
       <c r="F170"/>
     </row>
-    <row r="171" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E171"/>
       <c r="F171"/>
     </row>
-    <row r="172" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E172"/>
       <c r="F172"/>
     </row>
-    <row r="173" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E173"/>
       <c r="F173"/>
     </row>
-    <row r="174" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E174"/>
       <c r="F174"/>
     </row>
-    <row r="175" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E175"/>
       <c r="F175"/>
     </row>
-    <row r="176" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E176"/>
       <c r="F176"/>
     </row>
-    <row r="177" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E177"/>
       <c r="F177"/>
     </row>
-    <row r="178" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E178"/>
       <c r="F178"/>
     </row>
-    <row r="179" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E179"/>
       <c r="F179"/>
     </row>
-    <row r="180" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E180"/>
       <c r="F180"/>
     </row>
-    <row r="181" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E181"/>
       <c r="F181"/>
     </row>
-    <row r="182" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E182"/>
       <c r="F182"/>
     </row>
-    <row r="183" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E183"/>
       <c r="F183"/>
     </row>
-    <row r="184" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E184"/>
       <c r="F184"/>
     </row>
-    <row r="185" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E185"/>
       <c r="F185"/>
     </row>
-    <row r="186" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E186"/>
       <c r="F186"/>
     </row>
-    <row r="187" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E187"/>
       <c r="F187"/>
     </row>
-    <row r="188" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E188"/>
       <c r="F188"/>
     </row>
-    <row r="189" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E189"/>
       <c r="F189"/>
     </row>
-    <row r="190" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E190"/>
       <c r="F190"/>
     </row>
-    <row r="191" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E191"/>
       <c r="F191"/>
     </row>
-    <row r="192" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E192"/>
       <c r="F192"/>
     </row>
-    <row r="193" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E193"/>
       <c r="F193"/>
     </row>
-    <row r="194" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E194"/>
       <c r="F194"/>
     </row>
-    <row r="195" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E195"/>
       <c r="F195"/>
     </row>
-    <row r="196" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E196"/>
       <c r="F196"/>
     </row>
-    <row r="197" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E197"/>
       <c r="F197"/>
     </row>
-    <row r="198" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E198"/>
       <c r="F198"/>
     </row>
-    <row r="199" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E199"/>
       <c r="F199"/>
     </row>
-    <row r="200" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E200"/>
       <c r="F200"/>
     </row>
-    <row r="201" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E201"/>
       <c r="F201"/>
     </row>
-    <row r="202" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E202"/>
       <c r="F202"/>
     </row>
-    <row r="203" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E203"/>
       <c r="F203"/>
     </row>
-    <row r="204" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E204"/>
       <c r="F204"/>
     </row>
-    <row r="205" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E205"/>
       <c r="F205"/>
     </row>
-    <row r="206" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E206"/>
       <c r="F206"/>
     </row>
-    <row r="207" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E207"/>
       <c r="F207"/>
     </row>
-    <row r="208" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E208"/>
       <c r="F208"/>
     </row>
-    <row r="209" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E209"/>
       <c r="F209"/>
     </row>
-    <row r="210" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E210"/>
       <c r="F210"/>
     </row>
-    <row r="211" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E211"/>
       <c r="F211"/>
     </row>
-    <row r="212" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E212"/>
       <c r="F212"/>
     </row>
-    <row r="213" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E213"/>
       <c r="F213"/>
     </row>
-    <row r="214" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E214"/>
       <c r="F214"/>
     </row>
-    <row r="215" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E215"/>
       <c r="F215"/>
     </row>
-    <row r="216" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E216"/>
       <c r="F216"/>
     </row>
-    <row r="217" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E217"/>
       <c r="F217"/>
     </row>
-    <row r="218" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E218"/>
       <c r="F218"/>
     </row>
-    <row r="219" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E219"/>
       <c r="F219"/>
     </row>
-    <row r="220" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E220"/>
       <c r="F220"/>
     </row>
-    <row r="221" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E221"/>
       <c r="F221"/>
     </row>
-    <row r="222" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E222"/>
       <c r="F222"/>
     </row>
-    <row r="223" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E223"/>
       <c r="F223"/>
     </row>
-    <row r="224" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E224"/>
       <c r="F224"/>
     </row>
-    <row r="225" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E225"/>
       <c r="F225"/>
     </row>
-    <row r="226" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E226"/>
       <c r="F226"/>
     </row>
-    <row r="227" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E227"/>
       <c r="F227"/>
     </row>
-    <row r="228" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E228"/>
       <c r="F228"/>
     </row>
-    <row r="229" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E229"/>
       <c r="F229"/>
     </row>
-    <row r="230" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E230"/>
       <c r="F230"/>
     </row>
-    <row r="231" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E231"/>
       <c r="F231"/>
     </row>
-    <row r="232" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E232"/>
       <c r="F232"/>
     </row>
-    <row r="233" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E233"/>
       <c r="F233"/>
     </row>
-    <row r="234" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E234"/>
       <c r="F234"/>
     </row>
-    <row r="235" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E235"/>
       <c r="F235"/>
     </row>
-    <row r="236" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E236"/>
       <c r="F236"/>
     </row>
-    <row r="237" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E237"/>
       <c r="F237"/>
     </row>
-    <row r="238" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E238"/>
       <c r="F238"/>
     </row>
@@ -3703,18 +3704,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C654C72-2A14-48F0-AC22-9EDF2E09CA5B}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="31" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="75.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="34" t="s">
         <v>13</v>
       </c>
@@ -3723,22 +3724,22 @@
       <c r="E1" s="34"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="20" t="s">
-        <v>652</v>
+        <v>458</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>653</v>
+        <v>459</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>438</v>
+        <v>244</v>
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -3747,14 +3748,14 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>602</v>
+        <v>408</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>227</v>
+        <v>613</v>
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -3763,14 +3764,14 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>603</v>
+        <v>409</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>200</v>
+        <v>614</v>
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -3779,14 +3780,14 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>604</v>
+        <v>410</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>201</v>
+        <v>615</v>
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -3795,14 +3796,14 @@
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>605</v>
+        <v>411</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>202</v>
+        <v>616</v>
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -3813,14 +3814,14 @@
         <v>18</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>606</v>
+        <v>412</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>203</v>
+        <v>617</v>
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -3829,14 +3830,14 @@
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>607</v>
+        <v>413</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>204</v>
+        <v>618</v>
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -3845,14 +3846,14 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>608</v>
+        <v>414</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>389</v>
+        <v>619</v>
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -3861,10 +3862,10 @@
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>609</v>
+        <v>415</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>205</v>
+        <v>620</v>
       </c>
       <c r="F10" s="2"/>
     </row>
@@ -3880,18 +3881,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D71A272-7C83-4B66-A33D-2AE2C4E95D09}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="47.85546875" style="5" customWidth="1"/>
-    <col min="4" max="5" width="65.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="65.42578125" customWidth="1"/>
+    <col min="2" max="3" width="47.88671875" style="5" customWidth="1"/>
+    <col min="4" max="5" width="65.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="65.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="35" t="s">
         <v>144</v>
       </c>
@@ -3900,22 +3901,22 @@
       <c r="E1" s="35"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" s="21" t="s">
-        <v>652</v>
+        <v>458</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>653</v>
+        <v>459</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>438</v>
+        <v>244</v>
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -3924,14 +3925,14 @@
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>610</v>
+        <v>416</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>324</v>
+        <v>621</v>
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -3940,14 +3941,14 @@
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>611</v>
+        <v>417</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>325</v>
+        <v>622</v>
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -3956,14 +3957,14 @@
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>612</v>
+        <v>418</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>326</v>
+        <v>623</v>
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -3972,24 +3973,24 @@
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>613</v>
+        <v>419</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>327</v>
+        <v>625</v>
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="4" t="s">
-        <v>404</v>
+        <v>210</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -3997,14 +3998,14 @@
         <v>149</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>614</v>
+        <v>420</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>328</v>
+        <v>624</v>
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -4012,14 +4013,14 @@
         <v>150</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>615</v>
+        <v>421</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>329</v>
+        <v>626</v>
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -4028,10 +4029,10 @@
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>616</v>
+        <v>422</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>330</v>
+        <v>627</v>
       </c>
       <c r="F10" s="2"/>
     </row>
@@ -4047,28 +4048,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F915427E-EB66-4D57-9EE6-CCE54387639F}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="53.5703125" customWidth="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1"/>
-    <col min="4" max="4" width="76.140625" customWidth="1"/>
-    <col min="5" max="5" width="65.7109375" customWidth="1"/>
+    <col min="2" max="2" width="53.5546875" customWidth="1"/>
+    <col min="3" max="3" width="33.5546875" customWidth="1"/>
+    <col min="4" max="4" width="76.109375" customWidth="1"/>
+    <col min="5" max="5" width="65.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="36" t="s">
-        <v>631</v>
+        <v>437</v>
       </c>
       <c r="C1" s="36"/>
       <c r="D1" s="36"/>
       <c r="E1" s="36"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -4077,14 +4078,14 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
-        <v>617</v>
+        <v>423</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>373</v>
+        <v>628</v>
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -4093,14 +4094,14 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="3" t="s">
-        <v>618</v>
+        <v>424</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>374</v>
+        <v>629</v>
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -4109,30 +4110,30 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="3" t="s">
-        <v>619</v>
+        <v>425</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>375</v>
+        <v>200</v>
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>405</v>
+        <v>211</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3" t="s">
-        <v>620</v>
+        <v>426</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>376</v>
+        <v>630</v>
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -4141,58 +4142,58 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="3" t="s">
-        <v>621</v>
+        <v>427</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>377</v>
+        <v>631</v>
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>391</v>
+        <v>201</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="3" t="s">
-        <v>622</v>
+        <v>428</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>379</v>
+        <v>632</v>
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>392</v>
+        <v>202</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="3" t="s">
-        <v>623</v>
+        <v>429</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>395</v>
+        <v>633</v>
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>393</v>
+        <v>203</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="3" t="s">
-        <v>624</v>
+        <v>430</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>12</v>
@@ -4201,14 +4202,14 @@
         <v>186</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>625</v>
+        <v>431</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>396</v>
+        <v>634</v>
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>12</v>
@@ -4217,28 +4218,28 @@
         <v>187</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>626</v>
+        <v>432</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>397</v>
+        <v>635</v>
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>394</v>
+        <v>204</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="3" t="s">
-        <v>627</v>
+        <v>433</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -4249,14 +4250,14 @@
         <v>60</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>628</v>
+        <v>434</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>380</v>
+        <v>636</v>
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -4267,14 +4268,14 @@
         <v>61</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>629</v>
+        <v>435</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>381</v>
+        <v>637</v>
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -4283,14 +4284,14 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="3" t="s">
-        <v>630</v>
+        <v>436</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>382</v>
+        <v>638</v>
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -4298,16 +4299,16 @@
       <c r="E16" s="3"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B17" s="36" t="s">
-        <v>632</v>
+        <v>438</v>
       </c>
       <c r="C17" s="36"/>
       <c r="D17" s="36"/>
       <c r="E17" s="36"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
@@ -4316,14 +4317,14 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="3" t="s">
-        <v>633</v>
+        <v>439</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>383</v>
+        <v>639</v>
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>12</v>
       </c>
@@ -4332,30 +4333,30 @@
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="3" t="s">
-        <v>634</v>
+        <v>440</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>384</v>
+        <v>640</v>
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>406</v>
+        <v>212</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="3" t="s">
-        <v>635</v>
+        <v>441</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>385</v>
+        <v>641</v>
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
@@ -4364,46 +4365,46 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="3" t="s">
-        <v>636</v>
+        <v>442</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>386</v>
+        <v>642</v>
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>637</v>
+        <v>443</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="3" t="s">
-        <v>638</v>
+        <v>444</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>387</v>
+        <v>643</v>
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>407</v>
+        <v>213</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="3" t="s">
-        <v>639</v>
+        <v>445</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>388</v>
+        <v>644</v>
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>12</v>
       </c>
@@ -4412,18 +4413,18 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="3" t="s">
-        <v>640</v>
+        <v>446</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>378</v>
+        <v>645</v>
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B26" s="16"/>
       <c r="C26" s="23"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B27" s="16"/>
       <c r="C27" s="23"/>
     </row>
@@ -4440,19 +4441,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B0DF86-2410-4906-BE52-F9521CE6C0DA}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="39.28515625" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
-    <col min="4" max="4" width="85.85546875" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" customWidth="1"/>
+    <col min="3" max="3" width="27.5546875" customWidth="1"/>
+    <col min="4" max="4" width="85.88671875" customWidth="1"/>
     <col min="5" max="5" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="37" t="s">
         <v>188</v>
       </c>
@@ -4461,38 +4462,38 @@
       <c r="E1" s="37"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" s="22" t="s">
-        <v>652</v>
+        <v>458</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>653</v>
+        <v>459</v>
       </c>
       <c r="D2" s="22" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>438</v>
+        <v>244</v>
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>409</v>
+        <v>215</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="3" t="s">
-        <v>641</v>
+        <v>447</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>360</v>
+        <v>646</v>
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -4501,14 +4502,14 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="3" t="s">
-        <v>642</v>
+        <v>448</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>361</v>
+        <v>647</v>
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -4517,14 +4518,14 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3" t="s">
-        <v>643</v>
+        <v>449</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>362</v>
+        <v>648</v>
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -4533,14 +4534,14 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="3" t="s">
-        <v>644</v>
+        <v>450</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>363</v>
+        <v>649</v>
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -4549,14 +4550,14 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="3" t="s">
-        <v>645</v>
+        <v>451</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>366</v>
+        <v>650</v>
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -4567,30 +4568,30 @@
         <v>195</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>646</v>
+        <v>452</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>367</v>
+        <v>651</v>
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>408</v>
+        <v>214</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="3" t="s">
-        <v>647</v>
+        <v>453</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>368</v>
+        <v>652</v>
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -4599,14 +4600,14 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="3" t="s">
-        <v>648</v>
+        <v>454</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>369</v>
+        <v>653</v>
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -4615,14 +4616,14 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="3" t="s">
-        <v>649</v>
+        <v>455</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>370</v>
+        <v>654</v>
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -4631,14 +4632,14 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="3" t="s">
-        <v>650</v>
+        <v>456</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>371</v>
+        <v>655</v>
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -4647,10 +4648,10 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="3" t="s">
-        <v>651</v>
+        <v>457</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>372</v>
+        <v>656</v>
       </c>
       <c r="F13" s="2"/>
     </row>
@@ -4666,20 +4667,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97EE1575-6DD2-47BE-8FAF-B6DF066CFA3D}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="2" max="2" width="39.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="60.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="108.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" style="1"/>
+    <col min="2" max="2" width="39.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="60.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="108.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="26" t="s">
         <v>68</v>
       </c>
@@ -4688,22 +4689,22 @@
       <c r="E1" s="26"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
-        <v>652</v>
+        <v>458</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>653</v>
+        <v>459</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>438</v>
+        <v>244</v>
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -4712,14 +4713,14 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>422</v>
+        <v>228</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>244</v>
+        <v>463</v>
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -4728,14 +4729,14 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>423</v>
+        <v>229</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>245</v>
+        <v>465</v>
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -4744,30 +4745,30 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>424</v>
+        <v>230</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>246</v>
+        <v>464</v>
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>403</v>
+        <v>209</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>425</v>
+        <v>231</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>247</v>
+        <v>466</v>
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -4776,12 +4777,12 @@
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>426</v>
+        <v>232</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
@@ -4792,14 +4793,14 @@
         <v>18</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>427</v>
+        <v>233</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>248</v>
+        <v>467</v>
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -4810,14 +4811,14 @@
         <v>73</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>428</v>
+        <v>234</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>249</v>
+        <v>468</v>
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -4828,14 +4829,14 @@
         <v>74</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>429</v>
+        <v>235</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>250</v>
+        <v>469</v>
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
@@ -4846,14 +4847,14 @@
         <v>75</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>430</v>
+        <v>236</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>251</v>
+        <v>470</v>
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -4862,14 +4863,14 @@
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>431</v>
+        <v>237</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>252</v>
+        <v>471</v>
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -4878,14 +4879,14 @@
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>432</v>
+        <v>238</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>253</v>
+        <v>472</v>
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -4893,14 +4894,14 @@
         <v>78</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>433</v>
+        <v>239</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>254</v>
+        <v>473</v>
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
@@ -4908,14 +4909,14 @@
         <v>79</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>434</v>
+        <v>240</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>255</v>
+        <v>474</v>
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
@@ -4924,14 +4925,14 @@
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>435</v>
+        <v>241</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>256</v>
+        <v>475</v>
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
@@ -4939,14 +4940,14 @@
         <v>81</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>436</v>
+        <v>242</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>257</v>
+        <v>476</v>
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>12</v>
       </c>
@@ -4954,10 +4955,10 @@
         <v>82</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>437</v>
+        <v>243</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>258</v>
+        <v>477</v>
       </c>
       <c r="F18" s="2"/>
     </row>
@@ -4973,22 +4974,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE098B1-1A9F-4D55-8585-A671B6D9B9D3}">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="E45" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="2" max="2" width="39.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" style="1"/>
+    <col min="2" max="2" width="39.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="41" style="1" customWidth="1"/>
-    <col min="5" max="5" width="52.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="65.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="1"/>
+    <col min="5" max="5" width="52.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="65.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="27" t="s">
         <v>83</v>
@@ -4999,26 +5000,26 @@
       <c r="F1" s="27"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="7" t="s">
-        <v>652</v>
+        <v>458</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>653</v>
+        <v>459</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>654</v>
+        <v>460</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>438</v>
+        <v>244</v>
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -5028,12 +5029,12 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>439</v>
+        <v>245</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -5045,12 +5046,12 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>440</v>
+        <v>246</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -5061,17 +5062,17 @@
         <v>12</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>402</v>
+        <v>208</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>441</v>
+        <v>247</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>259</v>
+        <v>481</v>
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
@@ -5085,14 +5086,14 @@
         <v>86</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>442</v>
+        <v>248</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>260</v>
+        <v>480</v>
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -5104,14 +5105,14 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>443</v>
+        <v>249</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>261</v>
+        <v>479</v>
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
@@ -5119,18 +5120,18 @@
         <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>447</v>
+        <v>253</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>444</v>
+        <v>250</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>263</v>
+        <v>478</v>
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -5138,18 +5139,18 @@
         <v>12</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>446</v>
+        <v>252</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>445</v>
+        <v>251</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>262</v>
+        <v>482</v>
       </c>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -5161,12 +5162,12 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>449</v>
+        <v>255</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
@@ -5180,14 +5181,14 @@
         <v>89</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>450</v>
+        <v>256</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>264</v>
+        <v>483</v>
       </c>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -5198,17 +5199,17 @@
         <v>12</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>448</v>
+        <v>254</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>451</v>
+        <v>257</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>265</v>
+        <v>484</v>
       </c>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -5220,14 +5221,14 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>452</v>
+        <v>258</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>266</v>
+        <v>485</v>
       </c>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -5239,14 +5240,14 @@
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
-        <v>453</v>
+        <v>259</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>267</v>
+        <v>486</v>
       </c>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
@@ -5256,14 +5257,14 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
-        <v>454</v>
+        <v>260</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>268</v>
+        <v>487</v>
       </c>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
@@ -5273,14 +5274,14 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
-        <v>455</v>
+        <v>261</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>269</v>
+        <v>488</v>
       </c>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
@@ -5292,14 +5293,14 @@
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
-        <v>456</v>
+        <v>262</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>270</v>
+        <v>489</v>
       </c>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>12</v>
       </c>
@@ -5311,14 +5312,14 @@
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
-        <v>457</v>
+        <v>263</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>271</v>
+        <v>490</v>
       </c>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
@@ -5328,14 +5329,14 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3" t="s">
-        <v>458</v>
+        <v>264</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>272</v>
+        <v>491</v>
       </c>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>12</v>
       </c>
@@ -5345,12 +5346,12 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3" t="s">
-        <v>459</v>
+        <v>265</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>12</v>
       </c>
@@ -5362,14 +5363,14 @@
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
-        <v>460</v>
+        <v>266</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>273</v>
+        <v>492</v>
       </c>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>12</v>
       </c>
@@ -5381,14 +5382,14 @@
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
-        <v>461</v>
+        <v>267</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>274</v>
+        <v>493</v>
       </c>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>12</v>
       </c>
@@ -5400,14 +5401,14 @@
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
-        <v>462</v>
+        <v>268</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>275</v>
+        <v>494</v>
       </c>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>12</v>
       </c>
@@ -5419,14 +5420,14 @@
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>463</v>
+        <v>269</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>276</v>
+        <v>495</v>
       </c>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>12</v>
       </c>
@@ -5438,14 +5439,14 @@
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>464</v>
+        <v>270</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>277</v>
+        <v>496</v>
       </c>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>12</v>
       </c>
@@ -5457,14 +5458,14 @@
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
-        <v>465</v>
+        <v>271</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>278</v>
+        <v>497</v>
       </c>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>12</v>
       </c>
@@ -5474,14 +5475,14 @@
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3" t="s">
-        <v>466</v>
+        <v>272</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>279</v>
+        <v>498</v>
       </c>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>12</v>
       </c>
@@ -5491,12 +5492,12 @@
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="s">
-        <v>467</v>
+        <v>273</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>12</v>
       </c>
@@ -5508,14 +5509,14 @@
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3" t="s">
-        <v>468</v>
+        <v>274</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>280</v>
+        <v>499</v>
       </c>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>12</v>
       </c>
@@ -5527,14 +5528,14 @@
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
-        <v>469</v>
+        <v>275</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>281</v>
+        <v>500</v>
       </c>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>12</v>
       </c>
@@ -5546,14 +5547,14 @@
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3" t="s">
-        <v>470</v>
+        <v>276</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>280</v>
+        <v>499</v>
       </c>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>12</v>
       </c>
@@ -5565,14 +5566,14 @@
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3" t="s">
-        <v>471</v>
+        <v>277</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>282</v>
+        <v>501</v>
       </c>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>12</v>
       </c>
@@ -5582,12 +5583,12 @@
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3" t="s">
-        <v>472</v>
+        <v>278</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>12</v>
       </c>
@@ -5599,14 +5600,14 @@
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3" t="s">
-        <v>473</v>
+        <v>279</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>283</v>
+        <v>502</v>
       </c>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>12</v>
       </c>
@@ -5618,14 +5619,14 @@
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3" t="s">
-        <v>474</v>
+        <v>280</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>284</v>
+        <v>503</v>
       </c>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>12</v>
       </c>
@@ -5637,14 +5638,14 @@
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3" t="s">
-        <v>475</v>
+        <v>281</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>285</v>
+        <v>504</v>
       </c>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>12</v>
       </c>
@@ -5652,18 +5653,18 @@
         <v>12</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>477</v>
+        <v>283</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3" t="s">
-        <v>476</v>
+        <v>282</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>286</v>
+        <v>505</v>
       </c>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>12</v>
       </c>
@@ -5673,12 +5674,12 @@
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3" t="s">
-        <v>478</v>
+        <v>284</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>12</v>
       </c>
@@ -5690,14 +5691,14 @@
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3" t="s">
-        <v>479</v>
+        <v>285</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>287</v>
+        <v>507</v>
       </c>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>12</v>
       </c>
@@ -5709,14 +5710,14 @@
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3" t="s">
-        <v>480</v>
+        <v>286</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>288</v>
+        <v>506</v>
       </c>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>12</v>
       </c>
@@ -5728,14 +5729,14 @@
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="s">
-        <v>481</v>
+        <v>287</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>289</v>
+        <v>508</v>
       </c>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>12</v>
       </c>
@@ -5747,14 +5748,14 @@
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3" t="s">
-        <v>482</v>
+        <v>288</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>290</v>
+        <v>509</v>
       </c>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>12</v>
       </c>
@@ -5764,14 +5765,14 @@
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3" t="s">
-        <v>483</v>
+        <v>289</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>291</v>
+        <v>510</v>
       </c>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>12</v>
       </c>
@@ -5781,12 +5782,12 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3" t="s">
-        <v>484</v>
+        <v>290</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>12</v>
       </c>
@@ -5798,14 +5799,14 @@
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3" t="s">
-        <v>485</v>
+        <v>291</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>292</v>
+        <v>511</v>
       </c>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>12</v>
       </c>
@@ -5817,14 +5818,14 @@
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3" t="s">
-        <v>486</v>
+        <v>292</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>293</v>
+        <v>512</v>
       </c>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>12</v>
       </c>
@@ -5836,14 +5837,14 @@
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
-        <v>488</v>
+        <v>294</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>294</v>
+        <v>513</v>
       </c>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>12</v>
       </c>
@@ -5855,14 +5856,14 @@
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3" t="s">
-        <v>487</v>
+        <v>293</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>295</v>
+        <v>514</v>
       </c>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>12</v>
       </c>
@@ -5872,12 +5873,12 @@
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3" t="s">
-        <v>489</v>
+        <v>295</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>12</v>
       </c>
@@ -5889,14 +5890,14 @@
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3" t="s">
-        <v>490</v>
+        <v>296</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>296</v>
+        <v>515</v>
       </c>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>12</v>
       </c>
@@ -5911,7 +5912,7 @@
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>12</v>
       </c>
@@ -5925,14 +5926,14 @@
         <v>116</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>491</v>
+        <v>297</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>297</v>
+        <v>516</v>
       </c>
       <c r="G52" s="3"/>
     </row>
-    <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>12</v>
       </c>
@@ -5946,14 +5947,14 @@
         <v>117</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>492</v>
+        <v>298</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>298</v>
+        <v>517</v>
       </c>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>12</v>
       </c>
@@ -5967,14 +5968,14 @@
         <v>118</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>493</v>
+        <v>299</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>299</v>
+        <v>518</v>
       </c>
       <c r="G54" s="3"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>12</v>
       </c>
@@ -5989,7 +5990,7 @@
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>12</v>
       </c>
@@ -6003,14 +6004,14 @@
         <v>120</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>494</v>
+        <v>300</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>300</v>
+        <v>519</v>
       </c>
       <c r="G56" s="3"/>
     </row>
-    <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>12</v>
       </c>
@@ -6024,14 +6025,14 @@
         <v>121</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>495</v>
+        <v>301</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>301</v>
+        <v>520</v>
       </c>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>12</v>
       </c>
@@ -6045,14 +6046,14 @@
         <v>122</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>496</v>
+        <v>302</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>302</v>
+        <v>521</v>
       </c>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>12</v>
       </c>
@@ -6066,14 +6067,14 @@
         <v>123</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>497</v>
+        <v>303</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>303</v>
+        <v>522</v>
       </c>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>12</v>
       </c>
@@ -6085,14 +6086,14 @@
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3" t="s">
-        <v>498</v>
+        <v>304</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>304</v>
+        <v>523</v>
       </c>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>12</v>
       </c>
@@ -6104,10 +6105,10 @@
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3" t="s">
-        <v>499</v>
+        <v>305</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>305</v>
+        <v>524</v>
       </c>
       <c r="G61" s="3"/>
     </row>
@@ -6123,20 +6124,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07392A47-5175-4595-BC44-1650A45F3926}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="11.44140625" style="1"/>
     <col min="2" max="2" width="48" style="1" customWidth="1"/>
-    <col min="3" max="3" width="45.28515625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="115.140625" style="1" customWidth="1"/>
-    <col min="6" max="14" width="11.42578125" style="1"/>
+    <col min="3" max="3" width="45.33203125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="115.109375" style="1" customWidth="1"/>
+    <col min="6" max="14" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="28" t="s">
         <v>124</v>
       </c>
@@ -6145,22 +6146,22 @@
       <c r="E1" s="28"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
-        <v>652</v>
+        <v>458</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>656</v>
+        <v>462</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>438</v>
+        <v>244</v>
       </c>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -6169,12 +6170,12 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>500</v>
+        <v>306</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -6185,14 +6186,14 @@
         <v>126</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>501</v>
+        <v>307</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>306</v>
+        <v>525</v>
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -6203,14 +6204,14 @@
         <v>127</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>502</v>
+        <v>308</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>307</v>
+        <v>526</v>
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
@@ -6221,14 +6222,14 @@
         <v>128</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>503</v>
+        <v>309</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>308</v>
+        <v>527</v>
       </c>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -6239,14 +6240,14 @@
         <v>129</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>504</v>
+        <v>310</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>309</v>
+        <v>528</v>
       </c>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
@@ -6257,14 +6258,14 @@
         <v>130</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>505</v>
+        <v>311</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>310</v>
+        <v>529</v>
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -6275,14 +6276,14 @@
         <v>131</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>506</v>
+        <v>312</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>311</v>
+        <v>530</v>
       </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -6293,14 +6294,14 @@
         <v>132</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>507</v>
+        <v>313</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>312</v>
+        <v>531</v>
       </c>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
@@ -6311,14 +6312,14 @@
         <v>133</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>508</v>
+        <v>314</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>314</v>
+        <v>532</v>
       </c>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -6329,14 +6330,14 @@
         <v>134</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>509</v>
+        <v>315</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>315</v>
+        <v>533</v>
       </c>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -6347,14 +6348,14 @@
         <v>135</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>510</v>
+        <v>316</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>316</v>
+        <v>534</v>
       </c>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -6365,14 +6366,14 @@
         <v>136</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>511</v>
+        <v>317</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>313</v>
+        <v>535</v>
       </c>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
@@ -6383,14 +6384,14 @@
         <v>137</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>512</v>
+        <v>318</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>317</v>
+        <v>536</v>
       </c>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
@@ -6401,14 +6402,14 @@
         <v>138</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>513</v>
+        <v>319</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>318</v>
+        <v>537</v>
       </c>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
@@ -6417,14 +6418,14 @@
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
-        <v>514</v>
+        <v>320</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>319</v>
+        <v>538</v>
       </c>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>12</v>
       </c>
@@ -6433,14 +6434,14 @@
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
-        <v>515</v>
+        <v>321</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>320</v>
+        <v>539</v>
       </c>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
@@ -6449,14 +6450,14 @@
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>516</v>
+        <v>322</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>321</v>
+        <v>540</v>
       </c>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>12</v>
       </c>
@@ -6465,14 +6466,14 @@
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
-        <v>517</v>
+        <v>323</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>322</v>
+        <v>541</v>
       </c>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>12</v>
       </c>
@@ -6481,10 +6482,10 @@
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>518</v>
+        <v>324</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>323</v>
+        <v>542</v>
       </c>
       <c r="F21" s="3"/>
     </row>
@@ -6500,19 +6501,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A411C0C-28B1-4379-A4D6-C3F45C1C4DE2}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="53.140625" customWidth="1"/>
-    <col min="3" max="3" width="54.7109375" customWidth="1"/>
-    <col min="4" max="4" width="79.85546875" customWidth="1"/>
-    <col min="5" max="5" width="56.28515625" customWidth="1"/>
+    <col min="2" max="2" width="53.109375" customWidth="1"/>
+    <col min="3" max="3" width="54.6640625" customWidth="1"/>
+    <col min="4" max="4" width="79.88671875" customWidth="1"/>
+    <col min="5" max="5" width="56.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="29" t="s">
         <v>152</v>
       </c>
@@ -6521,22 +6522,22 @@
       <c r="E1" s="29"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
-        <v>652</v>
+        <v>458</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>653</v>
+        <v>459</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>438</v>
+        <v>244</v>
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -6545,14 +6546,14 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="3" t="s">
-        <v>519</v>
+        <v>325</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>331</v>
+        <v>543</v>
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -6561,14 +6562,14 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="3" t="s">
-        <v>520</v>
+        <v>326</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>332</v>
+        <v>544</v>
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -6577,14 +6578,14 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3" t="s">
-        <v>521</v>
+        <v>327</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>333</v>
+        <v>545</v>
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -6593,14 +6594,14 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="3" t="s">
-        <v>522</v>
+        <v>328</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>401</v>
+        <v>546</v>
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -6609,14 +6610,14 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="3" t="s">
-        <v>523</v>
+        <v>329</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>334</v>
+        <v>547</v>
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -6625,12 +6626,12 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="3" t="s">
-        <v>524</v>
+        <v>330</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -6641,14 +6642,14 @@
         <v>158</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>525</v>
+        <v>331</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>335</v>
+        <v>548</v>
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -6659,14 +6660,14 @@
         <v>159</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>526</v>
+        <v>332</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>336</v>
+        <v>549</v>
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -6675,14 +6676,14 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="3" t="s">
-        <v>527</v>
+        <v>333</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>337</v>
+        <v>550</v>
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -6691,14 +6692,14 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="3" t="s">
-        <v>528</v>
+        <v>334</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>338</v>
+        <v>551</v>
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -6707,10 +6708,10 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="3" t="s">
-        <v>529</v>
+        <v>335</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>339</v>
+        <v>552</v>
       </c>
       <c r="F13" s="2"/>
     </row>
@@ -6726,18 +6727,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B65F74-2026-4F89-81A2-27E36103C220}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="42.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.28515625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="86.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="42.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.33203125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="86.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="30" t="s">
         <v>34</v>
@@ -6747,23 +6748,23 @@
       <c r="E1" s="30"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="15" t="s">
-        <v>652</v>
+        <v>458</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>653</v>
+        <v>459</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>438</v>
+        <v>244</v>
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -6772,12 +6773,12 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>530</v>
+        <v>336</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -6788,14 +6789,14 @@
         <v>36</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>531</v>
+        <v>337</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>225</v>
+        <v>553</v>
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -6806,14 +6807,14 @@
         <v>37</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>532</v>
+        <v>338</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>226</v>
+        <v>554</v>
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -6822,12 +6823,12 @@
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>533</v>
+        <v>339</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -6838,14 +6839,14 @@
         <v>39</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>534</v>
+        <v>340</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>229</v>
+        <v>555</v>
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -6856,14 +6857,14 @@
         <v>40</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>535</v>
+        <v>341</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>230</v>
+        <v>556</v>
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -6872,14 +6873,14 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>536</v>
+        <v>342</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>231</v>
+        <v>557</v>
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -6888,12 +6889,12 @@
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>537</v>
+        <v>343</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -6904,14 +6905,14 @@
         <v>43</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>538</v>
+        <v>344</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>232</v>
+        <v>558</v>
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -6922,14 +6923,14 @@
         <v>44</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>539</v>
+        <v>345</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>233</v>
+        <v>559</v>
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -6938,14 +6939,14 @@
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>540</v>
+        <v>346</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>234</v>
+        <v>560</v>
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -6954,14 +6955,14 @@
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>541</v>
+        <v>347</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>235</v>
+        <v>561</v>
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -6970,14 +6971,14 @@
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>542</v>
+        <v>348</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>236</v>
+        <v>562</v>
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
@@ -6986,12 +6987,12 @@
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>543</v>
+        <v>349</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
@@ -7002,14 +7003,14 @@
         <v>18</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>544</v>
+        <v>350</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>237</v>
+        <v>563</v>
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
@@ -7020,14 +7021,14 @@
         <v>49</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>545</v>
+        <v>351</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>238</v>
+        <v>564</v>
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>12</v>
       </c>
@@ -7038,14 +7039,14 @@
         <v>50</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>546</v>
+        <v>352</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>239</v>
+        <v>565</v>
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>12</v>
       </c>
@@ -7054,12 +7055,12 @@
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
-        <v>547</v>
+        <v>353</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
@@ -7070,14 +7071,14 @@
         <v>18</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>548</v>
+        <v>354</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>240</v>
+        <v>566</v>
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>12</v>
       </c>
@@ -7088,14 +7089,14 @@
         <v>52</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>549</v>
+        <v>355</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>241</v>
+        <v>567</v>
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>12</v>
       </c>
@@ -7106,14 +7107,14 @@
         <v>53</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>550</v>
+        <v>356</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>242</v>
+        <v>568</v>
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>12</v>
       </c>
@@ -7122,10 +7123,10 @@
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
-        <v>551</v>
+        <v>357</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>243</v>
+        <v>569</v>
       </c>
       <c r="F24" s="2"/>
     </row>
@@ -7141,21 +7142,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1EFF3A2-12C7-4554-942E-AC5C50C03C75}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="F15" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="53" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="46.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="37.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="46.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37.44140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="61" style="1" customWidth="1"/>
-    <col min="7" max="7" width="92.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="92.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="31" t="s">
         <v>163</v>
       </c>
@@ -7166,29 +7167,29 @@
       <c r="G1" s="31"/>
       <c r="H1" s="11"/>
     </row>
-    <row r="2" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="24"/>
       <c r="B2" s="13" t="s">
-        <v>652</v>
+        <v>458</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>653</v>
+        <v>459</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>654</v>
+        <v>460</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>655</v>
+        <v>461</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>438</v>
+        <v>244</v>
       </c>
       <c r="H2" s="14"/>
     </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -7199,14 +7200,14 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>552</v>
+        <v>358</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>340</v>
+        <v>570</v>
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -7217,12 +7218,12 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>553</v>
+        <v>359</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -7235,14 +7236,14 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>554</v>
+        <v>360</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>341</v>
+        <v>571</v>
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -7255,14 +7256,14 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>555</v>
+        <v>361</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>342</v>
+        <v>572</v>
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -7273,12 +7274,12 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>556</v>
+        <v>362</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -7291,14 +7292,14 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>557</v>
+        <v>363</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>343</v>
+        <v>573</v>
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -7311,14 +7312,14 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>558</v>
+        <v>364</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>344</v>
+        <v>574</v>
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -7331,14 +7332,14 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>559</v>
+        <v>365</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>345</v>
+        <v>575</v>
       </c>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -7349,14 +7350,14 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>560</v>
+        <v>366</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>346</v>
+        <v>576</v>
       </c>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -7367,14 +7368,14 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>561</v>
+        <v>367</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>347</v>
+        <v>577</v>
       </c>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -7385,14 +7386,14 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>562</v>
+        <v>368</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>348</v>
+        <v>578</v>
       </c>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -7403,14 +7404,14 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>563</v>
+        <v>369</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>364</v>
+        <v>579</v>
       </c>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -7423,14 +7424,14 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>564</v>
+        <v>370</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>365</v>
+        <v>580</v>
       </c>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
@@ -7441,12 +7442,12 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
-        <v>565</v>
+        <v>371</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
@@ -7459,7 +7460,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
@@ -7471,14 +7472,14 @@
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
-        <v>566</v>
+        <v>372</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>349</v>
+        <v>581</v>
       </c>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>12</v>
       </c>
@@ -7490,14 +7491,14 @@
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
-        <v>567</v>
+        <v>373</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>350</v>
+        <v>582</v>
       </c>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>12</v>
       </c>
@@ -7509,14 +7510,14 @@
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>568</v>
+        <v>374</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>390</v>
+        <v>583</v>
       </c>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
@@ -7529,14 +7530,14 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
-        <v>569</v>
+        <v>375</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>351</v>
+        <v>584</v>
       </c>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>12</v>
       </c>
@@ -7551,12 +7552,12 @@
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
-        <v>570</v>
+        <v>376</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>12</v>
       </c>
@@ -7571,14 +7572,14 @@
         <v>184</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>571</v>
+        <v>377</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>352</v>
+        <v>585</v>
       </c>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>12</v>
       </c>
@@ -7593,14 +7594,14 @@
         <v>183</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>572</v>
+        <v>378</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>353</v>
+        <v>586</v>
       </c>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>12</v>
       </c>
@@ -7615,12 +7616,12 @@
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
-        <v>573</v>
+        <v>379</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>12</v>
       </c>
@@ -7637,14 +7638,14 @@
         <v>184</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>574</v>
+        <v>380</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>354</v>
+        <v>587</v>
       </c>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>12</v>
       </c>
@@ -7661,14 +7662,14 @@
         <v>183</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>575</v>
+        <v>381</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>355</v>
+        <v>588</v>
       </c>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>12</v>
       </c>
@@ -7681,14 +7682,14 @@
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
-        <v>576</v>
+        <v>382</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>356</v>
+        <v>589</v>
       </c>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>12</v>
       </c>
@@ -7701,12 +7702,12 @@
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3" t="s">
-        <v>577</v>
+        <v>383</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>12</v>
       </c>
@@ -7721,14 +7722,14 @@
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3" t="s">
-        <v>578</v>
+        <v>384</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>357</v>
+        <v>590</v>
       </c>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>12</v>
       </c>
@@ -7743,14 +7744,14 @@
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3" t="s">
-        <v>579</v>
+        <v>385</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>358</v>
+        <v>591</v>
       </c>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>12</v>
       </c>
@@ -7763,10 +7764,10 @@
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3" t="s">
-        <v>580</v>
+        <v>386</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>359</v>
+        <v>592</v>
       </c>
       <c r="H32" s="2"/>
     </row>
@@ -7782,18 +7783,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C748B0E-D4DD-4BAC-8F79-517970D62019}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="39" style="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="1" customWidth="1"/>
-    <col min="4" max="5" width="83.42578125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="83.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="32" t="s">
         <v>22</v>
       </c>
@@ -7802,22 +7803,22 @@
       <c r="E1" s="32"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="18" t="s">
-        <v>652</v>
+        <v>458</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>653</v>
+        <v>459</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>438</v>
+        <v>244</v>
       </c>
       <c r="F2" s="17"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -7826,14 +7827,14 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>581</v>
+        <v>387</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>206</v>
+        <v>593</v>
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -7842,14 +7843,14 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>582</v>
+        <v>388</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>207</v>
+        <v>594</v>
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -7858,14 +7859,14 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>583</v>
+        <v>389</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>208</v>
+        <v>595</v>
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -7874,14 +7875,14 @@
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="1" t="s">
-        <v>584</v>
+        <v>390</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>211</v>
+        <v>596</v>
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -7890,12 +7891,12 @@
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>585</v>
+        <v>391</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -7906,14 +7907,14 @@
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>586</v>
+        <v>392</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>212</v>
+        <v>597</v>
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -7924,14 +7925,14 @@
         <v>8</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>587</v>
+        <v>393</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>213</v>
+        <v>598</v>
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -7940,14 +7941,14 @@
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>588</v>
+        <v>394</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>214</v>
+        <v>599</v>
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -7956,14 +7957,14 @@
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>589</v>
+        <v>395</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>215</v>
+        <v>600</v>
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -7972,14 +7973,14 @@
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>590</v>
+        <v>396</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>216</v>
+        <v>601</v>
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -7988,33 +7989,33 @@
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>591</v>
+        <v>397</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>217</v>
+        <v>602</v>
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>592</v>
+        <v>398</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C15" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>593</v>
+        <v>399</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>210</v>
+        <v>604</v>
       </c>
     </row>
   </sheetData>
@@ -8029,16 +8030,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0491FB6F-EFB8-46A3-A1F8-DBF46D387302}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="4" width="82.7109375" style="1" customWidth="1"/>
+    <col min="2" max="4" width="82.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="33" t="s">
         <v>25</v>
       </c>
@@ -8046,19 +8047,19 @@
       <c r="D1" s="33"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="s">
-        <v>652</v>
+        <v>458</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>438</v>
+        <v>244</v>
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -8066,14 +8067,14 @@
         <v>26</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>594</v>
+        <v>400</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>218</v>
+        <v>605</v>
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -8081,14 +8082,14 @@
         <v>27</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>595</v>
+        <v>401</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>219</v>
+        <v>606</v>
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -8096,14 +8097,14 @@
         <v>28</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>596</v>
+        <v>402</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>220</v>
+        <v>607</v>
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -8111,14 +8112,14 @@
         <v>29</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>597</v>
+        <v>403</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>221</v>
+        <v>608</v>
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -8126,14 +8127,14 @@
         <v>30</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>598</v>
+        <v>404</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>222</v>
+        <v>609</v>
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -8141,14 +8142,14 @@
         <v>31</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>599</v>
+        <v>405</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>223</v>
+        <v>610</v>
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -8156,14 +8157,14 @@
         <v>32</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>600</v>
+        <v>406</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>228</v>
+        <v>611</v>
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -8171,10 +8172,10 @@
         <v>33</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>601</v>
+        <v>407</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>224</v>
+        <v>612</v>
       </c>
       <c r="E10" s="2"/>
     </row>

--- a/annotation/annotation_schema_cookversational_search.xlsx
+++ b/annotation/annotation_schema_cookversational_search.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexf\Documents\Arbeit\Konferenzen\TOIS\CookversationalSearch\annotation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexf\Google Drive\Promotion\CookversationalSearch\annotation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B706DFB-F49B-4502-B233-F417D14514DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2AD0480-1F9F-461B-AE5E-A01D4406748E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17196" yWindow="6336" windowWidth="23040" windowHeight="12204" firstSheet="8" activeTab="12" xr2:uid="{4DA8BC8C-CB17-4341-84BF-B96DC8599B67}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{4DA8BC8C-CB17-4341-84BF-B96DC8599B67}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="3" r:id="rId1"/>
@@ -24,8 +24,7 @@
     <sheet name="Knowledge" sheetId="10" r:id="rId9"/>
     <sheet name="Meal" sheetId="11" r:id="rId10"/>
     <sheet name="Temperature" sheetId="12" r:id="rId11"/>
-    <sheet name="Actions &amp; Commands" sheetId="13" r:id="rId12"/>
-    <sheet name="Misc" sheetId="14" r:id="rId13"/>
+    <sheet name="Misc" sheetId="14" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="ExterneDaten_1" localSheetId="0" hidden="1">Overview!#REF!</definedName>
@@ -54,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="592">
   <si>
     <t>Definition</t>
   </si>
@@ -221,39 +220,9 @@
     <t>Cooking Time</t>
   </si>
   <si>
-    <t>Do Calculations</t>
-  </si>
-  <si>
-    <t>Pause reading out</t>
-  </si>
-  <si>
-    <t>Turn on music</t>
-  </si>
-  <si>
     <t>Ingredient Substitution</t>
   </si>
   <si>
-    <t>Add Ingredients to Recipe Search</t>
-  </si>
-  <si>
-    <t>Change Amount of Ingredient</t>
-  </si>
-  <si>
-    <t>Change Amount of Persons</t>
-  </si>
-  <si>
-    <t>Recipe Adaption</t>
-  </si>
-  <si>
-    <t>Filter Search</t>
-  </si>
-  <si>
-    <t>Navigation - Recipe Ingredient List</t>
-  </si>
-  <si>
-    <t>Navigation - Switch back to recipe</t>
-  </si>
-  <si>
     <t>Read out result list</t>
   </si>
   <si>
@@ -614,12 +583,6 @@
     <t>Request for Recipe Search Success</t>
   </si>
   <si>
-    <t>Recipe selection - explizit</t>
-  </si>
-  <si>
-    <t>Recipe selection - implicit</t>
-  </si>
-  <si>
     <t>Miscellaneous</t>
   </si>
   <si>
@@ -656,30 +619,9 @@
     <t>Experience</t>
   </si>
   <si>
-    <t>„Pause (,)“ (TP36, Absatz 55)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ingredient removal </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Repeat Ingredient Readout </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recipe Selection </t>
-  </si>
-  <si>
-    <t>Change Amount</t>
-  </si>
-  <si>
-    <t>Codes</t>
-  </si>
-  <si>
     <t>Cooking Technique</t>
   </si>
   <si>
-    <t>Actions &amp; Commands</t>
-  </si>
-  <si>
     <t xml:space="preserve">Next Ingredient </t>
   </si>
   <si>
@@ -689,15 +631,6 @@
     <t>Temperature Reassurance</t>
   </si>
   <si>
-    <t>Timer</t>
-  </si>
-  <si>
-    <t>Bookmark</t>
-  </si>
-  <si>
-    <t>Navigational Instruction on SERP</t>
-  </si>
-  <si>
     <t>Question regarding experiment</t>
   </si>
   <si>
@@ -734,9 +667,6 @@
     <t>Information needs relating to temperature.</t>
   </si>
   <si>
-    <t>Utterances of this class cannot be viewed as formal information needs. They include commands and actions users can pose to the system.</t>
-  </si>
-  <si>
     <t>Information needs that cannot be assigned to one of the aforementioned classes.</t>
   </si>
   <si>
@@ -1325,78 +1255,6 @@
     <t>Question regarding the temperature</t>
   </si>
   <si>
-    <t>Command to substitute an ingredient</t>
-  </si>
-  <si>
-    <t>Command to the system to do calculations</t>
-  </si>
-  <si>
-    <t>Command to pause reading out steps/ingredients etc.</t>
-  </si>
-  <si>
-    <t>Command to set/modify/stop the timer</t>
-  </si>
-  <si>
-    <t>Command to turn on music</t>
-  </si>
-  <si>
-    <t>Command to remove/leave out ingredients</t>
-  </si>
-  <si>
-    <t>Command to repeat an ingredient</t>
-  </si>
-  <si>
-    <t>Message for the system to select a recipe</t>
-  </si>
-  <si>
-    <t>Explicit selection of a recipe</t>
-  </si>
-  <si>
-    <t>Implicit selection of a recipe</t>
-  </si>
-  <si>
-    <t>Command to change amounts</t>
-  </si>
-  <si>
-    <t>Command to change the amount of an ingredient</t>
-  </si>
-  <si>
-    <t>Command to change the number of persons for which the recipe is meant</t>
-  </si>
-  <si>
-    <t>Adaptation of the recipe. Entire parts of the preparation are substituted.</t>
-  </si>
-  <si>
-    <t>User Command</t>
-  </si>
-  <si>
-    <t>User Search Actions</t>
-  </si>
-  <si>
-    <t>Add a specific filter to the recipe search</t>
-  </si>
-  <si>
-    <t>System should navigate in the ingredient list of a recipe</t>
-  </si>
-  <si>
-    <t>User wants to mark the recipe down</t>
-  </si>
-  <si>
-    <t>Desire to talk about the recipe again/ to switch back to the recipe. This constitutes an act of navigation.</t>
-  </si>
-  <si>
-    <t>System Instruction - Stop Reading out SERP</t>
-  </si>
-  <si>
-    <t>The system should stop reading out the SERP</t>
-  </si>
-  <si>
-    <t>Navigational instructions on the SERP. The user has a mental model of the website.</t>
-  </si>
-  <si>
-    <t>Command to add ingredients to the recipe search</t>
-  </si>
-  <si>
     <t>Question if the utensil needs to be changed during the preparation. The reason for that is the planning of the procedure.</t>
   </si>
   <si>
@@ -1430,9 +1288,6 @@
     <t xml:space="preserve">User wants to know the "system's" (experimenter's ) experience </t>
   </si>
   <si>
-    <t>Code Level 1</t>
-  </si>
-  <si>
     <t>Code Level 2</t>
   </si>
   <si>
@@ -1440,9 +1295,6 @@
   </si>
   <si>
     <t>Code Level 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code Level 2 </t>
   </si>
   <si>
     <t>„Ok (_) Dann (-) Geh ich jetzt einfach mal davon aus dass (-) eine halbe Zwiebel ungefähr zwei Schalotten entspricht (?)“ (TP14, Absatz 120) -- "Ok. I suppose half an onion is the same as two shallots?" (part. 14, paragraph 120)</t>
@@ -1941,60 +1793,6 @@
     <t xml:space="preserve">„Bei wie viel Temperatur (?)“ (TP13, Absatz 40) -- "At how much temperature (?)" (part. 13, paragraph 40) </t>
   </si>
   <si>
-    <t>„Wir ersetzen Frischkäse durch Mozzarella (_)“ (TP30, Absatz 173) -- "We replace cream cheese with mozzarella (_)" (part. 30, paragraph 173)</t>
-  </si>
-  <si>
-    <t>„Kannst du mir das ausrechnen (?)“ (TP39, Absatz 21) -- "Can you calculate this for me (?)" (part. 39, paragraph 21)</t>
-  </si>
-  <si>
-    <t>„Gut (-) Wecker auf 45 Minuten (_)“ (TP35, Absatz 97) -- "Good (-) alarm clock is set at 45 minutes (_)" (part. 35, paragraph 97)</t>
-  </si>
-  <si>
-    <t>„Alex (_) Schalte Musik ein (_)“ (TP30, Absatz 61) -- "Alex (_) turn on the music (_)" (part. 30, paragraph 61)</t>
-  </si>
-  <si>
-    <t>„Schinken kannst weglassen (_)“ (TP1, Absatz 164) -- "You can leave out the ham (_)" (part. 1, paragraph 164)</t>
-  </si>
-  <si>
-    <t>„Was war da nochmal les nochmal vor (-)“ (TP21, Absatz 18) -- "What was there (?) Read it out to me (-)" (part. 21, paragraph 18)</t>
-  </si>
-  <si>
-    <t>„Ja das hört sich doch gut an (_) Dann machen wir das (,)“ (TP13, Absatz 10) -- "Yes, that sounds good (_) Then we do it (,)" (part. 13, paragraph 10)</t>
-  </si>
-  <si>
-    <t>„Perfekt (,) Klingt gut (_)“ (TP7, Absatz 26) -- "Perfect (,) Sounds good (_)" (part. 7, paragraph 26)</t>
-  </si>
-  <si>
-    <t>„Reduziere die Menge auf die Hälfte“ (TP30, Absatz 53) -- "Reduce the amount by half" (part. 30, paragraph 53)</t>
-  </si>
-  <si>
-    <t>„Für zwei Personen (_)“ (TP39, Absatz 19) -- "For two people (_)" (part. 39, paragraph 19)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">„Nö wir machen es vegetarisch (_)“ (TP6, Absatz 16) -- "Nope we'll make it vegetarian (_)" (part. 6, paragraph 16) </t>
-  </si>
-  <si>
-    <t>„Und nimm alles raus was überbacken werden muss oder einen Ofen braucht (_)“ (TP25, Absatz 4) -- "And leave out everything that needs to be baked or needs an oven (_)" (part. 25, paragraph 4)</t>
-  </si>
-  <si>
-    <t>„Oder steht vielleicht bei den ZUtaten schau nochmal da (,) bei den Zutaten steht ja dann auch manchmal (-)“ (TP23, Absatz 44) -- "Or maybe we find it in the ingredients list (,) have a look (-)" (part. 23, paragraph 44)</t>
-  </si>
-  <si>
-    <t>„Kannst du da irgendwie vormerken oder so (?)“ (TP21, Absatz 12) -- "Can you make a note or something (?)" (part. 21, paragraph 12)</t>
-  </si>
-  <si>
-    <t>„Ok dann tu mal wieder das Rezept her (,)(.)“ (TP1, Absatz 102) -- "Ok then show me the recipe again (,) (.)" (part. 1, paragraph 102)</t>
-  </si>
-  <si>
-    <t>„//Ja passt schon//(_)“ (TP1, Absatz 212) -- "// Yes that's fine // (_)" (part. 1, paragraph 212)</t>
-  </si>
-  <si>
-    <t>„Geh mal ganz oben in das ähm (..) da wo die an Sterne angezeigt werden (_)“ (TP1, Absatz 42) -- "Go to the top of the um (..) where the stars are displayed (_)" (part. 1, paragraph 42)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">„Vielleicht kannst du noch irgendwie Zutaten dazu (?) geben (,)“ (TP14, Absatz 10) -- "Maybe you can somehow add ingredients (?)" (part. 14, paragraph 10) </t>
-  </si>
-  <si>
     <t>„Wechsel ich das Gefäß noch einmal (_)“ (TP30, Absatz 91) -- "Do I change the vessel again (_)" (part. 30, paragraph 91)</t>
   </si>
   <si>
@@ -2026,6 +1824,12 @@
   </si>
   <si>
     <t xml:space="preserve">„Hast du schon mal die (-) Reis so gekocht (?)“ (TP8, Absatz 164) -- "Have you ever cooked (-) rice like this (?)" (part. 8, paragraph 164) </t>
+  </si>
+  <si>
+    <t>Codes Level 1</t>
+  </si>
+  <si>
+    <t>Code Level 5</t>
   </si>
 </sst>
 </file>
@@ -2206,7 +2010,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2256,9 +2060,6 @@
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2291,9 +2092,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2335,10 +2133,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B42E45A7-EF15-44AA-A868-BBE9DA6AFCB1}" name="Tabelle1" displayName="Tabelle1" ref="A1:B13" totalsRowShown="0">
-  <autoFilter ref="A1:B13" xr:uid="{43E75D6E-17FA-4284-B00D-13ADAD35587D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B42E45A7-EF15-44AA-A868-BBE9DA6AFCB1}" name="Tabelle1" displayName="Tabelle1" ref="A1:B12" totalsRowShown="0">
+  <autoFilter ref="A1:B12" xr:uid="{43E75D6E-17FA-4284-B00D-13ADAD35587D}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{0B559FDF-4413-4370-B9ED-7B8E27C4885E}" name="Codes"/>
+    <tableColumn id="1" xr3:uid="{0B559FDF-4413-4370-B9ED-7B8E27C4885E}" name="Codes Level 1"/>
     <tableColumn id="2" xr3:uid="{399351BD-80B6-4288-B4BE-4CA149F055A3}" name="Definition" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2642,10 +2440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B401E1D3-9445-4B4C-A072-A2434CC2F18B}">
-  <dimension ref="A1:F238"/>
+  <dimension ref="A1:F237"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2662,7 +2460,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>205</v>
+        <v>590</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2672,50 +2470,50 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
     </row>
     <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -2725,7 +2523,7 @@
         <v>34</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -2735,7 +2533,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -2745,7 +2543,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
@@ -2755,39 +2553,33 @@
         <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>207</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>226</v>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>204</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>227</v>
-      </c>
       <c r="E13"/>
       <c r="F13"/>
     </row>
@@ -3686,10 +3478,6 @@
     <row r="237" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E237"/>
       <c r="F237"/>
-    </row>
-    <row r="238" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E238"/>
-      <c r="F238"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3704,8 +3492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C654C72-2A14-48F0-AC22-9EDF2E09CA5B}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3716,26 +3504,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="20" t="s">
-        <v>458</v>
+        <v>411</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -3748,10 +3536,10 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>613</v>
+        <v>564</v>
       </c>
       <c r="F3" s="2"/>
     </row>
@@ -3764,10 +3552,10 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>409</v>
+        <v>386</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>614</v>
+        <v>565</v>
       </c>
       <c r="F4" s="2"/>
     </row>
@@ -3780,10 +3568,10 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>410</v>
+        <v>387</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>615</v>
+        <v>566</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -3796,10 +3584,10 @@
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>616</v>
+        <v>567</v>
       </c>
       <c r="F6" s="2"/>
     </row>
@@ -3814,10 +3602,10 @@
         <v>18</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>412</v>
+        <v>389</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>617</v>
+        <v>568</v>
       </c>
       <c r="F7" s="2"/>
     </row>
@@ -3830,10 +3618,10 @@
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>413</v>
+        <v>390</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>618</v>
+        <v>569</v>
       </c>
       <c r="F8" s="2"/>
     </row>
@@ -3846,10 +3634,10 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>414</v>
+        <v>391</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>619</v>
+        <v>570</v>
       </c>
       <c r="F9" s="2"/>
     </row>
@@ -3862,10 +3650,10 @@
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>415</v>
+        <v>392</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>620</v>
+        <v>571</v>
       </c>
       <c r="F10" s="2"/>
     </row>
@@ -3881,8 +3669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D71A272-7C83-4B66-A33D-2AE2C4E95D09}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3893,26 +3681,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B1" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
+      <c r="B1" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" s="21" t="s">
-        <v>458</v>
+        <v>411</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -3921,14 +3709,14 @@
         <v>12</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>416</v>
+        <v>393</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>621</v>
+        <v>572</v>
       </c>
       <c r="F3" s="2"/>
     </row>
@@ -3937,14 +3725,14 @@
         <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>417</v>
+        <v>394</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>622</v>
+        <v>573</v>
       </c>
       <c r="F4" s="2"/>
     </row>
@@ -3953,14 +3741,14 @@
         <v>12</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>418</v>
+        <v>395</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>623</v>
+        <v>574</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -3969,21 +3757,21 @@
         <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>419</v>
+        <v>396</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>625</v>
+        <v>576</v>
       </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="4" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -3995,13 +3783,13 @@
         <v>12</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>420</v>
+        <v>397</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>624</v>
+        <v>575</v>
       </c>
       <c r="F8" s="2"/>
     </row>
@@ -4010,13 +3798,13 @@
         <v>12</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>421</v>
+        <v>398</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>626</v>
+        <v>577</v>
       </c>
       <c r="F9" s="2"/>
     </row>
@@ -4025,14 +3813,14 @@
         <v>12</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>422</v>
+        <v>399</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>627</v>
+        <v>578</v>
       </c>
       <c r="F10" s="2"/>
     </row>
@@ -4045,404 +3833,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F915427E-EB66-4D57-9EE6-CCE54387639F}">
-  <dimension ref="A1:F27"/>
-  <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="53.5546875" customWidth="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1"/>
-    <col min="4" max="4" width="76.109375" customWidth="1"/>
-    <col min="5" max="5" width="65.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B1" s="36" t="s">
-        <v>437</v>
-      </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>629</v>
-      </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>630</v>
-      </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>631</v>
-      </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>634</v>
-      </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>635</v>
-      </c>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>637</v>
-      </c>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="36" t="s">
-        <v>438</v>
-      </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>639</v>
-      </c>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>640</v>
-      </c>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>641</v>
-      </c>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>642</v>
-      </c>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>645</v>
-      </c>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="16"/>
-      <c r="C26" s="23"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="16"/>
-      <c r="C27" s="23"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B1:E1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B0DF86-2410-4906-BE52-F9521CE6C0DA}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4454,26 +3849,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B1" s="37" t="s">
-        <v>188</v>
-      </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="B1" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" s="22" t="s">
-        <v>458</v>
+        <v>411</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="D2" s="22" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -4482,14 +3877,14 @@
         <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="3" t="s">
-        <v>447</v>
+        <v>400</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>646</v>
+        <v>579</v>
       </c>
       <c r="F3" s="2"/>
     </row>
@@ -4498,14 +3893,14 @@
         <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="3" t="s">
-        <v>448</v>
+        <v>401</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>647</v>
+        <v>580</v>
       </c>
       <c r="F4" s="2"/>
     </row>
@@ -4514,14 +3909,14 @@
         <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3" t="s">
-        <v>449</v>
+        <v>402</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>648</v>
+        <v>581</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -4530,14 +3925,14 @@
         <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="3" t="s">
-        <v>450</v>
+        <v>403</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>649</v>
+        <v>582</v>
       </c>
       <c r="F6" s="2"/>
     </row>
@@ -4546,14 +3941,14 @@
         <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="3" t="s">
-        <v>451</v>
+        <v>404</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>650</v>
+        <v>583</v>
       </c>
       <c r="F7" s="2"/>
     </row>
@@ -4565,13 +3960,13 @@
         <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>452</v>
+        <v>405</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>651</v>
+        <v>584</v>
       </c>
       <c r="F8" s="2"/>
     </row>
@@ -4580,14 +3975,14 @@
         <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="3" t="s">
-        <v>453</v>
+        <v>406</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>652</v>
+        <v>585</v>
       </c>
       <c r="F9" s="2"/>
     </row>
@@ -4596,14 +3991,14 @@
         <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="3" t="s">
-        <v>454</v>
+        <v>407</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>653</v>
+        <v>586</v>
       </c>
       <c r="F10" s="2"/>
     </row>
@@ -4612,14 +4007,14 @@
         <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="3" t="s">
-        <v>455</v>
+        <v>408</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>654</v>
+        <v>587</v>
       </c>
       <c r="F11" s="2"/>
     </row>
@@ -4628,14 +4023,14 @@
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="3" t="s">
-        <v>456</v>
+        <v>409</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F12" s="2"/>
     </row>
@@ -4644,14 +4039,14 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="3" t="s">
-        <v>457</v>
+        <v>410</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>656</v>
+        <v>589</v>
       </c>
       <c r="F13" s="2"/>
     </row>
@@ -4667,8 +4062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97EE1575-6DD2-47BE-8FAF-B6DF066CFA3D}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4681,26 +4076,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B1" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="B1" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
-        <v>458</v>
+        <v>411</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -4709,14 +4104,14 @@
         <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>463</v>
+        <v>414</v>
       </c>
       <c r="F3" s="2"/>
     </row>
@@ -4725,14 +4120,14 @@
         <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>465</v>
+        <v>416</v>
       </c>
       <c r="F4" s="2"/>
     </row>
@@ -4741,14 +4136,14 @@
         <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>464</v>
+        <v>415</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -4757,14 +4152,14 @@
         <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>466</v>
+        <v>417</v>
       </c>
       <c r="F6" s="2"/>
     </row>
@@ -4773,11 +4168,11 @@
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="2"/>
@@ -4793,10 +4188,10 @@
         <v>18</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>467</v>
+        <v>418</v>
       </c>
       <c r="F8" s="2"/>
     </row>
@@ -4808,13 +4203,13 @@
         <v>12</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>468</v>
+        <v>419</v>
       </c>
       <c r="F9" s="2"/>
     </row>
@@ -4826,13 +4221,13 @@
         <v>12</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>469</v>
+        <v>420</v>
       </c>
       <c r="F10" s="2"/>
     </row>
@@ -4844,13 +4239,13 @@
         <v>12</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>470</v>
+        <v>421</v>
       </c>
       <c r="F11" s="2"/>
     </row>
@@ -4859,14 +4254,14 @@
         <v>12</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>471</v>
+        <v>422</v>
       </c>
       <c r="F12" s="2"/>
     </row>
@@ -4875,14 +4270,14 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>472</v>
+        <v>423</v>
       </c>
       <c r="F13" s="2"/>
     </row>
@@ -4891,13 +4286,13 @@
         <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>473</v>
+        <v>424</v>
       </c>
       <c r="F14" s="2"/>
     </row>
@@ -4906,13 +4301,13 @@
         <v>12</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>474</v>
+        <v>425</v>
       </c>
       <c r="F15" s="2"/>
     </row>
@@ -4921,14 +4316,14 @@
         <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>475</v>
+        <v>426</v>
       </c>
       <c r="F16" s="2"/>
     </row>
@@ -4937,13 +4332,13 @@
         <v>12</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>476</v>
+        <v>427</v>
       </c>
       <c r="F17" s="2"/>
     </row>
@@ -4952,13 +4347,13 @@
         <v>12</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>477</v>
+        <v>428</v>
       </c>
       <c r="F18" s="2"/>
     </row>
@@ -4974,8 +4369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE098B1-1A9F-4D55-8585-A671B6D9B9D3}">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView topLeftCell="E45" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4991,31 +4386,31 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
-      <c r="B1" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
+      <c r="B1" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
       <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="7" t="s">
-        <v>458</v>
+        <v>411</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>460</v>
+        <v>413</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="G2" s="3"/>
     </row>
@@ -5024,12 +4419,12 @@
         <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -5042,11 +4437,11 @@
         <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -5062,13 +4457,13 @@
         <v>12</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>481</v>
+        <v>432</v>
       </c>
       <c r="G5" s="3"/>
     </row>
@@ -5083,13 +4478,13 @@
         <v>12</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>480</v>
+        <v>431</v>
       </c>
       <c r="G6" s="3"/>
     </row>
@@ -5101,14 +4496,14 @@
         <v>12</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>479</v>
+        <v>430</v>
       </c>
       <c r="G7" s="3"/>
     </row>
@@ -5120,14 +4515,14 @@
         <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>478</v>
+        <v>429</v>
       </c>
       <c r="G8" s="3"/>
     </row>
@@ -5139,14 +4534,14 @@
         <v>12</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>482</v>
+        <v>433</v>
       </c>
       <c r="G9" s="3"/>
     </row>
@@ -5158,11 +4553,11 @@
         <v>12</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>255</v>
+        <v>232</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -5178,13 +4573,13 @@
         <v>12</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>483</v>
+        <v>434</v>
       </c>
       <c r="G11" s="3"/>
     </row>
@@ -5199,13 +4594,13 @@
         <v>12</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>484</v>
+        <v>435</v>
       </c>
       <c r="G12" s="3"/>
     </row>
@@ -5221,10 +4616,10 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>485</v>
+        <v>436</v>
       </c>
       <c r="G13" s="3"/>
     </row>
@@ -5236,14 +4631,14 @@
         <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>486</v>
+        <v>437</v>
       </c>
       <c r="G14" s="3"/>
     </row>
@@ -5252,15 +4647,15 @@
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>487</v>
+        <v>438</v>
       </c>
       <c r="G15" s="3"/>
     </row>
@@ -5269,15 +4664,15 @@
         <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>488</v>
+        <v>439</v>
       </c>
       <c r="G16" s="3"/>
     </row>
@@ -5289,14 +4684,14 @@
         <v>12</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>489</v>
+        <v>440</v>
       </c>
       <c r="G17" s="3"/>
     </row>
@@ -5308,14 +4703,14 @@
         <v>12</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>490</v>
+        <v>441</v>
       </c>
       <c r="G18" s="3"/>
     </row>
@@ -5324,15 +4719,15 @@
         <v>12</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>491</v>
+        <v>442</v>
       </c>
       <c r="G19" s="3"/>
     </row>
@@ -5341,12 +4736,12 @@
         <v>12</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -5359,14 +4754,14 @@
         <v>12</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>492</v>
+        <v>443</v>
       </c>
       <c r="G21" s="3"/>
     </row>
@@ -5378,14 +4773,14 @@
         <v>12</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>493</v>
+        <v>444</v>
       </c>
       <c r="G22" s="3"/>
     </row>
@@ -5401,10 +4796,10 @@
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>494</v>
+        <v>445</v>
       </c>
       <c r="G23" s="3"/>
     </row>
@@ -5416,14 +4811,14 @@
         <v>12</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>495</v>
+        <v>446</v>
       </c>
       <c r="G24" s="3"/>
     </row>
@@ -5435,14 +4830,14 @@
         <v>12</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>496</v>
+        <v>447</v>
       </c>
       <c r="G25" s="3"/>
     </row>
@@ -5454,14 +4849,14 @@
         <v>12</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>497</v>
+        <v>448</v>
       </c>
       <c r="G26" s="3"/>
     </row>
@@ -5470,15 +4865,15 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>498</v>
+        <v>449</v>
       </c>
       <c r="G27" s="3"/>
     </row>
@@ -5487,12 +4882,12 @@
         <v>12</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -5505,14 +4900,14 @@
         <v>12</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>499</v>
+        <v>450</v>
       </c>
       <c r="G29" s="3"/>
     </row>
@@ -5524,14 +4919,14 @@
         <v>12</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>500</v>
+        <v>451</v>
       </c>
       <c r="G30" s="3"/>
     </row>
@@ -5543,14 +4938,14 @@
         <v>12</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3" t="s">
-        <v>276</v>
+        <v>253</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>499</v>
+        <v>450</v>
       </c>
       <c r="G31" s="3"/>
     </row>
@@ -5566,10 +4961,10 @@
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>501</v>
+        <v>452</v>
       </c>
       <c r="G32" s="3"/>
     </row>
@@ -5578,12 +4973,12 @@
         <v>12</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -5600,10 +4995,10 @@
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>502</v>
+        <v>453</v>
       </c>
       <c r="G34" s="3"/>
     </row>
@@ -5615,14 +5010,14 @@
         <v>12</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>503</v>
+        <v>454</v>
       </c>
       <c r="G35" s="3"/>
     </row>
@@ -5634,14 +5029,14 @@
         <v>12</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>504</v>
+        <v>455</v>
       </c>
       <c r="G36" s="3"/>
     </row>
@@ -5653,14 +5048,14 @@
         <v>12</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3" t="s">
-        <v>282</v>
+        <v>259</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>505</v>
+        <v>456</v>
       </c>
       <c r="G37" s="3"/>
     </row>
@@ -5669,12 +5064,12 @@
         <v>12</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3" t="s">
-        <v>284</v>
+        <v>261</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
@@ -5691,10 +5086,10 @@
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>507</v>
+        <v>458</v>
       </c>
       <c r="G39" s="3"/>
     </row>
@@ -5706,14 +5101,14 @@
         <v>12</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>506</v>
+        <v>457</v>
       </c>
       <c r="G40" s="3"/>
     </row>
@@ -5725,14 +5120,14 @@
         <v>12</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>508</v>
+        <v>459</v>
       </c>
       <c r="G41" s="3"/>
     </row>
@@ -5744,14 +5139,14 @@
         <v>12</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3" t="s">
-        <v>288</v>
+        <v>265</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>509</v>
+        <v>460</v>
       </c>
       <c r="G42" s="3"/>
     </row>
@@ -5760,15 +5155,15 @@
         <v>12</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3" t="s">
-        <v>289</v>
+        <v>266</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>510</v>
+        <v>461</v>
       </c>
       <c r="G43" s="3"/>
     </row>
@@ -5777,12 +5172,12 @@
         <v>12</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3" t="s">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -5795,14 +5190,14 @@
         <v>12</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>511</v>
+        <v>462</v>
       </c>
       <c r="G45" s="3"/>
     </row>
@@ -5818,10 +5213,10 @@
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3" t="s">
-        <v>292</v>
+        <v>269</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>512</v>
+        <v>463</v>
       </c>
       <c r="G46" s="3"/>
     </row>
@@ -5833,14 +5228,14 @@
         <v>12</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>513</v>
+        <v>464</v>
       </c>
       <c r="G47" s="3"/>
     </row>
@@ -5852,14 +5247,14 @@
         <v>12</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3" t="s">
-        <v>293</v>
+        <v>270</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>514</v>
+        <v>465</v>
       </c>
       <c r="G48" s="3"/>
     </row>
@@ -5868,12 +5263,12 @@
         <v>12</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
@@ -5886,14 +5281,14 @@
         <v>12</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>515</v>
+        <v>466</v>
       </c>
       <c r="G50" s="3"/>
     </row>
@@ -5905,7 +5300,7 @@
         <v>12</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -5923,13 +5318,13 @@
         <v>12</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>516</v>
+        <v>467</v>
       </c>
       <c r="G52" s="3"/>
     </row>
@@ -5944,13 +5339,13 @@
         <v>12</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>517</v>
+        <v>468</v>
       </c>
       <c r="G53" s="3"/>
     </row>
@@ -5965,13 +5360,13 @@
         <v>12</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>518</v>
+        <v>469</v>
       </c>
       <c r="G54" s="3"/>
     </row>
@@ -5983,7 +5378,7 @@
         <v>12</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -6001,13 +5396,13 @@
         <v>12</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>300</v>
+        <v>277</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>519</v>
+        <v>470</v>
       </c>
       <c r="G56" s="3"/>
     </row>
@@ -6022,13 +5417,13 @@
         <v>12</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>520</v>
+        <v>471</v>
       </c>
       <c r="G57" s="3"/>
     </row>
@@ -6043,13 +5438,13 @@
         <v>12</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>521</v>
+        <v>472</v>
       </c>
       <c r="G58" s="3"/>
     </row>
@@ -6064,13 +5459,13 @@
         <v>12</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>522</v>
+        <v>473</v>
       </c>
       <c r="G59" s="3"/>
     </row>
@@ -6082,14 +5477,14 @@
         <v>12</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>523</v>
+        <v>474</v>
       </c>
       <c r="G60" s="3"/>
     </row>
@@ -6105,10 +5500,10 @@
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>524</v>
+        <v>475</v>
       </c>
       <c r="G61" s="3"/>
     </row>
@@ -6124,8 +5519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07392A47-5175-4595-BC44-1650A45F3926}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView topLeftCell="E7" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6138,26 +5533,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B1" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="B1" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
       <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
-        <v>458</v>
+        <v>411</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>462</v>
+        <v>412</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="F2" s="3"/>
     </row>
@@ -6166,11 +5561,11 @@
         <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -6183,13 +5578,13 @@
         <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>525</v>
+        <v>476</v>
       </c>
       <c r="F4" s="3"/>
     </row>
@@ -6201,13 +5596,13 @@
         <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>526</v>
+        <v>477</v>
       </c>
       <c r="F5" s="3"/>
     </row>
@@ -6219,13 +5614,13 @@
         <v>12</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>527</v>
+        <v>478</v>
       </c>
       <c r="F6" s="3"/>
     </row>
@@ -6237,13 +5632,13 @@
         <v>12</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>528</v>
+        <v>479</v>
       </c>
       <c r="F7" s="3"/>
     </row>
@@ -6255,13 +5650,13 @@
         <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>529</v>
+        <v>480</v>
       </c>
       <c r="F8" s="3"/>
     </row>
@@ -6273,13 +5668,13 @@
         <v>12</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>312</v>
+        <v>289</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>530</v>
+        <v>481</v>
       </c>
       <c r="F9" s="3"/>
     </row>
@@ -6291,13 +5686,13 @@
         <v>12</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>531</v>
+        <v>482</v>
       </c>
       <c r="F10" s="3"/>
     </row>
@@ -6309,13 +5704,13 @@
         <v>12</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>532</v>
+        <v>483</v>
       </c>
       <c r="F11" s="3"/>
     </row>
@@ -6327,13 +5722,13 @@
         <v>12</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>315</v>
+        <v>292</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>533</v>
+        <v>484</v>
       </c>
       <c r="F12" s="3"/>
     </row>
@@ -6345,13 +5740,13 @@
         <v>12</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>316</v>
+        <v>293</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>534</v>
+        <v>485</v>
       </c>
       <c r="F13" s="3"/>
     </row>
@@ -6363,13 +5758,13 @@
         <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>317</v>
+        <v>294</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>535</v>
+        <v>486</v>
       </c>
       <c r="F14" s="3"/>
     </row>
@@ -6381,13 +5776,13 @@
         <v>12</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>536</v>
+        <v>487</v>
       </c>
       <c r="F15" s="3"/>
     </row>
@@ -6399,13 +5794,13 @@
         <v>12</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>319</v>
+        <v>296</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>537</v>
+        <v>488</v>
       </c>
       <c r="F16" s="3"/>
     </row>
@@ -6414,14 +5809,14 @@
         <v>12</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
-        <v>320</v>
+        <v>297</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>538</v>
+        <v>489</v>
       </c>
       <c r="F17" s="3"/>
     </row>
@@ -6430,14 +5825,14 @@
         <v>12</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>539</v>
+        <v>490</v>
       </c>
       <c r="F18" s="3"/>
     </row>
@@ -6446,14 +5841,14 @@
         <v>12</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>540</v>
+        <v>491</v>
       </c>
       <c r="F19" s="3"/>
     </row>
@@ -6462,14 +5857,14 @@
         <v>12</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>541</v>
+        <v>492</v>
       </c>
       <c r="F20" s="3"/>
     </row>
@@ -6478,14 +5873,14 @@
         <v>12</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>324</v>
+        <v>301</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>542</v>
+        <v>493</v>
       </c>
       <c r="F21" s="3"/>
     </row>
@@ -6501,8 +5896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A411C0C-28B1-4379-A4D6-C3F45C1C4DE2}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6514,26 +5909,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B1" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+      <c r="B1" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
-        <v>458</v>
+        <v>411</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -6542,14 +5937,14 @@
         <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="3" t="s">
-        <v>325</v>
+        <v>302</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>543</v>
+        <v>494</v>
       </c>
       <c r="F3" s="2"/>
     </row>
@@ -6558,14 +5953,14 @@
         <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="3" t="s">
-        <v>326</v>
+        <v>303</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>544</v>
+        <v>495</v>
       </c>
       <c r="F4" s="2"/>
     </row>
@@ -6574,14 +5969,14 @@
         <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3" t="s">
-        <v>327</v>
+        <v>304</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>545</v>
+        <v>496</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -6590,14 +5985,14 @@
         <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="3" t="s">
-        <v>328</v>
+        <v>305</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>546</v>
+        <v>497</v>
       </c>
       <c r="F6" s="2"/>
     </row>
@@ -6606,14 +6001,14 @@
         <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="3" t="s">
-        <v>329</v>
+        <v>306</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>547</v>
+        <v>498</v>
       </c>
       <c r="F7" s="2"/>
     </row>
@@ -6622,11 +6017,11 @@
         <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="3" t="s">
-        <v>330</v>
+        <v>307</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="2"/>
@@ -6639,13 +6034,13 @@
         <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>548</v>
+        <v>499</v>
       </c>
       <c r="F9" s="2"/>
     </row>
@@ -6657,13 +6052,13 @@
         <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>332</v>
+        <v>309</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>549</v>
+        <v>500</v>
       </c>
       <c r="F10" s="2"/>
     </row>
@@ -6672,14 +6067,14 @@
         <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="3" t="s">
-        <v>333</v>
+        <v>310</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>550</v>
+        <v>501</v>
       </c>
       <c r="F11" s="2"/>
     </row>
@@ -6688,14 +6083,14 @@
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="3" t="s">
-        <v>334</v>
+        <v>311</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>551</v>
+        <v>502</v>
       </c>
       <c r="F12" s="2"/>
     </row>
@@ -6704,14 +6099,14 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="3" t="s">
-        <v>335</v>
+        <v>312</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>552</v>
+        <v>503</v>
       </c>
       <c r="F13" s="2"/>
     </row>
@@ -6727,8 +6122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B65F74-2026-4F89-81A2-27E36103C220}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6740,27 +6135,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="15" t="s">
-        <v>458</v>
+        <v>411</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -6773,7 +6168,7 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>336</v>
+        <v>313</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="2"/>
@@ -6789,10 +6184,10 @@
         <v>36</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>337</v>
+        <v>314</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>553</v>
+        <v>504</v>
       </c>
       <c r="F4" s="2"/>
     </row>
@@ -6807,10 +6202,10 @@
         <v>37</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>338</v>
+        <v>315</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>554</v>
+        <v>505</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -6823,7 +6218,7 @@
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>339</v>
+        <v>316</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="2"/>
@@ -6839,10 +6234,10 @@
         <v>39</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>555</v>
+        <v>506</v>
       </c>
       <c r="F7" s="2"/>
     </row>
@@ -6857,10 +6252,10 @@
         <v>40</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>556</v>
+        <v>507</v>
       </c>
       <c r="F8" s="2"/>
     </row>
@@ -6873,10 +6268,10 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>557</v>
+        <v>508</v>
       </c>
       <c r="F9" s="2"/>
     </row>
@@ -6889,7 +6284,7 @@
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="2"/>
@@ -6905,10 +6300,10 @@
         <v>43</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>558</v>
+        <v>509</v>
       </c>
       <c r="F11" s="2"/>
     </row>
@@ -6923,10 +6318,10 @@
         <v>44</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>345</v>
+        <v>322</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>559</v>
+        <v>510</v>
       </c>
       <c r="F12" s="2"/>
     </row>
@@ -6939,10 +6334,10 @@
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>346</v>
+        <v>323</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>560</v>
+        <v>511</v>
       </c>
       <c r="F13" s="2"/>
     </row>
@@ -6955,10 +6350,10 @@
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>347</v>
+        <v>324</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>561</v>
+        <v>512</v>
       </c>
       <c r="F14" s="2"/>
     </row>
@@ -6971,10 +6366,10 @@
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>348</v>
+        <v>325</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>562</v>
+        <v>513</v>
       </c>
       <c r="F15" s="2"/>
     </row>
@@ -6987,7 +6382,7 @@
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="2"/>
@@ -7003,10 +6398,10 @@
         <v>18</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>563</v>
+        <v>514</v>
       </c>
       <c r="F17" s="2"/>
     </row>
@@ -7021,10 +6416,10 @@
         <v>49</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>351</v>
+        <v>328</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>564</v>
+        <v>515</v>
       </c>
       <c r="F18" s="2"/>
     </row>
@@ -7039,10 +6434,10 @@
         <v>50</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>352</v>
+        <v>329</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>565</v>
+        <v>516</v>
       </c>
       <c r="F19" s="2"/>
     </row>
@@ -7055,7 +6450,7 @@
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="2"/>
@@ -7071,10 +6466,10 @@
         <v>18</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>354</v>
+        <v>331</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>566</v>
+        <v>517</v>
       </c>
       <c r="F21" s="2"/>
     </row>
@@ -7089,10 +6484,10 @@
         <v>52</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>567</v>
+        <v>518</v>
       </c>
       <c r="F22" s="2"/>
     </row>
@@ -7107,10 +6502,10 @@
         <v>53</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>568</v>
+        <v>519</v>
       </c>
       <c r="F23" s="2"/>
     </row>
@@ -7123,10 +6518,10 @@
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
-        <v>357</v>
+        <v>334</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>569</v>
+        <v>520</v>
       </c>
       <c r="F24" s="2"/>
     </row>
@@ -7142,8 +6537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1EFF3A2-12C7-4554-942E-AC5C50C03C75}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView topLeftCell="F15" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7157,35 +6552,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+      <c r="B1" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
       <c r="H1" s="11"/>
     </row>
     <row r="2" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24"/>
+      <c r="A2" s="23"/>
       <c r="B2" s="13" t="s">
-        <v>458</v>
+        <v>411</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>460</v>
+        <v>413</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>461</v>
+        <v>591</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="H2" s="14"/>
     </row>
@@ -7194,16 +6589,16 @@
         <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>570</v>
+        <v>521</v>
       </c>
       <c r="H3" s="2"/>
     </row>
@@ -7212,13 +6607,13 @@
         <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>359</v>
+        <v>336</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="2"/>
@@ -7231,15 +6626,15 @@
         <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>360</v>
+        <v>337</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>571</v>
+        <v>522</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -7251,15 +6646,15 @@
         <v>12</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>361</v>
+        <v>338</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>572</v>
+        <v>523</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -7268,13 +6663,13 @@
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="2"/>
@@ -7287,15 +6682,15 @@
         <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>363</v>
+        <v>340</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>573</v>
+        <v>524</v>
       </c>
       <c r="H8" s="2"/>
     </row>
@@ -7307,15 +6702,15 @@
         <v>12</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>364</v>
+        <v>341</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>574</v>
+        <v>525</v>
       </c>
       <c r="H9" s="2"/>
     </row>
@@ -7327,15 +6722,15 @@
         <v>12</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>365</v>
+        <v>342</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>575</v>
+        <v>526</v>
       </c>
       <c r="H10" s="2"/>
     </row>
@@ -7344,16 +6739,16 @@
         <v>12</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>366</v>
+        <v>343</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>576</v>
+        <v>527</v>
       </c>
       <c r="H11" s="2"/>
     </row>
@@ -7362,16 +6757,16 @@
         <v>12</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>367</v>
+        <v>344</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>577</v>
+        <v>528</v>
       </c>
       <c r="H12" s="2"/>
     </row>
@@ -7380,16 +6775,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>368</v>
+        <v>345</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>578</v>
+        <v>529</v>
       </c>
       <c r="H13" s="2"/>
     </row>
@@ -7398,16 +6793,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>579</v>
+        <v>530</v>
       </c>
       <c r="H14" s="2"/>
     </row>
@@ -7419,15 +6814,15 @@
         <v>12</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>370</v>
+        <v>347</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>580</v>
+        <v>531</v>
       </c>
       <c r="H15" s="2"/>
     </row>
@@ -7436,13 +6831,13 @@
         <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
-        <v>371</v>
+        <v>348</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="2"/>
@@ -7452,7 +6847,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -7468,14 +6863,14 @@
         <v>12</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
-        <v>372</v>
+        <v>349</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>581</v>
+        <v>532</v>
       </c>
       <c r="H18" s="2"/>
     </row>
@@ -7487,14 +6882,14 @@
         <v>12</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
-        <v>373</v>
+        <v>350</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>582</v>
+        <v>533</v>
       </c>
       <c r="H19" s="2"/>
     </row>
@@ -7506,14 +6901,14 @@
         <v>12</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>374</v>
+        <v>351</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>583</v>
+        <v>534</v>
       </c>
       <c r="H20" s="2"/>
     </row>
@@ -7525,15 +6920,15 @@
         <v>12</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
-        <v>375</v>
+        <v>352</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>584</v>
+        <v>535</v>
       </c>
       <c r="H21" s="2"/>
     </row>
@@ -7548,11 +6943,11 @@
         <v>12</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
-        <v>376</v>
+        <v>353</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="2"/>
@@ -7569,13 +6964,13 @@
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>377</v>
+        <v>354</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>585</v>
+        <v>536</v>
       </c>
       <c r="H23" s="2"/>
     </row>
@@ -7591,13 +6986,13 @@
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>378</v>
+        <v>355</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>586</v>
+        <v>537</v>
       </c>
       <c r="H24" s="2"/>
     </row>
@@ -7612,11 +7007,11 @@
         <v>12</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
-        <v>379</v>
+        <v>356</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="2"/>
@@ -7635,13 +7030,13 @@
         <v>12</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>380</v>
+        <v>357</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>587</v>
+        <v>538</v>
       </c>
       <c r="H26" s="2"/>
     </row>
@@ -7659,13 +7054,13 @@
         <v>12</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>381</v>
+        <v>358</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>588</v>
+        <v>539</v>
       </c>
       <c r="H27" s="2"/>
     </row>
@@ -7677,15 +7072,15 @@
         <v>12</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
-        <v>382</v>
+        <v>359</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>589</v>
+        <v>540</v>
       </c>
       <c r="H28" s="2"/>
     </row>
@@ -7697,12 +7092,12 @@
         <v>12</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3" t="s">
-        <v>383</v>
+        <v>360</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="2"/>
@@ -7718,14 +7113,14 @@
         <v>12</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3" t="s">
-        <v>384</v>
+        <v>361</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>590</v>
+        <v>541</v>
       </c>
       <c r="H30" s="2"/>
     </row>
@@ -7740,14 +7135,14 @@
         <v>12</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3" t="s">
-        <v>385</v>
+        <v>362</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>591</v>
+        <v>542</v>
       </c>
       <c r="H31" s="2"/>
     </row>
@@ -7759,15 +7154,15 @@
         <v>12</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3" t="s">
-        <v>386</v>
+        <v>363</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>592</v>
+        <v>543</v>
       </c>
       <c r="H32" s="2"/>
     </row>
@@ -7783,8 +7178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C748B0E-D4DD-4BAC-8F79-517970D62019}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7795,26 +7190,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="18" t="s">
-        <v>458</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>459</v>
+        <v>411</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>412</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="F2" s="17"/>
     </row>
@@ -7827,10 +7222,10 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>387</v>
+        <v>364</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>593</v>
+        <v>544</v>
       </c>
       <c r="F3" s="2"/>
     </row>
@@ -7843,10 +7238,10 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>388</v>
+        <v>365</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>594</v>
+        <v>545</v>
       </c>
       <c r="F4" s="2"/>
     </row>
@@ -7859,10 +7254,10 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>389</v>
+        <v>366</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>595</v>
+        <v>546</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -7875,10 +7270,10 @@
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="1" t="s">
-        <v>390</v>
+        <v>367</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>596</v>
+        <v>547</v>
       </c>
       <c r="F6" s="2"/>
     </row>
@@ -7891,7 +7286,7 @@
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>391</v>
+        <v>368</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="2"/>
@@ -7907,10 +7302,10 @@
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>392</v>
+        <v>369</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>597</v>
+        <v>548</v>
       </c>
       <c r="F8" s="2"/>
     </row>
@@ -7925,10 +7320,10 @@
         <v>8</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>393</v>
+        <v>370</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>598</v>
+        <v>549</v>
       </c>
       <c r="F9" s="2"/>
     </row>
@@ -7941,10 +7336,10 @@
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>394</v>
+        <v>371</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>599</v>
+        <v>550</v>
       </c>
       <c r="F10" s="2"/>
     </row>
@@ -7957,10 +7352,10 @@
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>600</v>
+        <v>551</v>
       </c>
       <c r="F11" s="2"/>
     </row>
@@ -7973,10 +7368,10 @@
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>396</v>
+        <v>373</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>601</v>
+        <v>552</v>
       </c>
       <c r="F12" s="2"/>
     </row>
@@ -7989,10 +7384,10 @@
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>602</v>
+        <v>553</v>
       </c>
       <c r="F13" s="2"/>
     </row>
@@ -8001,10 +7396,10 @@
         <v>4</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>398</v>
+        <v>375</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>603</v>
+        <v>554</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -8012,10 +7407,10 @@
         <v>5</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>399</v>
+        <v>376</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>604</v>
+        <v>555</v>
       </c>
     </row>
   </sheetData>
@@ -8030,8 +7425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0491FB6F-EFB8-46A3-A1F8-DBF46D387302}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8040,22 +7435,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="s">
-        <v>458</v>
+        <v>411</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -8067,10 +7462,10 @@
         <v>26</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>400</v>
+        <v>377</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>605</v>
+        <v>556</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -8082,10 +7477,10 @@
         <v>27</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>401</v>
+        <v>378</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>606</v>
+        <v>557</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -8097,10 +7492,10 @@
         <v>28</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>402</v>
+        <v>379</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>607</v>
+        <v>558</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -8112,10 +7507,10 @@
         <v>29</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>403</v>
+        <v>380</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>608</v>
+        <v>559</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -8127,10 +7522,10 @@
         <v>30</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>404</v>
+        <v>381</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>609</v>
+        <v>560</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -8142,10 +7537,10 @@
         <v>31</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>405</v>
+        <v>382</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>610</v>
+        <v>561</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -8157,10 +7552,10 @@
         <v>32</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>406</v>
+        <v>383</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>611</v>
+        <v>562</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -8172,10 +7567,10 @@
         <v>33</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>612</v>
+        <v>563</v>
       </c>
       <c r="E10" s="2"/>
     </row>
